--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="251">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -81,6 +81,30 @@
     <t xml:space="preserve">Save figures </t>
   </si>
   <si>
+    <t xml:space="preserve">checkErrDefConstEnable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag to enable checking of error definition consistency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">errorPropTestEnable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag to enable error propagation test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measLinerizationCheckEnable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag to enable checking of measurement linearization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">injectErrors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag to enable error injection</t>
+  </si>
+  <si>
     <t xml:space="preserve">dt_kalmanUpdate</t>
   </si>
   <si>
@@ -216,24 +240,6 @@
     <t xml:space="preserve">Terrain camera misalignment ECRV time constant</t>
   </si>
   <si>
-    <t xml:space="preserve">checkErrDefConstEnable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flag to enable checking of error definition consistency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errorPropTestEnable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flag to enable error propagation test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measLinerizationCheckEnable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flag to enable checking of measurement linearization</t>
-  </si>
-  <si>
     <t xml:space="preserve">thz_st</t>
   </si>
   <si>
@@ -471,37 +477,19 @@
     <t xml:space="preserve">z component of initial position of landmark 3 (MCMF frame)</t>
   </si>
   <si>
-    <t xml:space="preserve">th_m_z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z angle of a ZYX euler angle sequence to define orientation offset of moon to inertial frame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">th_m_y</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">y angle of a ZYX euler angle sequence to define orientation offset </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">of moon to inertial frame</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">th_m_x</t>
+    <t xml:space="preserve">qm_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moon quaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qm_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qm_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qm_4</t>
   </si>
   <si>
     <t xml:space="preserve">State</t>
@@ -549,6 +537,9 @@
     <t xml:space="preserve">parameter</t>
   </si>
   <si>
+    <t xml:space="preserve">all</t>
+  </si>
+  <si>
     <t xml:space="preserve">Q_grav</t>
   </si>
   <si>
@@ -720,9 +711,6 @@
     <t xml:space="preserve">del_rsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Injected satellite position error</t>
-  </si>
-  <si>
     <t xml:space="preserve">del_rsy</t>
   </si>
   <si>
@@ -732,7 +720,7 @@
     <t xml:space="preserve">del_vsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Injected satellite velocity error</t>
+    <t xml:space="preserve">m/s</t>
   </si>
   <si>
     <t xml:space="preserve">del_vsy</t>
@@ -741,55 +729,49 @@
     <t xml:space="preserve">del_vsz</t>
   </si>
   <si>
-    <t xml:space="preserve">del_ax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injected satellite orientation error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del_ay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del_az</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del_thstx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injected star camera misalignment error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del_thsty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del_thstz</t>
-  </si>
-  <si>
     <t xml:space="preserve">del_thcx</t>
   </si>
   <si>
-    <t xml:space="preserve">Injected terrain camera misalignment error</t>
-  </si>
-  <si>
     <t xml:space="preserve">del_thcy</t>
   </si>
   <si>
     <t xml:space="preserve">del_thcz</t>
   </si>
   <si>
-    <t xml:space="preserve">del_gyrox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Injected gyro bias error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del_gyroy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">del_gyroz</t>
+    <t xml:space="preserve">del_accelx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_accely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_accelz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f1rsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f1rsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f1rsz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f2rsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f2rsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f2rsz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f3rsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f3rsy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del_f3rsz</t>
   </si>
   <si>
     <t xml:space="preserve">hrs2min</t>
@@ -819,12 +801,12 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
     <numFmt numFmtId="167" formatCode="0"/>
-    <numFmt numFmtId="168" formatCode="0.00E+00"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
-    <numFmt numFmtId="171" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="0.00E+00"/>
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -854,12 +836,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -987,7 +963,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1008,6 +984,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1032,215 +1024,207 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1252,7 +1236,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1337,13 +1321,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.1"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1431,6 +1420,77 @@
       </c>
       <c r="E5" s="0" t="n">
         <f aca="false">B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <f aca="false">B6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <f aca="false">B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <f aca="false">B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1450,393 +1510,434 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="A1:E5 F4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" s="34" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C2</f>
-        <v>m</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="52" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="34" t="n">
         <f aca="false">B2</f>
-        <v>100</v>
-      </c>
-      <c r="F2" s="34"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" s="34" t="n">
-        <v>200</v>
-      </c>
-      <c r="C3" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C3</f>
-        <v>m</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" s="52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="34" t="n">
         <f aca="false">B3</f>
-        <v>200</v>
-      </c>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="34" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C4</f>
-        <v>m</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" s="52" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="35"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="39" t="n">
         <f aca="false">B4</f>
-        <v>300</v>
-      </c>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" s="34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C5</f>
-        <v>m/sec</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="52" t="n">
+      <c r="C5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="34" t="n">
         <f aca="false">B5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="34" t="n">
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C6</f>
-        <v>m/sec</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="52" t="n">
+      <c r="C6" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="34" t="n">
         <f aca="false">B6</f>
         <v>2</v>
       </c>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C7</f>
-        <v>m/sec</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="52" t="n">
+      <c r="D7" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="34" t="n">
         <f aca="false">B7</f>
         <v>3</v>
       </c>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="B8" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="34" t="s">
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="61" t="s">
         <v>230</v>
       </c>
-      <c r="E8" s="52" t="n">
-        <f aca="false">B8/1000</f>
-        <v>0.001</v>
-      </c>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
+      <c r="B8" s="40" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="42" t="n">
+        <f aca="false">RADIANS(B8)</f>
+        <v>0.00174532925199433</v>
+      </c>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="61" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="52" t="n">
-        <f aca="false">B9/1000</f>
-        <v>0.002</v>
-      </c>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="B9" s="43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="44" t="n">
+        <f aca="false">RADIANS(B9)</f>
+        <v>0.00349065850398866</v>
+      </c>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="B10" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="52" t="n">
-        <f aca="false">B10/1000</f>
-        <v>0.003</v>
-      </c>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
+      <c r="B10" s="43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="46" t="n">
+        <f aca="false">RADIANS(B10)</f>
+        <v>0.00523598775598299</v>
+      </c>
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="61" t="s">
         <v>233</v>
       </c>
-      <c r="B11" s="34" t="n">
-        <v>180</v>
-      </c>
-      <c r="C11" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C11</f>
-        <v>arcsec</v>
-      </c>
-      <c r="D11" s="34" t="s">
+      <c r="B11" s="47" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="48" t="n">
+        <f aca="false">B11</f>
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="61" t="s">
         <v>234</v>
       </c>
-      <c r="E11" s="52" t="n">
-        <f aca="false">RADIANS(B11)/3600</f>
-        <v>0.000872664625997165</v>
-      </c>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="s">
+      <c r="B12" s="49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="50" t="n">
+        <f aca="false">B12</f>
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="B12" s="34" t="n">
-        <v>150</v>
-      </c>
-      <c r="C12" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C12</f>
-        <v>arcsec</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="52" t="n">
-        <f aca="false">RADIANS(B12)/3600</f>
-        <v>0.000727220521664304</v>
-      </c>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="s">
+      <c r="B13" s="49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="51" t="n">
+        <f aca="false">B13</f>
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="61" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="34" t="n">
-        <v>130</v>
-      </c>
-      <c r="C13" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C13</f>
-        <v>arcsec</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="52" t="n">
-        <f aca="false">RADIANS(B13)/3600</f>
-        <v>0.000630257785442397</v>
-      </c>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="s">
+      <c r="B14" s="33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="52" t="n">
+        <f aca="false">B14</f>
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="34" t="n">
-        <v>180</v>
-      </c>
-      <c r="C14" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C14</f>
-        <v>arcsec</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="B15" s="33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="53" t="n">
+        <f aca="false">B15</f>
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="61" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="52" t="n">
-        <f aca="false">RADIANS(B14)/3600</f>
-        <v>0.000872664625997165</v>
-      </c>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="s">
+      <c r="B16" s="33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="54" t="n">
+        <f aca="false">B16</f>
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="35"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B15" s="34" t="n">
-        <v>150</v>
-      </c>
-      <c r="C15" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C15</f>
-        <v>arcsec</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E15" s="52" t="n">
-        <f aca="false">RADIANS(B15)/3600</f>
-        <v>0.000727220521664304</v>
-      </c>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
+      <c r="B17" s="33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="52" t="n">
+        <f aca="false">B17</f>
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="61" t="s">
         <v>240</v>
       </c>
-      <c r="B16" s="34" t="n">
-        <v>130</v>
-      </c>
-      <c r="C16" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C16</f>
-        <v>arcsec</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="52" t="n">
-        <f aca="false">RADIANS(B16)/3600</f>
-        <v>0.000630257785442397</v>
-      </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60" t="s">
+      <c r="B18" s="33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="53" t="n">
+        <f aca="false">B18</f>
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="35"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C17</f>
-        <v>deg/hr</v>
-      </c>
-      <c r="D17" s="34" t="s">
+      <c r="B19" s="33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="54" t="n">
+        <f aca="false">B19</f>
+        <v>0.3</v>
+      </c>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="52" t="n">
-        <f aca="false">RADIANS(B17)/hr2sec</f>
-        <v>4.84813681109536E-006</v>
-      </c>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
+      <c r="B20" s="33" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="52" t="n">
+        <f aca="false">B20</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="61" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="34" t="str">
-        <f aca="false">truthStateInitialUncertainty!C18</f>
-        <v>deg/hr</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" s="52" t="n">
-        <f aca="false">RADIANS(B18)/hr2sec</f>
-        <v>4.84813681109536E-006</v>
-      </c>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
+      <c r="B21" s="33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="53" t="n">
+        <f aca="false">B21</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="B19" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" s="36" t="str">
-        <f aca="false">truthStateInitialUncertainty!C19</f>
-        <v>deg/hr</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="53" t="n">
-        <f aca="false">RADIANS(B19)/hr2sec</f>
-        <v>4.84813681109536E-006</v>
-      </c>
-      <c r="F19" s="36"/>
+      <c r="B22" s="33" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="54" t="n">
+        <f aca="false">B22</f>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1857,13 +1958,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A1:E5 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,17 +2037,18 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E41" activeCellId="1" sqref="A1:E5 E41"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="A2:A22 D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,730 +2069,688 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8" t="n">
+      <c r="A2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="n">
+      <c r="C2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="14" t="n">
         <f aca="false">B2</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="12" t="n">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15" t="n">
         <v>0.25</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="14" t="n">
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="16" t="n">
         <f aca="false">B3</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="12" t="n">
+      <c r="A4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="15" t="n">
         <f aca="false">B5*0.5</f>
         <v>3404.71010099543</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="14" t="n">
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="16" t="n">
         <f aca="false">B4</f>
         <v>3404.71010099543</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="12" t="n">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="15" t="n">
         <f aca="false">2*PI()/SQRT(B9)*((B11+B12+2*B13)/2)^(3/2)</f>
         <v>6809.42020199087</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="14" t="n">
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="16" t="n">
         <f aca="false">B5</f>
         <v>6809.42020199087</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="15" t="n">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="14" t="n">
+      <c r="D6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="16" t="n">
         <f aca="false">B6</f>
         <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="15" t="n">
+      <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="14" t="n">
+      <c r="D7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="16" t="n">
         <f aca="false">B7</f>
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="15" t="n">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <f aca="false">12*6</f>
         <v>72</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="14" t="n">
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="16" t="n">
         <f aca="false">B8</f>
         <v>72</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="16" t="n">
+      <c r="A9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="17" t="n">
         <v>4902.801076</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="14" t="n">
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="16" t="n">
         <f aca="false">B9*1000^3</f>
         <v>4902801076000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="14" t="n">
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="16" t="n">
         <f aca="false">B10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="12" t="n">
+      <c r="A11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="15" t="n">
         <v>100</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="14" t="n">
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="16" t="n">
         <f aca="false">B11*1000</f>
         <v>100000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="12" t="n">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="14" t="n">
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="16" t="n">
         <f aca="false">B12*1000</f>
         <v>10000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="12" t="n">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="15" t="n">
         <v>1737.4</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="14" t="n">
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="16" t="n">
         <f aca="false">B13*1000</f>
         <v>1737400</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="12" t="n">
+      <c r="A14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="15" t="n">
         <v>1737.4</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="14" t="n">
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="16" t="n">
         <f aca="false">B14*1000</f>
         <v>1737400</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="12" t="n">
+      <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="15" t="n">
         <v>13.17635815</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="14" t="n">
+      <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="16" t="n">
         <f aca="false">RADIANS(B15)/86400</f>
         <v>2.66169945763297E-006</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="14" t="n">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="16" t="n">
         <f aca="false">B16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="14" t="n">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="16" t="n">
         <f aca="false">B17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="14" t="n">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="16" t="n">
         <f aca="false">B18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="17" t="n">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="18" t="n">
         <f aca="false">$B$5/2</f>
         <v>3404.71010099543</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="14" t="n">
+      <c r="C19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="16" t="n">
         <f aca="false">B19</f>
         <v>3404.71010099543</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" s="17" t="n">
+      <c r="A20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="18" t="n">
         <f aca="false">$B$5/2</f>
         <v>3404.71010099543</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="14" t="n">
+      <c r="C20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="16" t="n">
         <f aca="false">B20</f>
         <v>3404.71010099543</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="17" t="n">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="18" t="n">
         <f aca="false">$B$5/2</f>
         <v>3404.71010099543</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="14" t="n">
+      <c r="C21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="16" t="n">
         <f aca="false">B21</f>
         <v>3404.71010099543</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>59</v>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="16" t="n">
+        <f aca="false">RADIANS(B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="16" t="n">
+        <f aca="false">RADIANS(B23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="16" t="n">
+        <f aca="false">RADIANS(B24)</f>
+        <v>3.14159265358979</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="16" t="n">
+        <f aca="false">RADIANS(B25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="16" t="n">
+        <f aca="false">RADIANS(B26)</f>
+        <v>0.174532925199433</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="16" t="n">
+        <f aca="false">RADIANS(B27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="16" t="n">
+        <f aca="false">B28</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="16" t="n">
+        <f aca="false">B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="16" t="n">
+        <f aca="false">B30/1000</f>
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="16" t="n">
+        <f aca="false">B31*0.000001</f>
+        <v>7E-006</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C32" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="14" t="n">
-        <f aca="false">B22</f>
+      <c r="D32" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="22" t="n">
+        <f aca="false">B32</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="13" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="14" t="n">
-        <f aca="false">B23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="13" t="s">
+      <c r="D33" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="14" t="n">
+        <f aca="false">B33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="14" t="n">
-        <f aca="false">B24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="14" t="n">
-        <f aca="false">RADIANS(B25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="D34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="16" t="n">
+        <f aca="false">B34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="27" t="n">
+        <f aca="false">B35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>800</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <f aca="false">B36</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <f aca="false">B37</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="C38" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="14" t="n">
-        <f aca="false">RADIANS(B26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="12" t="n">
-        <v>180</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="14" t="n">
-        <f aca="false">RADIANS(B27)</f>
-        <v>3.14159265358979</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="14" t="n">
-        <f aca="false">RADIANS(B28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="14" t="n">
-        <f aca="false">RADIANS(B29)</f>
-        <v>0.174532925199433</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="14" t="n">
-        <f aca="false">RADIANS(B30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="12" t="n">
-        <v>30</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="14" t="n">
-        <f aca="false">B31</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="14" t="n">
-        <f aca="false">B32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="12" t="n">
-        <v>19</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="14" t="n">
-        <f aca="false">B33/1000</f>
-        <v>0.019</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="12" t="n">
-        <v>7</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="14" t="n">
-        <f aca="false">B34*0.000001</f>
-        <v>7E-006</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="21" t="n">
-        <f aca="false">B35</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B36" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="10" t="n">
-        <f aca="false">B36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="14" t="n">
-        <f aca="false">B37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="26" t="n">
-        <f aca="false">B38</f>
-        <v>0</v>
+      <c r="D38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <f aca="false">RADIANS(B38)</f>
+        <v>8.72664625997165E-005</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>800</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <f aca="false">B39</f>
-        <v>800</v>
-      </c>
+      <c r="B39" s="0"/>
+      <c r="E39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <f aca="false">B40</f>
-        <v>2</v>
-      </c>
+      <c r="B40" s="0"/>
+      <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <f aca="false">RADIANS(B41)</f>
-        <v>8.72664625997165E-005</v>
-      </c>
+      <c r="B41" s="0"/>
+      <c r="E41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
@@ -2711,10 +2772,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="1" sqref="A1:E5 D25"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="A2:A22 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2722,454 +2783,473 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="32" t="n">
+      <c r="A2" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="33" t="n">
         <v>1737</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="33" t="n">
+      <c r="C2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="34" t="n">
         <f aca="false">B2*1000</f>
         <v>1737000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="A3" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="34" t="n">
+        <f aca="false">B3*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="39" t="n">
+        <f aca="false">B4*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="33" t="n">
-        <f aca="false">B3*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="36" t="s">
+      <c r="E5" s="34" t="n">
+        <f aca="false">B5*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="38" t="n">
-        <f aca="false">B4*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="E6" s="34" t="n">
+        <f aca="false">B6*1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="33" t="n">
-        <f aca="false">B5*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="33" t="n">
-        <f aca="false">B6*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="33" t="n">
+      <c r="E7" s="34" t="n">
         <f aca="false">B7*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" s="39" t="n">
+      <c r="A8" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="41" t="n">
+      <c r="C8" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" s="42" t="n">
         <f aca="false">RADIANS(B8)</f>
         <v>0.0174532925199433</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="42" t="n">
+      <c r="A9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="43" t="n">
+      <c r="C9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="44" t="n">
         <f aca="false">RADIANS(B9)</f>
         <v>0.0174532925199433</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="42" t="n">
+      <c r="A10" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="45" t="n">
+      <c r="C10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="46" t="n">
         <f aca="false">RADIANS(B10)</f>
         <v>0.0174532925199433</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="46" t="n">
+      <c r="A11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="47" t="n">
         <v>0.1</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="47" t="n">
+      <c r="C11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="48" t="n">
         <f aca="false">B11</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="49" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="48" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E12" s="49" t="n">
+      <c r="D12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="50" t="n">
         <f aca="false">B12</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="48" t="n">
+      <c r="A13" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="49" t="n">
         <v>0.1</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="50" t="n">
+      <c r="C13" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="51" t="n">
         <f aca="false">B13</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="32" t="n">
+      <c r="A14" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="33" t="n">
         <v>1737</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="51" t="n">
+      <c r="C14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="52" t="n">
         <f aca="false">B14*1000</f>
         <v>1737000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="35" t="n">
+      <c r="A15" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="36" t="n">
         <v>0.001</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="52" t="n">
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="53" t="n">
         <f aca="false">B15*1000</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="53" t="n">
+      <c r="A16" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="54" t="n">
         <f aca="false">B16*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B17" s="32" t="n">
+      <c r="A17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="33" t="n">
         <v>1737</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E17" s="51" t="n">
+      <c r="C17" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" s="52" t="n">
         <f aca="false">B17*1000</f>
         <v>1737000</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="52" t="n">
+      <c r="A18" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="53" t="n">
         <f aca="false">B18*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="37" t="n">
+      <c r="A19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="38" t="n">
         <v>0.001</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="53" t="n">
+      <c r="C19" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="54" t="n">
         <f aca="false">B19*1000</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" s="32" t="n">
+      <c r="A20" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="33" t="n">
         <v>1737</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="51" t="n">
+      <c r="C20" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="52" t="n">
         <f aca="false">B20*1000</f>
         <v>1737000</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="35" t="n">
+      <c r="A21" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="36" t="n">
         <v>0.001</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="52" t="n">
+      <c r="C21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="53" t="n">
         <f aca="false">B21*1000</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="37" t="n">
+      <c r="A22" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="38" t="n">
         <v>0.001</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" s="53" t="n">
+      <c r="C22" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="54" t="n">
         <f aca="false">B22*1000</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="41" t="n">
-        <f aca="false">RADIANS(B23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="A23" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="34" t="s">
+      <c r="B23" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="43" t="n">
-        <f aca="false">RADIANS(B24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="s">
+      <c r="E23" s="55" t="n">
+        <f aca="false">B23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B25" s="54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="36" t="s">
+      <c r="B24" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="E25" s="45" t="n">
-        <f aca="false">RADIANS(B25)</f>
+      <c r="E24" s="8" t="n">
+        <f aca="false">B24/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="55" t="n">
+        <f aca="false">B25/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B26" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="55" t="n">
+        <f aca="false">B26/3</f>
         <v>0</v>
       </c>
     </row>
@@ -3192,7 +3272,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="1" sqref="A1:E5 F21"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="A2:A22 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3200,28 +3280,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3238,7 +3319,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -3254,8 +3335,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>156</v>
+      <c r="A4" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>7</v>
@@ -3272,7 +3353,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -3289,7 +3370,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -3306,7 +3387,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>16</v>
@@ -3323,7 +3404,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>19</v>
@@ -3339,8 +3420,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>161</v>
+      <c r="A9" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>22</v>
@@ -3357,7 +3438,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">B2</f>
@@ -3378,7 +3459,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B6</f>
@@ -3399,7 +3480,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">B9</f>
@@ -3418,7 +3499,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">B2</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">C9</f>
+        <v>25</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <f aca="false">D2</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <f aca="false">E9</f>
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3435,10 +3536,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="1" sqref="A1:E5 C16"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="A2:A22 E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3446,28 +3547,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3484,7 +3586,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -3500,8 +3602,8 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>156</v>
+      <c r="A4" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>7</v>
@@ -3518,7 +3620,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -3535,7 +3637,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -3552,7 +3654,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>16</v>
@@ -3569,7 +3671,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>19</v>
@@ -3586,7 +3688,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">B2</f>
@@ -3607,7 +3709,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">B6</f>
@@ -3625,6 +3727,987 @@
         <f aca="false">E8</f>
         <v>21</v>
       </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">B2</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">C8</f>
+        <v>21</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">D2</f>
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">E8</f>
+        <v>21</v>
+      </c>
+      <c r="BM11" s="0"/>
+      <c r="BN11" s="0"/>
+      <c r="BO11" s="0"/>
+      <c r="BP11" s="0"/>
+      <c r="BQ11" s="0"/>
+      <c r="BR11" s="0"/>
+      <c r="BS11" s="0"/>
+      <c r="BT11" s="0"/>
+      <c r="BU11" s="0"/>
+      <c r="BV11" s="0"/>
+      <c r="BW11" s="0"/>
+      <c r="BX11" s="0"/>
+      <c r="BY11" s="0"/>
+      <c r="BZ11" s="0"/>
+      <c r="CA11" s="0"/>
+      <c r="CB11" s="0"/>
+      <c r="CC11" s="0"/>
+      <c r="CD11" s="0"/>
+      <c r="CE11" s="0"/>
+      <c r="CF11" s="0"/>
+      <c r="CG11" s="0"/>
+      <c r="CH11" s="0"/>
+      <c r="CI11" s="0"/>
+      <c r="CJ11" s="0"/>
+      <c r="CK11" s="0"/>
+      <c r="CL11" s="0"/>
+      <c r="CM11" s="0"/>
+      <c r="CN11" s="0"/>
+      <c r="CO11" s="0"/>
+      <c r="CP11" s="0"/>
+      <c r="CQ11" s="0"/>
+      <c r="CR11" s="0"/>
+      <c r="CS11" s="0"/>
+      <c r="CT11" s="0"/>
+      <c r="CU11" s="0"/>
+      <c r="CV11" s="0"/>
+      <c r="CW11" s="0"/>
+      <c r="CX11" s="0"/>
+      <c r="CY11" s="0"/>
+      <c r="CZ11" s="0"/>
+      <c r="DA11" s="0"/>
+      <c r="DB11" s="0"/>
+      <c r="DC11" s="0"/>
+      <c r="DD11" s="0"/>
+      <c r="DE11" s="0"/>
+      <c r="DF11" s="0"/>
+      <c r="DG11" s="0"/>
+      <c r="DH11" s="0"/>
+      <c r="DI11" s="0"/>
+      <c r="DJ11" s="0"/>
+      <c r="DK11" s="0"/>
+      <c r="DL11" s="0"/>
+      <c r="DM11" s="0"/>
+      <c r="DN11" s="0"/>
+      <c r="DO11" s="0"/>
+      <c r="DP11" s="0"/>
+      <c r="DQ11" s="0"/>
+      <c r="DR11" s="0"/>
+      <c r="DS11" s="0"/>
+      <c r="DT11" s="0"/>
+      <c r="DU11" s="0"/>
+      <c r="DV11" s="0"/>
+      <c r="DW11" s="0"/>
+      <c r="DX11" s="0"/>
+      <c r="DY11" s="0"/>
+      <c r="DZ11" s="0"/>
+      <c r="EA11" s="0"/>
+      <c r="EB11" s="0"/>
+      <c r="EC11" s="0"/>
+      <c r="ED11" s="0"/>
+      <c r="EE11" s="0"/>
+      <c r="EF11" s="0"/>
+      <c r="EG11" s="0"/>
+      <c r="EH11" s="0"/>
+      <c r="EI11" s="0"/>
+      <c r="EJ11" s="0"/>
+      <c r="EK11" s="0"/>
+      <c r="EL11" s="0"/>
+      <c r="EM11" s="0"/>
+      <c r="EN11" s="0"/>
+      <c r="EO11" s="0"/>
+      <c r="EP11" s="0"/>
+      <c r="EQ11" s="0"/>
+      <c r="ER11" s="0"/>
+      <c r="ES11" s="0"/>
+      <c r="ET11" s="0"/>
+      <c r="EU11" s="0"/>
+      <c r="EV11" s="0"/>
+      <c r="EW11" s="0"/>
+      <c r="EX11" s="0"/>
+      <c r="EY11" s="0"/>
+      <c r="EZ11" s="0"/>
+      <c r="FA11" s="0"/>
+      <c r="FB11" s="0"/>
+      <c r="FC11" s="0"/>
+      <c r="FD11" s="0"/>
+      <c r="FE11" s="0"/>
+      <c r="FF11" s="0"/>
+      <c r="FG11" s="0"/>
+      <c r="FH11" s="0"/>
+      <c r="FI11" s="0"/>
+      <c r="FJ11" s="0"/>
+      <c r="FK11" s="0"/>
+      <c r="FL11" s="0"/>
+      <c r="FM11" s="0"/>
+      <c r="FN11" s="0"/>
+      <c r="FO11" s="0"/>
+      <c r="FP11" s="0"/>
+      <c r="FQ11" s="0"/>
+      <c r="FR11" s="0"/>
+      <c r="FS11" s="0"/>
+      <c r="FT11" s="0"/>
+      <c r="FU11" s="0"/>
+      <c r="FV11" s="0"/>
+      <c r="FW11" s="0"/>
+      <c r="FX11" s="0"/>
+      <c r="FY11" s="0"/>
+      <c r="FZ11" s="0"/>
+      <c r="GA11" s="0"/>
+      <c r="GB11" s="0"/>
+      <c r="GC11" s="0"/>
+      <c r="GD11" s="0"/>
+      <c r="GE11" s="0"/>
+      <c r="GF11" s="0"/>
+      <c r="GG11" s="0"/>
+      <c r="GH11" s="0"/>
+      <c r="GI11" s="0"/>
+      <c r="GJ11" s="0"/>
+      <c r="GK11" s="0"/>
+      <c r="GL11" s="0"/>
+      <c r="GM11" s="0"/>
+      <c r="GN11" s="0"/>
+      <c r="GO11" s="0"/>
+      <c r="GP11" s="0"/>
+      <c r="GQ11" s="0"/>
+      <c r="GR11" s="0"/>
+      <c r="GS11" s="0"/>
+      <c r="GT11" s="0"/>
+      <c r="GU11" s="0"/>
+      <c r="GV11" s="0"/>
+      <c r="GW11" s="0"/>
+      <c r="GX11" s="0"/>
+      <c r="GY11" s="0"/>
+      <c r="GZ11" s="0"/>
+      <c r="HA11" s="0"/>
+      <c r="HB11" s="0"/>
+      <c r="HC11" s="0"/>
+      <c r="HD11" s="0"/>
+      <c r="HE11" s="0"/>
+      <c r="HF11" s="0"/>
+      <c r="HG11" s="0"/>
+      <c r="HH11" s="0"/>
+      <c r="HI11" s="0"/>
+      <c r="HJ11" s="0"/>
+      <c r="HK11" s="0"/>
+      <c r="HL11" s="0"/>
+      <c r="HM11" s="0"/>
+      <c r="HN11" s="0"/>
+      <c r="HO11" s="0"/>
+      <c r="HP11" s="0"/>
+      <c r="HQ11" s="0"/>
+      <c r="HR11" s="0"/>
+      <c r="HS11" s="0"/>
+      <c r="HT11" s="0"/>
+      <c r="HU11" s="0"/>
+      <c r="HV11" s="0"/>
+      <c r="HW11" s="0"/>
+      <c r="HX11" s="0"/>
+      <c r="HY11" s="0"/>
+      <c r="HZ11" s="0"/>
+      <c r="IA11" s="0"/>
+      <c r="IB11" s="0"/>
+      <c r="IC11" s="0"/>
+      <c r="ID11" s="0"/>
+      <c r="IE11" s="0"/>
+      <c r="IF11" s="0"/>
+      <c r="IG11" s="0"/>
+      <c r="IH11" s="0"/>
+      <c r="II11" s="0"/>
+      <c r="IJ11" s="0"/>
+      <c r="IK11" s="0"/>
+      <c r="IL11" s="0"/>
+      <c r="IM11" s="0"/>
+      <c r="IN11" s="0"/>
+      <c r="IO11" s="0"/>
+      <c r="IP11" s="0"/>
+      <c r="IQ11" s="0"/>
+      <c r="IR11" s="0"/>
+      <c r="IS11" s="0"/>
+      <c r="IT11" s="0"/>
+      <c r="IU11" s="0"/>
+      <c r="IV11" s="0"/>
+      <c r="IW11" s="0"/>
+      <c r="IX11" s="0"/>
+      <c r="IY11" s="0"/>
+      <c r="IZ11" s="0"/>
+      <c r="JA11" s="0"/>
+      <c r="JB11" s="0"/>
+      <c r="JC11" s="0"/>
+      <c r="JD11" s="0"/>
+      <c r="JE11" s="0"/>
+      <c r="JF11" s="0"/>
+      <c r="JG11" s="0"/>
+      <c r="JH11" s="0"/>
+      <c r="JI11" s="0"/>
+      <c r="JJ11" s="0"/>
+      <c r="JK11" s="0"/>
+      <c r="JL11" s="0"/>
+      <c r="JM11" s="0"/>
+      <c r="JN11" s="0"/>
+      <c r="JO11" s="0"/>
+      <c r="JP11" s="0"/>
+      <c r="JQ11" s="0"/>
+      <c r="JR11" s="0"/>
+      <c r="JS11" s="0"/>
+      <c r="JT11" s="0"/>
+      <c r="JU11" s="0"/>
+      <c r="JV11" s="0"/>
+      <c r="JW11" s="0"/>
+      <c r="JX11" s="0"/>
+      <c r="JY11" s="0"/>
+      <c r="JZ11" s="0"/>
+      <c r="KA11" s="0"/>
+      <c r="KB11" s="0"/>
+      <c r="KC11" s="0"/>
+      <c r="KD11" s="0"/>
+      <c r="KE11" s="0"/>
+      <c r="KF11" s="0"/>
+      <c r="KG11" s="0"/>
+      <c r="KH11" s="0"/>
+      <c r="KI11" s="0"/>
+      <c r="KJ11" s="0"/>
+      <c r="KK11" s="0"/>
+      <c r="KL11" s="0"/>
+      <c r="KM11" s="0"/>
+      <c r="KN11" s="0"/>
+      <c r="KO11" s="0"/>
+      <c r="KP11" s="0"/>
+      <c r="KQ11" s="0"/>
+      <c r="KR11" s="0"/>
+      <c r="KS11" s="0"/>
+      <c r="KT11" s="0"/>
+      <c r="KU11" s="0"/>
+      <c r="KV11" s="0"/>
+      <c r="KW11" s="0"/>
+      <c r="KX11" s="0"/>
+      <c r="KY11" s="0"/>
+      <c r="KZ11" s="0"/>
+      <c r="LA11" s="0"/>
+      <c r="LB11" s="0"/>
+      <c r="LC11" s="0"/>
+      <c r="LD11" s="0"/>
+      <c r="LE11" s="0"/>
+      <c r="LF11" s="0"/>
+      <c r="LG11" s="0"/>
+      <c r="LH11" s="0"/>
+      <c r="LI11" s="0"/>
+      <c r="LJ11" s="0"/>
+      <c r="LK11" s="0"/>
+      <c r="LL11" s="0"/>
+      <c r="LM11" s="0"/>
+      <c r="LN11" s="0"/>
+      <c r="LO11" s="0"/>
+      <c r="LP11" s="0"/>
+      <c r="LQ11" s="0"/>
+      <c r="LR11" s="0"/>
+      <c r="LS11" s="0"/>
+      <c r="LT11" s="0"/>
+      <c r="LU11" s="0"/>
+      <c r="LV11" s="0"/>
+      <c r="LW11" s="0"/>
+      <c r="LX11" s="0"/>
+      <c r="LY11" s="0"/>
+      <c r="LZ11" s="0"/>
+      <c r="MA11" s="0"/>
+      <c r="MB11" s="0"/>
+      <c r="MC11" s="0"/>
+      <c r="MD11" s="0"/>
+      <c r="ME11" s="0"/>
+      <c r="MF11" s="0"/>
+      <c r="MG11" s="0"/>
+      <c r="MH11" s="0"/>
+      <c r="MI11" s="0"/>
+      <c r="MJ11" s="0"/>
+      <c r="MK11" s="0"/>
+      <c r="ML11" s="0"/>
+      <c r="MM11" s="0"/>
+      <c r="MN11" s="0"/>
+      <c r="MO11" s="0"/>
+      <c r="MP11" s="0"/>
+      <c r="MQ11" s="0"/>
+      <c r="MR11" s="0"/>
+      <c r="MS11" s="0"/>
+      <c r="MT11" s="0"/>
+      <c r="MU11" s="0"/>
+      <c r="MV11" s="0"/>
+      <c r="MW11" s="0"/>
+      <c r="MX11" s="0"/>
+      <c r="MY11" s="0"/>
+      <c r="MZ11" s="0"/>
+      <c r="NA11" s="0"/>
+      <c r="NB11" s="0"/>
+      <c r="NC11" s="0"/>
+      <c r="ND11" s="0"/>
+      <c r="NE11" s="0"/>
+      <c r="NF11" s="0"/>
+      <c r="NG11" s="0"/>
+      <c r="NH11" s="0"/>
+      <c r="NI11" s="0"/>
+      <c r="NJ11" s="0"/>
+      <c r="NK11" s="0"/>
+      <c r="NL11" s="0"/>
+      <c r="NM11" s="0"/>
+      <c r="NN11" s="0"/>
+      <c r="NO11" s="0"/>
+      <c r="NP11" s="0"/>
+      <c r="NQ11" s="0"/>
+      <c r="NR11" s="0"/>
+      <c r="NS11" s="0"/>
+      <c r="NT11" s="0"/>
+      <c r="NU11" s="0"/>
+      <c r="NV11" s="0"/>
+      <c r="NW11" s="0"/>
+      <c r="NX11" s="0"/>
+      <c r="NY11" s="0"/>
+      <c r="NZ11" s="0"/>
+      <c r="OA11" s="0"/>
+      <c r="OB11" s="0"/>
+      <c r="OC11" s="0"/>
+      <c r="OD11" s="0"/>
+      <c r="OE11" s="0"/>
+      <c r="OF11" s="0"/>
+      <c r="OG11" s="0"/>
+      <c r="OH11" s="0"/>
+      <c r="OI11" s="0"/>
+      <c r="OJ11" s="0"/>
+      <c r="OK11" s="0"/>
+      <c r="OL11" s="0"/>
+      <c r="OM11" s="0"/>
+      <c r="ON11" s="0"/>
+      <c r="OO11" s="0"/>
+      <c r="OP11" s="0"/>
+      <c r="OQ11" s="0"/>
+      <c r="OR11" s="0"/>
+      <c r="OS11" s="0"/>
+      <c r="OT11" s="0"/>
+      <c r="OU11" s="0"/>
+      <c r="OV11" s="0"/>
+      <c r="OW11" s="0"/>
+      <c r="OX11" s="0"/>
+      <c r="OY11" s="0"/>
+      <c r="OZ11" s="0"/>
+      <c r="PA11" s="0"/>
+      <c r="PB11" s="0"/>
+      <c r="PC11" s="0"/>
+      <c r="PD11" s="0"/>
+      <c r="PE11" s="0"/>
+      <c r="PF11" s="0"/>
+      <c r="PG11" s="0"/>
+      <c r="PH11" s="0"/>
+      <c r="PI11" s="0"/>
+      <c r="PJ11" s="0"/>
+      <c r="PK11" s="0"/>
+      <c r="PL11" s="0"/>
+      <c r="PM11" s="0"/>
+      <c r="PN11" s="0"/>
+      <c r="PO11" s="0"/>
+      <c r="PP11" s="0"/>
+      <c r="PQ11" s="0"/>
+      <c r="PR11" s="0"/>
+      <c r="PS11" s="0"/>
+      <c r="PT11" s="0"/>
+      <c r="PU11" s="0"/>
+      <c r="PV11" s="0"/>
+      <c r="PW11" s="0"/>
+      <c r="PX11" s="0"/>
+      <c r="PY11" s="0"/>
+      <c r="PZ11" s="0"/>
+      <c r="QA11" s="0"/>
+      <c r="QB11" s="0"/>
+      <c r="QC11" s="0"/>
+      <c r="QD11" s="0"/>
+      <c r="QE11" s="0"/>
+      <c r="QF11" s="0"/>
+      <c r="QG11" s="0"/>
+      <c r="QH11" s="0"/>
+      <c r="QI11" s="0"/>
+      <c r="QJ11" s="0"/>
+      <c r="QK11" s="0"/>
+      <c r="QL11" s="0"/>
+      <c r="QM11" s="0"/>
+      <c r="QN11" s="0"/>
+      <c r="QO11" s="0"/>
+      <c r="QP11" s="0"/>
+      <c r="QQ11" s="0"/>
+      <c r="QR11" s="0"/>
+      <c r="QS11" s="0"/>
+      <c r="QT11" s="0"/>
+      <c r="QU11" s="0"/>
+      <c r="QV11" s="0"/>
+      <c r="QW11" s="0"/>
+      <c r="QX11" s="0"/>
+      <c r="QY11" s="0"/>
+      <c r="QZ11" s="0"/>
+      <c r="RA11" s="0"/>
+      <c r="RB11" s="0"/>
+      <c r="RC11" s="0"/>
+      <c r="RD11" s="0"/>
+      <c r="RE11" s="0"/>
+      <c r="RF11" s="0"/>
+      <c r="RG11" s="0"/>
+      <c r="RH11" s="0"/>
+      <c r="RI11" s="0"/>
+      <c r="RJ11" s="0"/>
+      <c r="RK11" s="0"/>
+      <c r="RL11" s="0"/>
+      <c r="RM11" s="0"/>
+      <c r="RN11" s="0"/>
+      <c r="RO11" s="0"/>
+      <c r="RP11" s="0"/>
+      <c r="RQ11" s="0"/>
+      <c r="RR11" s="0"/>
+      <c r="RS11" s="0"/>
+      <c r="RT11" s="0"/>
+      <c r="RU11" s="0"/>
+      <c r="RV11" s="0"/>
+      <c r="RW11" s="0"/>
+      <c r="RX11" s="0"/>
+      <c r="RY11" s="0"/>
+      <c r="RZ11" s="0"/>
+      <c r="SA11" s="0"/>
+      <c r="SB11" s="0"/>
+      <c r="SC11" s="0"/>
+      <c r="SD11" s="0"/>
+      <c r="SE11" s="0"/>
+      <c r="SF11" s="0"/>
+      <c r="SG11" s="0"/>
+      <c r="SH11" s="0"/>
+      <c r="SI11" s="0"/>
+      <c r="SJ11" s="0"/>
+      <c r="SK11" s="0"/>
+      <c r="SL11" s="0"/>
+      <c r="SM11" s="0"/>
+      <c r="SN11" s="0"/>
+      <c r="SO11" s="0"/>
+      <c r="SP11" s="0"/>
+      <c r="SQ11" s="0"/>
+      <c r="SR11" s="0"/>
+      <c r="SS11" s="0"/>
+      <c r="ST11" s="0"/>
+      <c r="SU11" s="0"/>
+      <c r="SV11" s="0"/>
+      <c r="SW11" s="0"/>
+      <c r="SX11" s="0"/>
+      <c r="SY11" s="0"/>
+      <c r="SZ11" s="0"/>
+      <c r="TA11" s="0"/>
+      <c r="TB11" s="0"/>
+      <c r="TC11" s="0"/>
+      <c r="TD11" s="0"/>
+      <c r="TE11" s="0"/>
+      <c r="TF11" s="0"/>
+      <c r="TG11" s="0"/>
+      <c r="TH11" s="0"/>
+      <c r="TI11" s="0"/>
+      <c r="TJ11" s="0"/>
+      <c r="TK11" s="0"/>
+      <c r="TL11" s="0"/>
+      <c r="TM11" s="0"/>
+      <c r="TN11" s="0"/>
+      <c r="TO11" s="0"/>
+      <c r="TP11" s="0"/>
+      <c r="TQ11" s="0"/>
+      <c r="TR11" s="0"/>
+      <c r="TS11" s="0"/>
+      <c r="TT11" s="0"/>
+      <c r="TU11" s="0"/>
+      <c r="TV11" s="0"/>
+      <c r="TW11" s="0"/>
+      <c r="TX11" s="0"/>
+      <c r="TY11" s="0"/>
+      <c r="TZ11" s="0"/>
+      <c r="UA11" s="0"/>
+      <c r="UB11" s="0"/>
+      <c r="UC11" s="0"/>
+      <c r="UD11" s="0"/>
+      <c r="UE11" s="0"/>
+      <c r="UF11" s="0"/>
+      <c r="UG11" s="0"/>
+      <c r="UH11" s="0"/>
+      <c r="UI11" s="0"/>
+      <c r="UJ11" s="0"/>
+      <c r="UK11" s="0"/>
+      <c r="UL11" s="0"/>
+      <c r="UM11" s="0"/>
+      <c r="UN11" s="0"/>
+      <c r="UO11" s="0"/>
+      <c r="UP11" s="0"/>
+      <c r="UQ11" s="0"/>
+      <c r="UR11" s="0"/>
+      <c r="US11" s="0"/>
+      <c r="UT11" s="0"/>
+      <c r="UU11" s="0"/>
+      <c r="UV11" s="0"/>
+      <c r="UW11" s="0"/>
+      <c r="UX11" s="0"/>
+      <c r="UY11" s="0"/>
+      <c r="UZ11" s="0"/>
+      <c r="VA11" s="0"/>
+      <c r="VB11" s="0"/>
+      <c r="VC11" s="0"/>
+      <c r="VD11" s="0"/>
+      <c r="VE11" s="0"/>
+      <c r="VF11" s="0"/>
+      <c r="VG11" s="0"/>
+      <c r="VH11" s="0"/>
+      <c r="VI11" s="0"/>
+      <c r="VJ11" s="0"/>
+      <c r="VK11" s="0"/>
+      <c r="VL11" s="0"/>
+      <c r="VM11" s="0"/>
+      <c r="VN11" s="0"/>
+      <c r="VO11" s="0"/>
+      <c r="VP11" s="0"/>
+      <c r="VQ11" s="0"/>
+      <c r="VR11" s="0"/>
+      <c r="VS11" s="0"/>
+      <c r="VT11" s="0"/>
+      <c r="VU11" s="0"/>
+      <c r="VV11" s="0"/>
+      <c r="VW11" s="0"/>
+      <c r="VX11" s="0"/>
+      <c r="VY11" s="0"/>
+      <c r="VZ11" s="0"/>
+      <c r="WA11" s="0"/>
+      <c r="WB11" s="0"/>
+      <c r="WC11" s="0"/>
+      <c r="WD11" s="0"/>
+      <c r="WE11" s="0"/>
+      <c r="WF11" s="0"/>
+      <c r="WG11" s="0"/>
+      <c r="WH11" s="0"/>
+      <c r="WI11" s="0"/>
+      <c r="WJ11" s="0"/>
+      <c r="WK11" s="0"/>
+      <c r="WL11" s="0"/>
+      <c r="WM11" s="0"/>
+      <c r="WN11" s="0"/>
+      <c r="WO11" s="0"/>
+      <c r="WP11" s="0"/>
+      <c r="WQ11" s="0"/>
+      <c r="WR11" s="0"/>
+      <c r="WS11" s="0"/>
+      <c r="WT11" s="0"/>
+      <c r="WU11" s="0"/>
+      <c r="WV11" s="0"/>
+      <c r="WW11" s="0"/>
+      <c r="WX11" s="0"/>
+      <c r="WY11" s="0"/>
+      <c r="WZ11" s="0"/>
+      <c r="XA11" s="0"/>
+      <c r="XB11" s="0"/>
+      <c r="XC11" s="0"/>
+      <c r="XD11" s="0"/>
+      <c r="XE11" s="0"/>
+      <c r="XF11" s="0"/>
+      <c r="XG11" s="0"/>
+      <c r="XH11" s="0"/>
+      <c r="XI11" s="0"/>
+      <c r="XJ11" s="0"/>
+      <c r="XK11" s="0"/>
+      <c r="XL11" s="0"/>
+      <c r="XM11" s="0"/>
+      <c r="XN11" s="0"/>
+      <c r="XO11" s="0"/>
+      <c r="XP11" s="0"/>
+      <c r="XQ11" s="0"/>
+      <c r="XR11" s="0"/>
+      <c r="XS11" s="0"/>
+      <c r="XT11" s="0"/>
+      <c r="XU11" s="0"/>
+      <c r="XV11" s="0"/>
+      <c r="XW11" s="0"/>
+      <c r="XX11" s="0"/>
+      <c r="XY11" s="0"/>
+      <c r="XZ11" s="0"/>
+      <c r="YA11" s="0"/>
+      <c r="YB11" s="0"/>
+      <c r="YC11" s="0"/>
+      <c r="YD11" s="0"/>
+      <c r="YE11" s="0"/>
+      <c r="YF11" s="0"/>
+      <c r="YG11" s="0"/>
+      <c r="YH11" s="0"/>
+      <c r="YI11" s="0"/>
+      <c r="YJ11" s="0"/>
+      <c r="YK11" s="0"/>
+      <c r="YL11" s="0"/>
+      <c r="YM11" s="0"/>
+      <c r="YN11" s="0"/>
+      <c r="YO11" s="0"/>
+      <c r="YP11" s="0"/>
+      <c r="YQ11" s="0"/>
+      <c r="YR11" s="0"/>
+      <c r="YS11" s="0"/>
+      <c r="YT11" s="0"/>
+      <c r="YU11" s="0"/>
+      <c r="YV11" s="0"/>
+      <c r="YW11" s="0"/>
+      <c r="YX11" s="0"/>
+      <c r="YY11" s="0"/>
+      <c r="YZ11" s="0"/>
+      <c r="ZA11" s="0"/>
+      <c r="ZB11" s="0"/>
+      <c r="ZC11" s="0"/>
+      <c r="ZD11" s="0"/>
+      <c r="ZE11" s="0"/>
+      <c r="ZF11" s="0"/>
+      <c r="ZG11" s="0"/>
+      <c r="ZH11" s="0"/>
+      <c r="ZI11" s="0"/>
+      <c r="ZJ11" s="0"/>
+      <c r="ZK11" s="0"/>
+      <c r="ZL11" s="0"/>
+      <c r="ZM11" s="0"/>
+      <c r="ZN11" s="0"/>
+      <c r="ZO11" s="0"/>
+      <c r="ZP11" s="0"/>
+      <c r="ZQ11" s="0"/>
+      <c r="ZR11" s="0"/>
+      <c r="ZS11" s="0"/>
+      <c r="ZT11" s="0"/>
+      <c r="ZU11" s="0"/>
+      <c r="ZV11" s="0"/>
+      <c r="ZW11" s="0"/>
+      <c r="ZX11" s="0"/>
+      <c r="ZY11" s="0"/>
+      <c r="ZZ11" s="0"/>
+      <c r="AAA11" s="0"/>
+      <c r="AAB11" s="0"/>
+      <c r="AAC11" s="0"/>
+      <c r="AAD11" s="0"/>
+      <c r="AAE11" s="0"/>
+      <c r="AAF11" s="0"/>
+      <c r="AAG11" s="0"/>
+      <c r="AAH11" s="0"/>
+      <c r="AAI11" s="0"/>
+      <c r="AAJ11" s="0"/>
+      <c r="AAK11" s="0"/>
+      <c r="AAL11" s="0"/>
+      <c r="AAM11" s="0"/>
+      <c r="AAN11" s="0"/>
+      <c r="AAO11" s="0"/>
+      <c r="AAP11" s="0"/>
+      <c r="AAQ11" s="0"/>
+      <c r="AAR11" s="0"/>
+      <c r="AAS11" s="0"/>
+      <c r="AAT11" s="0"/>
+      <c r="AAU11" s="0"/>
+      <c r="AAV11" s="0"/>
+      <c r="AAW11" s="0"/>
+      <c r="AAX11" s="0"/>
+      <c r="AAY11" s="0"/>
+      <c r="AAZ11" s="0"/>
+      <c r="ABA11" s="0"/>
+      <c r="ABB11" s="0"/>
+      <c r="ABC11" s="0"/>
+      <c r="ABD11" s="0"/>
+      <c r="ABE11" s="0"/>
+      <c r="ABF11" s="0"/>
+      <c r="ABG11" s="0"/>
+      <c r="ABH11" s="0"/>
+      <c r="ABI11" s="0"/>
+      <c r="ABJ11" s="0"/>
+      <c r="ABK11" s="0"/>
+      <c r="ABL11" s="0"/>
+      <c r="ABM11" s="0"/>
+      <c r="ABN11" s="0"/>
+      <c r="ABO11" s="0"/>
+      <c r="ABP11" s="0"/>
+      <c r="ABQ11" s="0"/>
+      <c r="ABR11" s="0"/>
+      <c r="ABS11" s="0"/>
+      <c r="ABT11" s="0"/>
+      <c r="ABU11" s="0"/>
+      <c r="ABV11" s="0"/>
+      <c r="ABW11" s="0"/>
+      <c r="ABX11" s="0"/>
+      <c r="ABY11" s="0"/>
+      <c r="ABZ11" s="0"/>
+      <c r="ACA11" s="0"/>
+      <c r="ACB11" s="0"/>
+      <c r="ACC11" s="0"/>
+      <c r="ACD11" s="0"/>
+      <c r="ACE11" s="0"/>
+      <c r="ACF11" s="0"/>
+      <c r="ACG11" s="0"/>
+      <c r="ACH11" s="0"/>
+      <c r="ACI11" s="0"/>
+      <c r="ACJ11" s="0"/>
+      <c r="ACK11" s="0"/>
+      <c r="ACL11" s="0"/>
+      <c r="ACM11" s="0"/>
+      <c r="ACN11" s="0"/>
+      <c r="ACO11" s="0"/>
+      <c r="ACP11" s="0"/>
+      <c r="ACQ11" s="0"/>
+      <c r="ACR11" s="0"/>
+      <c r="ACS11" s="0"/>
+      <c r="ACT11" s="0"/>
+      <c r="ACU11" s="0"/>
+      <c r="ACV11" s="0"/>
+      <c r="ACW11" s="0"/>
+      <c r="ACX11" s="0"/>
+      <c r="ACY11" s="0"/>
+      <c r="ACZ11" s="0"/>
+      <c r="ADA11" s="0"/>
+      <c r="ADB11" s="0"/>
+      <c r="ADC11" s="0"/>
+      <c r="ADD11" s="0"/>
+      <c r="ADE11" s="0"/>
+      <c r="ADF11" s="0"/>
+      <c r="ADG11" s="0"/>
+      <c r="ADH11" s="0"/>
+      <c r="ADI11" s="0"/>
+      <c r="ADJ11" s="0"/>
+      <c r="ADK11" s="0"/>
+      <c r="ADL11" s="0"/>
+      <c r="ADM11" s="0"/>
+      <c r="ADN11" s="0"/>
+      <c r="ADO11" s="0"/>
+      <c r="ADP11" s="0"/>
+      <c r="ADQ11" s="0"/>
+      <c r="ADR11" s="0"/>
+      <c r="ADS11" s="0"/>
+      <c r="ADT11" s="0"/>
+      <c r="ADU11" s="0"/>
+      <c r="ADV11" s="0"/>
+      <c r="ADW11" s="0"/>
+      <c r="ADX11" s="0"/>
+      <c r="ADY11" s="0"/>
+      <c r="ADZ11" s="0"/>
+      <c r="AEA11" s="0"/>
+      <c r="AEB11" s="0"/>
+      <c r="AEC11" s="0"/>
+      <c r="AED11" s="0"/>
+      <c r="AEE11" s="0"/>
+      <c r="AEF11" s="0"/>
+      <c r="AEG11" s="0"/>
+      <c r="AEH11" s="0"/>
+      <c r="AEI11" s="0"/>
+      <c r="AEJ11" s="0"/>
+      <c r="AEK11" s="0"/>
+      <c r="AEL11" s="0"/>
+      <c r="AEM11" s="0"/>
+      <c r="AEN11" s="0"/>
+      <c r="AEO11" s="0"/>
+      <c r="AEP11" s="0"/>
+      <c r="AEQ11" s="0"/>
+      <c r="AER11" s="0"/>
+      <c r="AES11" s="0"/>
+      <c r="AET11" s="0"/>
+      <c r="AEU11" s="0"/>
+      <c r="AEV11" s="0"/>
+      <c r="AEW11" s="0"/>
+      <c r="AEX11" s="0"/>
+      <c r="AEY11" s="0"/>
+      <c r="AEZ11" s="0"/>
+      <c r="AFA11" s="0"/>
+      <c r="AFB11" s="0"/>
+      <c r="AFC11" s="0"/>
+      <c r="AFD11" s="0"/>
+      <c r="AFE11" s="0"/>
+      <c r="AFF11" s="0"/>
+      <c r="AFG11" s="0"/>
+      <c r="AFH11" s="0"/>
+      <c r="AFI11" s="0"/>
+      <c r="AFJ11" s="0"/>
+      <c r="AFK11" s="0"/>
+      <c r="AFL11" s="0"/>
+      <c r="AFM11" s="0"/>
+      <c r="AFN11" s="0"/>
+      <c r="AFO11" s="0"/>
+      <c r="AFP11" s="0"/>
+      <c r="AFQ11" s="0"/>
+      <c r="AFR11" s="0"/>
+      <c r="AFS11" s="0"/>
+      <c r="AFT11" s="0"/>
+      <c r="AFU11" s="0"/>
+      <c r="AFV11" s="0"/>
+      <c r="AFW11" s="0"/>
+      <c r="AFX11" s="0"/>
+      <c r="AFY11" s="0"/>
+      <c r="AFZ11" s="0"/>
+      <c r="AGA11" s="0"/>
+      <c r="AGB11" s="0"/>
+      <c r="AGC11" s="0"/>
+      <c r="AGD11" s="0"/>
+      <c r="AGE11" s="0"/>
+      <c r="AGF11" s="0"/>
+      <c r="AGG11" s="0"/>
+      <c r="AGH11" s="0"/>
+      <c r="AGI11" s="0"/>
+      <c r="AGJ11" s="0"/>
+      <c r="AGK11" s="0"/>
+      <c r="AGL11" s="0"/>
+      <c r="AGM11" s="0"/>
+      <c r="AGN11" s="0"/>
+      <c r="AGO11" s="0"/>
+      <c r="AGP11" s="0"/>
+      <c r="AGQ11" s="0"/>
+      <c r="AGR11" s="0"/>
+      <c r="AGS11" s="0"/>
+      <c r="AGT11" s="0"/>
+      <c r="AGU11" s="0"/>
+      <c r="AGV11" s="0"/>
+      <c r="AGW11" s="0"/>
+      <c r="AGX11" s="0"/>
+      <c r="AGY11" s="0"/>
+      <c r="AGZ11" s="0"/>
+      <c r="AHA11" s="0"/>
+      <c r="AHB11" s="0"/>
+      <c r="AHC11" s="0"/>
+      <c r="AHD11" s="0"/>
+      <c r="AHE11" s="0"/>
+      <c r="AHF11" s="0"/>
+      <c r="AHG11" s="0"/>
+      <c r="AHH11" s="0"/>
+      <c r="AHI11" s="0"/>
+      <c r="AHJ11" s="0"/>
+      <c r="AHK11" s="0"/>
+      <c r="AHL11" s="0"/>
+      <c r="AHM11" s="0"/>
+      <c r="AHN11" s="0"/>
+      <c r="AHO11" s="0"/>
+      <c r="AHP11" s="0"/>
+      <c r="AHQ11" s="0"/>
+      <c r="AHR11" s="0"/>
+      <c r="AHS11" s="0"/>
+      <c r="AHT11" s="0"/>
+      <c r="AHU11" s="0"/>
+      <c r="AHV11" s="0"/>
+      <c r="AHW11" s="0"/>
+      <c r="AHX11" s="0"/>
+      <c r="AHY11" s="0"/>
+      <c r="AHZ11" s="0"/>
+      <c r="AIA11" s="0"/>
+      <c r="AIB11" s="0"/>
+      <c r="AIC11" s="0"/>
+      <c r="AID11" s="0"/>
+      <c r="AIE11" s="0"/>
+      <c r="AIF11" s="0"/>
+      <c r="AIG11" s="0"/>
+      <c r="AIH11" s="0"/>
+      <c r="AII11" s="0"/>
+      <c r="AIJ11" s="0"/>
+      <c r="AIK11" s="0"/>
+      <c r="AIL11" s="0"/>
+      <c r="AIM11" s="0"/>
+      <c r="AIN11" s="0"/>
+      <c r="AIO11" s="0"/>
+      <c r="AIP11" s="0"/>
+      <c r="AIQ11" s="0"/>
+      <c r="AIR11" s="0"/>
+      <c r="AIS11" s="0"/>
+      <c r="AIT11" s="0"/>
+      <c r="AIU11" s="0"/>
+      <c r="AIV11" s="0"/>
+      <c r="AIW11" s="0"/>
+      <c r="AIX11" s="0"/>
+      <c r="AIY11" s="0"/>
+      <c r="AIZ11" s="0"/>
+      <c r="AJA11" s="0"/>
+      <c r="AJB11" s="0"/>
+      <c r="AJC11" s="0"/>
+      <c r="AJD11" s="0"/>
+      <c r="AJE11" s="0"/>
+      <c r="AJF11" s="0"/>
+      <c r="AJG11" s="0"/>
+      <c r="AJH11" s="0"/>
+      <c r="AJI11" s="0"/>
+      <c r="AJJ11" s="0"/>
+      <c r="AJK11" s="0"/>
+      <c r="AJL11" s="0"/>
+      <c r="AJM11" s="0"/>
+      <c r="AJN11" s="0"/>
+      <c r="AJO11" s="0"/>
+      <c r="AJP11" s="0"/>
+      <c r="AJQ11" s="0"/>
+      <c r="AJR11" s="0"/>
+      <c r="AJS11" s="0"/>
+      <c r="AJT11" s="0"/>
+      <c r="AJU11" s="0"/>
+      <c r="AJV11" s="0"/>
+      <c r="AJW11" s="0"/>
+      <c r="AJX11" s="0"/>
+      <c r="AJY11" s="0"/>
+      <c r="AJZ11" s="0"/>
+      <c r="AKA11" s="0"/>
+      <c r="AKB11" s="0"/>
+      <c r="AKC11" s="0"/>
+      <c r="AKD11" s="0"/>
+      <c r="AKE11" s="0"/>
+      <c r="AKF11" s="0"/>
+      <c r="AKG11" s="0"/>
+      <c r="AKH11" s="0"/>
+      <c r="AKI11" s="0"/>
+      <c r="AKJ11" s="0"/>
+      <c r="AKK11" s="0"/>
+      <c r="AKL11" s="0"/>
+      <c r="AKM11" s="0"/>
+      <c r="AKN11" s="0"/>
+      <c r="AKO11" s="0"/>
+      <c r="AKP11" s="0"/>
+      <c r="AKQ11" s="0"/>
+      <c r="AKR11" s="0"/>
+      <c r="AKS11" s="0"/>
+      <c r="AKT11" s="0"/>
+      <c r="AKU11" s="0"/>
+      <c r="AKV11" s="0"/>
+      <c r="AKW11" s="0"/>
+      <c r="AKX11" s="0"/>
+      <c r="AKY11" s="0"/>
+      <c r="AKZ11" s="0"/>
+      <c r="ALA11" s="0"/>
+      <c r="ALB11" s="0"/>
+      <c r="ALC11" s="0"/>
+      <c r="ALD11" s="0"/>
+      <c r="ALE11" s="0"/>
+      <c r="ALF11" s="0"/>
+      <c r="ALG11" s="0"/>
+      <c r="ALH11" s="0"/>
+      <c r="ALI11" s="0"/>
+      <c r="ALJ11" s="0"/>
+      <c r="ALK11" s="0"/>
+      <c r="ALL11" s="0"/>
+      <c r="ALM11" s="0"/>
+      <c r="ALN11" s="0"/>
+      <c r="ALO11" s="0"/>
+      <c r="ALP11" s="0"/>
+      <c r="ALQ11" s="0"/>
+      <c r="ALR11" s="0"/>
+      <c r="ALS11" s="0"/>
+      <c r="ALT11" s="0"/>
+      <c r="ALU11" s="0"/>
+      <c r="ALV11" s="0"/>
+      <c r="ALW11" s="0"/>
+      <c r="ALX11" s="0"/>
+      <c r="ALY11" s="0"/>
+      <c r="ALZ11" s="0"/>
+      <c r="AMA11" s="0"/>
+      <c r="AMB11" s="0"/>
+      <c r="AMC11" s="0"/>
+      <c r="AMD11" s="0"/>
+      <c r="AME11" s="0"/>
+      <c r="AMF11" s="0"/>
+      <c r="AMG11" s="0"/>
+      <c r="AMH11" s="0"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -3646,268 +4729,269 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="55" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="56" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="61" t="n">
+      <c r="A2" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="62" t="n">
         <f aca="false">0.00000016*3</f>
         <v>4.8E-007</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="43" t="n">
+      <c r="C2" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="44" t="n">
         <f aca="false">B2/3</f>
         <v>1.6E-007</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="62" t="n">
+      <c r="A3" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="63" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E3" s="43" t="n">
+      <c r="C3" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="44" t="n">
         <f aca="false">RADIANS(B3)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="63" t="n">
+      <c r="A4" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="64" t="n">
         <v>0.05</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="45" t="n">
+      <c r="C4" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="46" t="n">
         <f aca="false">RADIANS(B4)/SQRT(hr2sec)/3</f>
         <v>4.84813681109536E-006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" s="62" t="n">
+      <c r="A5" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="63" t="n">
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" s="43" t="n">
+      <c r="C5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="44" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="62" t="n">
+      <c r="A6" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="63" t="n">
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E6" s="43" t="n">
+      <c r="D6" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="44" t="n">
         <f aca="false">RADIANS(B6)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="62" t="n">
+      <c r="A7" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="63" t="n">
         <v>1.5</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E7" s="43" t="n">
+      <c r="C7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="44" t="n">
         <f aca="false">RADIANS(B7)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="62" t="n">
+      <c r="A8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="63" t="n">
         <v>1.5</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="43" t="n">
+      <c r="C8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="44" t="n">
         <f aca="false">RADIANS(B8)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="62" t="n">
-        <v>9</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="43" t="n">
+      <c r="D9" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="44" t="n">
         <f aca="false">RADIANS(B9)/3600/3</f>
         <v>1.45444104332861E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="39" t="n">
+      <c r="A10" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E10" s="41" t="n">
+      <c r="C10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="42" t="n">
         <f aca="false">B10/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="54" t="n">
+      <c r="A11" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="65" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="E11" s="45" t="n">
+      <c r="D11" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="46" t="n">
         <f aca="false">B11/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="55" t="n">
+      <c r="A12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="6" t="n">
+      <c r="C12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="10" t="n">
         <f aca="false">B12/3</f>
         <v>3.33333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="55" t="n">
+      <c r="A13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="56" t="n">
         <v>100</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="6" t="n">
+      <c r="C13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="10" t="n">
         <f aca="false">B13/3</f>
         <v>33.3333333333333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="55" t="n">
+      <c r="A14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="6" t="n">
+      <c r="C14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="10" t="n">
         <f aca="false">B14/3</f>
         <v>3.33333333333333</v>
       </c>
@@ -3931,365 +5015,365 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A1:E5 B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A2:A22 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="64" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="17.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="34" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="51.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="17.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="35" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" s="40" t="n">
+      <c r="A2" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="41" t="n">
         <v>4000</v>
       </c>
-      <c r="C2" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="E2" s="41" t="n">
+      <c r="C2" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" s="42" t="n">
         <f aca="false">B2/3</f>
         <v>1333.33333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="34" t="n">
+      <c r="A3" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="35" t="n">
         <v>4000</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="43" t="n">
+      <c r="C3" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="44" t="n">
         <f aca="false">B3/3</f>
         <v>1333.33333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="B4" s="34" t="n">
+      <c r="A4" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="35" t="n">
         <v>4000</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="43" t="n">
+      <c r="C4" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="44" t="n">
         <f aca="false">B4/3</f>
         <v>1333.33333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="34" t="n">
+      <c r="A5" s="61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="43" t="n">
+      <c r="C5" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="44" t="n">
         <f aca="false">B5/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="s">
-        <v>201</v>
-      </c>
-      <c r="B6" s="34" t="n">
+      <c r="A6" s="61" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="43" t="n">
+      <c r="C6" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="44" t="n">
         <f aca="false">B6/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="35" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B7" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="43" t="n">
+      <c r="D7" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="44" t="n">
         <f aca="false">B7/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="34" t="n">
+      <c r="A8" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="35" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="43" t="n">
+      <c r="C8" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" s="44" t="n">
         <f aca="false">B8/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="34" t="n">
+      <c r="A9" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="35" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="43" t="n">
+      <c r="C9" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="44" t="n">
         <f aca="false">B9/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="35" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="34" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" s="43" t="n">
+      <c r="D10" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="44" t="n">
         <f aca="false">B10/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="34" t="n">
+      <c r="A11" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="35" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="43" t="n">
+      <c r="C11" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="44" t="n">
         <f aca="false">RADIANS(B11)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="34" t="n">
+      <c r="A12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="35" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
-      <c r="C12" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="43" t="n">
+      <c r="C12" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="44" t="n">
         <f aca="false">RADIANS(B12)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="34" t="n">
+      <c r="A13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="35" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E13" s="43" t="n">
+      <c r="C13" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="44" t="n">
         <f aca="false">RADIANS(B13)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="34" t="n">
+      <c r="A14" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="35" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" s="43" t="n">
+      <c r="C14" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" s="44" t="n">
         <f aca="false">RADIANS(B14)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="34" t="n">
+      <c r="A15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B15" s="35" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
-      <c r="C15" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="43" t="n">
+      <c r="C15" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="44" t="n">
         <f aca="false">RADIANS(B15)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="34" t="n">
+      <c r="A16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" s="35" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="43" t="n">
+      <c r="C16" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="44" t="n">
         <f aca="false">RADIANS(B16)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="34" t="n">
+      <c r="A17" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="B17" s="35" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
-      <c r="C17" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="E17" s="43" t="n">
+      <c r="C17" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="44" t="n">
         <f aca="false">RADIANS(B17)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="B18" s="34" t="n">
+      <c r="A18" s="61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="35" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
-      <c r="C18" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="43" t="n">
+      <c r="C18" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="44" t="n">
         <f aca="false">RADIANS(B18)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="36" t="n">
+      <c r="A19" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="37" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
-      <c r="C19" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="E19" s="45" t="n">
+      <c r="C19" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="46" t="n">
         <f aca="false">RADIANS(B19)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
@@ -4313,323 +5397,323 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:E5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A22 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="46.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="64" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="34" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="35" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="60" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="str">
+      <c r="A2" s="61" t="str">
         <f aca="false">truthStateParams!A2</f>
         <v>Q_grav</v>
       </c>
-      <c r="B2" s="61" t="n">
+      <c r="B2" s="62" t="n">
         <f aca="false">truthStateParams!B2</f>
         <v>4.8E-007</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">truthStateParams!C2</f>
         <v>m^2/s^3</v>
       </c>
-      <c r="D2" s="13" t="str">
+      <c r="D2" s="7" t="str">
         <f aca="false">truthStateParams!D2</f>
         <v>3-sigma non-gravitational process noise</v>
       </c>
-      <c r="E2" s="43" t="n">
+      <c r="E2" s="44" t="n">
         <f aca="false">B2/3</f>
         <v>1.6E-007</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="str">
+      <c r="A3" s="61" t="str">
         <f aca="false">truthStateParams!A3</f>
         <v>sig_gyro_ss</v>
       </c>
-      <c r="B3" s="62" t="n">
+      <c r="B3" s="63" t="n">
         <f aca="false">truthStateParams!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="61" t="str">
+      <c r="C3" s="62" t="str">
         <f aca="false">truthStateParams!C3</f>
         <v>deg/hr</v>
       </c>
-      <c r="D3" s="34" t="str">
+      <c r="D3" s="35" t="str">
         <f aca="false">truthStateParams!D3</f>
         <v>3-sigma steady-state gyro bias</v>
       </c>
-      <c r="E3" s="43" t="n">
+      <c r="E3" s="44" t="n">
         <f aca="false">RADIANS(B3)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="str">
+      <c r="A4" s="24" t="str">
         <f aca="false">truthStateParams!A4</f>
         <v>arw</v>
       </c>
-      <c r="B4" s="63" t="n">
+      <c r="B4" s="64" t="n">
         <f aca="false">truthStateParams!B4</f>
         <v>0.05</v>
       </c>
-      <c r="C4" s="36" t="str">
+      <c r="C4" s="37" t="str">
         <f aca="false">truthStateParams!C4</f>
         <v>deg/sqrt(hr)</v>
       </c>
-      <c r="D4" s="36" t="str">
+      <c r="D4" s="37" t="str">
         <f aca="false">truthStateParams!D4</f>
         <v>3-sigma angular random walk</v>
       </c>
-      <c r="E4" s="45" t="n">
+      <c r="E4" s="46" t="n">
         <f aca="false">RADIANS(B4)/SQRT(hr2sec)/3</f>
         <v>4.84813681109536E-006</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="str">
+      <c r="A5" s="61" t="str">
         <f aca="false">truthStateParams!A5</f>
         <v>sig_st_ss</v>
       </c>
-      <c r="B5" s="62" t="n">
+      <c r="B5" s="63" t="n">
         <f aca="false">truthStateParams!B5</f>
         <v>20</v>
       </c>
-      <c r="C5" s="13" t="str">
+      <c r="C5" s="7" t="str">
         <f aca="false">truthStateParams!C5</f>
         <v>arcsec/axis</v>
       </c>
-      <c r="D5" s="13" t="str">
+      <c r="D5" s="7" t="str">
         <f aca="false">truthStateParams!D5</f>
         <v>3-sigma steady-state star camera misalignment</v>
       </c>
-      <c r="E5" s="43" t="n">
+      <c r="E5" s="44" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="str">
+      <c r="A6" s="61" t="str">
         <f aca="false">truthStateParams!A6</f>
         <v>sig_c_ss</v>
       </c>
-      <c r="B6" s="62" t="n">
+      <c r="B6" s="63" t="n">
         <f aca="false">truthStateParams!B6</f>
         <v>20</v>
       </c>
-      <c r="C6" s="13" t="str">
+      <c r="C6" s="7" t="str">
         <f aca="false">truthStateParams!C6</f>
         <v>arcsec/axis</v>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="7" t="str">
         <f aca="false">truthStateParams!D6</f>
         <v>3-sigma steady-state terrain camera misalignment</v>
       </c>
-      <c r="E6" s="43" t="n">
+      <c r="E6" s="44" t="n">
         <f aca="false">RADIANS(B6)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="str">
+      <c r="A7" s="5" t="str">
         <f aca="false">truthStateParams!A7</f>
         <v>sig_meas_stx</v>
       </c>
-      <c r="B7" s="62" t="n">
+      <c r="B7" s="63" t="n">
         <f aca="false">truthStateParams!B7</f>
         <v>1.5</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="7" t="str">
         <f aca="false">truthStateParams!C7</f>
         <v>arcsec</v>
       </c>
-      <c r="D7" s="13" t="str">
+      <c r="D7" s="7" t="str">
         <f aca="false">truthStateParams!D7</f>
         <v>3-sigma star camera measurement uncertainty</v>
       </c>
-      <c r="E7" s="43" t="n">
+      <c r="E7" s="44" t="n">
         <f aca="false">RADIANS(B7)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="str">
+      <c r="A8" s="5" t="str">
         <f aca="false">truthStateParams!A8</f>
         <v>sig_meas_sty</v>
       </c>
-      <c r="B8" s="62" t="n">
+      <c r="B8" s="63" t="n">
         <f aca="false">truthStateParams!B8</f>
         <v>1.5</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="7" t="str">
         <f aca="false">truthStateParams!C8</f>
         <v>arcsec</v>
       </c>
-      <c r="D8" s="13" t="str">
+      <c r="D8" s="7" t="str">
         <f aca="false">truthStateParams!D8</f>
         <v>3-sigma star camera measurement uncertainty</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="44" t="n">
         <f aca="false">RADIANS(B8)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="str">
+      <c r="A9" s="5" t="str">
         <f aca="false">truthStateParams!A9</f>
         <v>sig_meas_stz</v>
       </c>
-      <c r="B9" s="62" t="n">
+      <c r="B9" s="63" t="n">
         <f aca="false">truthStateParams!B9</f>
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="7" t="str">
         <f aca="false">truthStateParams!C9</f>
         <v>arcsec</v>
       </c>
-      <c r="D9" s="13" t="str">
+      <c r="D9" s="7" t="str">
         <f aca="false">truthStateParams!D9</f>
         <v>3-sigma star camera measurement uncertainty</v>
       </c>
-      <c r="E9" s="43" t="n">
+      <c r="E9" s="44" t="n">
         <f aca="false">RADIANS(B9)/3600/3</f>
         <v>1.45444104332861E-005</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="11" t="str">
         <f aca="false">truthStateParams!A10</f>
         <v>sig_cu</v>
       </c>
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="40" t="n">
         <f aca="false">truthStateParams!B10</f>
         <v>3</v>
       </c>
-      <c r="C10" s="9" t="str">
+      <c r="C10" s="13" t="str">
         <f aca="false">truthStateParams!C10</f>
         <v>pixels</v>
       </c>
-      <c r="D10" s="9" t="str">
+      <c r="D10" s="13" t="str">
         <f aca="false">truthStateParams!D10</f>
         <v>3-sigma u component of pixel noise</v>
       </c>
-      <c r="E10" s="41" t="n">
+      <c r="E10" s="42" t="n">
         <f aca="false">B10/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="44" t="str">
+      <c r="A11" s="45" t="str">
         <f aca="false">truthStateParams!A11</f>
         <v>sig_cv</v>
       </c>
-      <c r="B11" s="54" t="n">
+      <c r="B11" s="65" t="n">
         <f aca="false">truthStateParams!B11</f>
         <v>3</v>
       </c>
-      <c r="C11" s="25" t="str">
+      <c r="C11" s="26" t="str">
         <f aca="false">truthStateParams!C11</f>
         <v>pixels</v>
       </c>
-      <c r="D11" s="25" t="str">
+      <c r="D11" s="26" t="str">
         <f aca="false">truthStateParams!D11</f>
         <v>3-sigma v component of pixel noise</v>
       </c>
-      <c r="E11" s="45" t="n">
+      <c r="E11" s="46" t="n">
         <f aca="false">B11/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="44" t="str">
+      <c r="A12" s="45" t="str">
         <f aca="false">truthStateParams!A12</f>
         <v>sig_idpos</v>
       </c>
-      <c r="B12" s="54" t="n">
+      <c r="B12" s="65" t="n">
         <f aca="false">truthStateParams!B12</f>
         <v>10</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="26" t="str">
         <f aca="false">truthStateParams!C12</f>
         <v>m</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="26" t="str">
         <f aca="false">truthStateParams!D12</f>
         <v>3-sigma change in inertial position measurement uncertainty</v>
       </c>
-      <c r="E12" s="45" t="n">
+      <c r="E12" s="46" t="n">
         <f aca="false">B12/3</f>
         <v>3.33333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="44" t="str">
+      <c r="A13" s="45" t="str">
         <f aca="false">truthStateParams!A13</f>
         <v>sig_loss</v>
       </c>
-      <c r="B13" s="54" t="n">
+      <c r="B13" s="65" t="n">
         <f aca="false">truthStateParams!B13</f>
         <v>100</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="26" t="str">
         <f aca="false">truthStateParams!C13</f>
         <v>m</v>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="26" t="str">
         <f aca="false">truthStateParams!D13</f>
         <v>3-sigma LOSS feature location uncertainty</v>
       </c>
-      <c r="E13" s="45" t="n">
+      <c r="E13" s="46" t="n">
         <f aca="false">B13/3</f>
         <v>33.3333333333333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="44" t="str">
+      <c r="A14" s="45" t="str">
         <f aca="false">truthStateParams!A14</f>
         <v>sig_mdpos</v>
       </c>
-      <c r="B14" s="54" t="n">
+      <c r="B14" s="65" t="n">
         <f aca="false">truthStateParams!B14</f>
         <v>10</v>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="26" t="str">
         <f aca="false">truthStateParams!C14</f>
         <v>m</v>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="26" t="str">
         <f aca="false">truthStateParams!D14</f>
         <v>3-sigma change in lunar-referenced position measurement uncertainty</v>
       </c>
-      <c r="E14" s="45" t="n">
+      <c r="E14" s="46" t="n">
         <f aca="false">B14/3</f>
         <v>3.33333333333333</v>
       </c>
@@ -4653,432 +5737,432 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A1:E5 B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A2:A22 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="34" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="34" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="64" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="34" width="14.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="34" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="51.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="14.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="35" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60" t="str">
+      <c r="A2" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A2</f>
         <v>sig_rsx</v>
       </c>
-      <c r="B2" s="34" t="n">
+      <c r="B2" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B2</f>
         <v>4000</v>
       </c>
-      <c r="C2" s="34" t="str">
+      <c r="C2" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C2</f>
         <v>m</v>
       </c>
-      <c r="D2" s="34" t="str">
+      <c r="D2" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D2</f>
         <v>3-sigma initial satellite position uncertainty</v>
       </c>
-      <c r="E2" s="52" t="n">
+      <c r="E2" s="53" t="n">
         <f aca="false">B2/3</f>
         <v>1333.33333333333</v>
       </c>
-      <c r="F2" s="64"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60" t="str">
+      <c r="A3" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A3</f>
         <v>sig_rsy</v>
       </c>
-      <c r="B3" s="34" t="n">
+      <c r="B3" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B3</f>
         <v>4000</v>
       </c>
-      <c r="C3" s="34" t="str">
+      <c r="C3" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C3</f>
         <v>m</v>
       </c>
-      <c r="D3" s="34" t="str">
+      <c r="D3" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D3</f>
         <v>3-sigma initial satellite position uncertainty</v>
       </c>
-      <c r="E3" s="52" t="n">
+      <c r="E3" s="53" t="n">
         <f aca="false">B3/3</f>
         <v>1333.33333333333</v>
       </c>
-      <c r="F3" s="64"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60" t="str">
+      <c r="A4" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A4</f>
         <v>sig_rsz</v>
       </c>
-      <c r="B4" s="34" t="n">
+      <c r="B4" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B4</f>
         <v>4000</v>
       </c>
-      <c r="C4" s="34" t="str">
+      <c r="C4" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C4</f>
         <v>m</v>
       </c>
-      <c r="D4" s="34" t="str">
+      <c r="D4" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D4</f>
         <v>3-sigma initial satellite position uncertainty</v>
       </c>
-      <c r="E4" s="52" t="n">
+      <c r="E4" s="53" t="n">
         <f aca="false">B4/3</f>
         <v>1333.33333333333</v>
       </c>
-      <c r="F4" s="64"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60" t="str">
+      <c r="A5" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A5</f>
         <v>sig_vsx</v>
       </c>
-      <c r="B5" s="34" t="n">
+      <c r="B5" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B5</f>
         <v>3</v>
       </c>
-      <c r="C5" s="34" t="str">
+      <c r="C5" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C5</f>
         <v>m/sec</v>
       </c>
-      <c r="D5" s="34" t="str">
+      <c r="D5" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D5</f>
         <v>3-sigma initial satellite velocity uncertainty</v>
       </c>
-      <c r="E5" s="52" t="n">
+      <c r="E5" s="53" t="n">
         <f aca="false">B5/3</f>
         <v>1</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60" t="str">
+      <c r="A6" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A6</f>
         <v>sig_vsy</v>
       </c>
-      <c r="B6" s="34" t="n">
+      <c r="B6" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B6</f>
         <v>3</v>
       </c>
-      <c r="C6" s="34" t="str">
+      <c r="C6" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C6</f>
         <v>m/sec</v>
       </c>
-      <c r="D6" s="34" t="str">
+      <c r="D6" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D6</f>
         <v>3-sigma initial satellite velocity uncertainty</v>
       </c>
-      <c r="E6" s="52" t="n">
+      <c r="E6" s="53" t="n">
         <f aca="false">B6/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60" t="str">
+      <c r="A7" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A7</f>
         <v>sig_vsz</v>
       </c>
-      <c r="B7" s="34" t="n">
+      <c r="B7" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B7</f>
         <v>3</v>
       </c>
-      <c r="C7" s="34" t="str">
+      <c r="C7" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C7</f>
         <v>m/sec</v>
       </c>
-      <c r="D7" s="34" t="str">
+      <c r="D7" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D7</f>
         <v>3-sigma initial satellite velocity uncertainty</v>
       </c>
-      <c r="E7" s="52" t="n">
+      <c r="E7" s="53" t="n">
         <f aca="false">B7/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="60" t="str">
+      <c r="A8" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A8</f>
         <v>sig_ax</v>
       </c>
-      <c r="B8" s="34" t="n">
+      <c r="B8" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B8</f>
         <v>0.0005</v>
       </c>
-      <c r="C8" s="34" t="str">
+      <c r="C8" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C8</f>
         <v>rad</v>
       </c>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D8</f>
         <v>3-sigma initial satellite orientation uncertainty</v>
       </c>
-      <c r="E8" s="52" t="n">
+      <c r="E8" s="53" t="n">
         <f aca="false">B8/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="str">
+      <c r="A9" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A9</f>
         <v>sig_ay</v>
       </c>
-      <c r="B9" s="34" t="n">
+      <c r="B9" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B9</f>
         <v>0.0005</v>
       </c>
-      <c r="C9" s="34" t="str">
+      <c r="C9" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C9</f>
         <v>rad</v>
       </c>
-      <c r="D9" s="34" t="str">
+      <c r="D9" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D9</f>
         <v>3-sigma initial satellite orientation uncertainty</v>
       </c>
-      <c r="E9" s="52" t="n">
+      <c r="E9" s="53" t="n">
         <f aca="false">B9/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="str">
+      <c r="A10" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A10</f>
         <v>sig_az</v>
       </c>
-      <c r="B10" s="34" t="n">
+      <c r="B10" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B10</f>
         <v>0.0005</v>
       </c>
-      <c r="C10" s="34" t="str">
+      <c r="C10" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C10</f>
         <v>rad</v>
       </c>
-      <c r="D10" s="34" t="str">
+      <c r="D10" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D10</f>
         <v>3-sigma initial satellite orientation uncertainty</v>
       </c>
-      <c r="E10" s="52" t="n">
+      <c r="E10" s="53" t="n">
         <f aca="false">B10/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="60" t="str">
+      <c r="A11" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A11</f>
         <v>sig_thstx</v>
       </c>
-      <c r="B11" s="34" t="n">
+      <c r="B11" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B11</f>
         <v>20</v>
       </c>
-      <c r="C11" s="34" t="str">
+      <c r="C11" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C11</f>
         <v>arcsec</v>
       </c>
-      <c r="D11" s="34" t="str">
+      <c r="D11" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D11</f>
         <v>3-sigma initial star camera misalignment uncertainty</v>
       </c>
-      <c r="E11" s="52" t="n">
+      <c r="E11" s="53" t="n">
         <f aca="false">RADIANS(B11)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="60" t="str">
+      <c r="A12" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A12</f>
         <v>sig_thsty</v>
       </c>
-      <c r="B12" s="34" t="n">
+      <c r="B12" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B12</f>
         <v>20</v>
       </c>
-      <c r="C12" s="34" t="str">
+      <c r="C12" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C12</f>
         <v>arcsec</v>
       </c>
-      <c r="D12" s="34" t="str">
+      <c r="D12" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D12</f>
         <v>3-sigma initial star camera misalignment uncertainty</v>
       </c>
-      <c r="E12" s="52" t="n">
+      <c r="E12" s="53" t="n">
         <f aca="false">RADIANS(B12)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60" t="str">
+      <c r="A13" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A13</f>
         <v>sig_thstz</v>
       </c>
-      <c r="B13" s="34" t="n">
+      <c r="B13" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B13</f>
         <v>20</v>
       </c>
-      <c r="C13" s="34" t="str">
+      <c r="C13" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C13</f>
         <v>arcsec</v>
       </c>
-      <c r="D13" s="34" t="str">
+      <c r="D13" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D13</f>
         <v>3-sigma initial star camera misalignment uncertainty</v>
       </c>
-      <c r="E13" s="52" t="n">
+      <c r="E13" s="53" t="n">
         <f aca="false">RADIANS(B13)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="60" t="str">
+      <c r="A14" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A14</f>
         <v>sig_thcx</v>
       </c>
-      <c r="B14" s="34" t="n">
+      <c r="B14" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B14</f>
         <v>20</v>
       </c>
-      <c r="C14" s="34" t="str">
+      <c r="C14" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C14</f>
         <v>arcsec</v>
       </c>
-      <c r="D14" s="34" t="str">
+      <c r="D14" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D14</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
-      <c r="E14" s="52" t="n">
+      <c r="E14" s="53" t="n">
         <f aca="false">RADIANS(B14)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="60" t="str">
+      <c r="A15" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A15</f>
         <v>sig_thcy</v>
       </c>
-      <c r="B15" s="34" t="n">
+      <c r="B15" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B15</f>
         <v>20</v>
       </c>
-      <c r="C15" s="34" t="str">
+      <c r="C15" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C15</f>
         <v>arcsec</v>
       </c>
-      <c r="D15" s="34" t="str">
+      <c r="D15" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D15</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
-      <c r="E15" s="52" t="n">
+      <c r="E15" s="53" t="n">
         <f aca="false">RADIANS(B15)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="str">
+      <c r="A16" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A16</f>
         <v>sig_thcz</v>
       </c>
-      <c r="B16" s="34" t="n">
+      <c r="B16" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B16</f>
         <v>20</v>
       </c>
-      <c r="C16" s="34" t="str">
+      <c r="C16" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C16</f>
         <v>arcsec</v>
       </c>
-      <c r="D16" s="34" t="str">
+      <c r="D16" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D16</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
-      <c r="E16" s="52" t="n">
+      <c r="E16" s="53" t="n">
         <f aca="false">RADIANS(B16)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60" t="str">
+      <c r="A17" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A17</f>
         <v>sig_gyrox</v>
       </c>
-      <c r="B17" s="34" t="n">
+      <c r="B17" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="34" t="str">
+      <c r="C17" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C17</f>
         <v>deg/hr</v>
       </c>
-      <c r="D17" s="34" t="str">
+      <c r="D17" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D17</f>
         <v>3-sigma initial gyro bias uncertainty</v>
       </c>
-      <c r="E17" s="52" t="n">
+      <c r="E17" s="53" t="n">
         <f aca="false">RADIANS(B17)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60" t="str">
+      <c r="A18" s="61" t="str">
         <f aca="false">truthStateInitialUncertainty!A18</f>
         <v>sig_gyroy</v>
       </c>
-      <c r="B18" s="34" t="n">
+      <c r="B18" s="35" t="n">
         <f aca="false">truthStateInitialUncertainty!B18</f>
         <v>5</v>
       </c>
-      <c r="C18" s="34" t="str">
+      <c r="C18" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!C18</f>
         <v>deg/hr</v>
       </c>
-      <c r="D18" s="34" t="str">
+      <c r="D18" s="35" t="str">
         <f aca="false">truthStateInitialUncertainty!D18</f>
         <v>3-sigma initial gyro bias uncertainty</v>
       </c>
-      <c r="E18" s="52" t="n">
+      <c r="E18" s="53" t="n">
         <f aca="false">RADIANS(B18)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="str">
+      <c r="A19" s="24" t="str">
         <f aca="false">truthStateInitialUncertainty!A19</f>
         <v>sig_gyroz</v>
       </c>
-      <c r="B19" s="36" t="n">
+      <c r="B19" s="37" t="n">
         <f aca="false">truthStateInitialUncertainty!B19</f>
         <v>5</v>
       </c>
-      <c r="C19" s="36" t="str">
+      <c r="C19" s="37" t="str">
         <f aca="false">truthStateInitialUncertainty!C19</f>
         <v>deg/hr</v>
       </c>
-      <c r="D19" s="36" t="str">
+      <c r="D19" s="37" t="str">
         <f aca="false">truthStateInitialUncertainty!D19</f>
         <v>3-sigma initial gyro bias uncertainty</v>
       </c>
-      <c r="E19" s="53" t="n">
+      <c r="E19" s="54" t="n">
         <f aca="false">RADIANS(B19)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="257">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -228,7 +228,7 @@
     <t xml:space="preserve">Gyro bias ECRV time constant</t>
   </si>
   <si>
-    <t xml:space="preserve">tau_st</t>
+    <t xml:space="preserve">tau_b</t>
   </si>
   <si>
     <t xml:space="preserve">Camera misalignment ECRV time constant</t>
@@ -354,6 +354,24 @@
     <t xml:space="preserve">Initial launch angle</t>
   </si>
   <si>
+    <t xml:space="preserve">u_beta_x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X component of lunar lander rotation axis (inertial frame)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u_beta_y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y component of lunar lander rotation axis (inertial frame)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u_beta_z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z component of lunar lander rotation axis (inertial frame)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ri_x</t>
   </si>
   <si>
@@ -513,7 +531,7 @@
     <t xml:space="preserve">vel</t>
   </si>
   <si>
-    <t xml:space="preserve">cam_att_disp</t>
+    <t xml:space="preserve">cam</t>
   </si>
   <si>
     <t xml:space="preserve">acc_bias</t>
@@ -1324,7 +1342,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A2:A22"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A39:E41 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1512,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A39:E41 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1545,7 +1563,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>0.1</v>
@@ -1554,7 +1572,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E2" s="34" t="n">
         <f aca="false">B2</f>
@@ -1564,7 +1582,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="61" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B3" s="33" t="n">
         <v>0.2</v>
@@ -1573,7 +1591,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E3" s="34" t="n">
         <f aca="false">B3</f>
@@ -1583,7 +1601,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="61" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>0.3</v>
@@ -1592,7 +1610,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E4" s="39" t="n">
         <f aca="false">B4</f>
@@ -1602,16 +1620,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E5" s="34" t="n">
         <f aca="false">B5</f>
@@ -1621,16 +1639,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B6" s="36" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E6" s="34" t="n">
         <f aca="false">B6</f>
@@ -1640,16 +1658,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="61" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E7" s="34" t="n">
         <f aca="false">B7</f>
@@ -1659,7 +1677,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="61" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B8" s="40" t="n">
         <v>0.1</v>
@@ -1668,7 +1686,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E8" s="42" t="n">
         <f aca="false">RADIANS(B8)</f>
@@ -1678,7 +1696,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B9" s="43" t="n">
         <v>0.2</v>
@@ -1687,7 +1705,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E9" s="44" t="n">
         <f aca="false">RADIANS(B9)</f>
@@ -1697,7 +1715,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="61" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B10" s="43" t="n">
         <v>0.3</v>
@@ -1706,7 +1724,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E10" s="46" t="n">
         <f aca="false">RADIANS(B10)</f>
@@ -1716,16 +1734,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B11" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E11" s="48" t="n">
         <f aca="false">B11</f>
@@ -1735,16 +1753,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="61" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B12" s="49" t="n">
         <v>0.1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E12" s="50" t="n">
         <f aca="false">B12</f>
@@ -1754,16 +1772,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="61" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B13" s="49" t="n">
         <v>0.1</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E13" s="51" t="n">
         <f aca="false">B13</f>
@@ -1773,7 +1791,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="61" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B14" s="33" t="n">
         <v>0.1</v>
@@ -1782,7 +1800,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E14" s="52" t="n">
         <f aca="false">B14</f>
@@ -1792,7 +1810,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="61" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B15" s="33" t="n">
         <v>0.2</v>
@@ -1801,7 +1819,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E15" s="53" t="n">
         <f aca="false">B15</f>
@@ -1811,7 +1829,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="61" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B16" s="33" t="n">
         <v>0.3</v>
@@ -1820,7 +1838,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">B16</f>
@@ -1830,7 +1848,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B17" s="33" t="n">
         <v>0.1</v>
@@ -1839,7 +1857,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E17" s="52" t="n">
         <f aca="false">B17</f>
@@ -1849,7 +1867,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B18" s="33" t="n">
         <v>0.2</v>
@@ -1858,7 +1876,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E18" s="53" t="n">
         <f aca="false">B18</f>
@@ -1868,7 +1886,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="61" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B19" s="33" t="n">
         <v>0.3</v>
@@ -1877,7 +1895,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">B19</f>
@@ -1887,7 +1905,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="61" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B20" s="33" t="n">
         <v>0.1</v>
@@ -1896,7 +1914,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E20" s="52" t="n">
         <f aca="false">B20</f>
@@ -1905,7 +1923,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="61" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B21" s="33" t="n">
         <v>0.2</v>
@@ -1914,7 +1932,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E21" s="53" t="n">
         <f aca="false">B21</f>
@@ -1923,7 +1941,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="61" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B22" s="33" t="n">
         <v>0.3</v>
@@ -1932,7 +1950,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">B22</f>
@@ -1958,7 +1976,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A2:A22"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A39:E41 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1970,7 +1988,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>60</v>
@@ -1978,7 +1996,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>60</v>
@@ -1986,7 +2004,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">hr2min*min2sec</f>
@@ -1995,7 +2013,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.81</v>
@@ -2003,7 +2021,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>24</v>
@@ -2011,7 +2029,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">180/3.14159</f>
@@ -2036,8 +2054,8 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="A2:A22 D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2741,16 +2759,58 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0"/>
-      <c r="E39" s="0"/>
+      <c r="A39" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="16" t="n">
+        <f aca="false">B39</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0"/>
-      <c r="E40" s="0"/>
+      <c r="A40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="16" t="n">
+        <f aca="false">B40</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0"/>
-      <c r="E41" s="0"/>
+      <c r="A41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="16" t="n">
+        <f aca="false">B41</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0"/>
@@ -2775,7 +2835,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="1" sqref="A2:A22 B24"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A39:E41 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2805,7 +2865,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>1737</v>
@@ -2814,7 +2874,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E2" s="34" t="n">
         <f aca="false">B2*1000</f>
@@ -2823,7 +2883,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B3" s="36" t="n">
         <v>0</v>
@@ -2832,7 +2892,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E3" s="34" t="n">
         <f aca="false">B3*1000</f>
@@ -2841,7 +2901,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B4" s="38" t="n">
         <v>0</v>
@@ -2850,7 +2910,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E4" s="39" t="n">
         <f aca="false">B4*1000</f>
@@ -2859,16 +2919,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B5" s="36" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>106</v>
       </c>
       <c r="E5" s="34" t="n">
         <f aca="false">B5*1000</f>
@@ -2877,16 +2937,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B6" s="36" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E6" s="34" t="n">
         <f aca="false">B6*1000</f>
@@ -2895,16 +2955,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B7" s="36" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E7" s="34" t="n">
         <f aca="false">B7*1000</f>
@@ -2913,7 +2973,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B8" s="40" t="n">
         <v>1</v>
@@ -2922,7 +2982,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E8" s="42" t="n">
         <f aca="false">RADIANS(B8)</f>
@@ -2931,7 +2991,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B9" s="43" t="n">
         <v>1</v>
@@ -2940,7 +3000,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E9" s="44" t="n">
         <f aca="false">RADIANS(B9)</f>
@@ -2949,7 +3009,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="45" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B10" s="43" t="n">
         <v>1</v>
@@ -2958,7 +3018,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E10" s="46" t="n">
         <f aca="false">RADIANS(B10)</f>
@@ -2967,16 +3027,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B11" s="47" t="n">
         <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E11" s="48" t="n">
         <f aca="false">B11</f>
@@ -2985,16 +3045,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B12" s="49" t="n">
         <v>0.1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E12" s="50" t="n">
         <f aca="false">B12</f>
@@ -3003,16 +3063,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B13" s="49" t="n">
         <v>0.1</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E13" s="51" t="n">
         <f aca="false">B13</f>
@@ -3021,7 +3081,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B14" s="33" t="n">
         <v>1737</v>
@@ -3030,7 +3090,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E14" s="52" t="n">
         <f aca="false">B14*1000</f>
@@ -3039,7 +3099,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B15" s="36" t="n">
         <v>0.001</v>
@@ -3048,7 +3108,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E15" s="53" t="n">
         <f aca="false">B15*1000</f>
@@ -3057,7 +3117,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B16" s="38" t="n">
         <v>0</v>
@@ -3066,7 +3126,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">B16*1000</f>
@@ -3075,7 +3135,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B17" s="33" t="n">
         <v>1737</v>
@@ -3084,7 +3144,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E17" s="52" t="n">
         <f aca="false">B17*1000</f>
@@ -3093,7 +3153,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B18" s="36" t="n">
         <v>0</v>
@@ -3102,7 +3162,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E18" s="53" t="n">
         <f aca="false">B18*1000</f>
@@ -3111,7 +3171,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B19" s="38" t="n">
         <v>0.001</v>
@@ -3120,7 +3180,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">B19*1000</f>
@@ -3129,7 +3189,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B20" s="33" t="n">
         <v>1737</v>
@@ -3138,7 +3198,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E20" s="52" t="n">
         <f aca="false">B20*1000</f>
@@ -3147,7 +3207,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B21" s="36" t="n">
         <v>0.001</v>
@@ -3156,7 +3216,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E21" s="53" t="n">
         <f aca="false">B21*1000</f>
@@ -3165,7 +3225,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B22" s="38" t="n">
         <v>0.001</v>
@@ -3174,7 +3234,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">B22*1000</f>
@@ -3183,7 +3243,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B23" s="35" t="n">
         <v>1</v>
@@ -3192,7 +3252,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E23" s="55" t="n">
         <f aca="false">B23</f>
@@ -3201,7 +3261,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="35" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B24" s="35" t="n">
         <v>0</v>
@@ -3210,7 +3270,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E24" s="8" t="n">
         <f aca="false">B24/3</f>
@@ -3219,7 +3279,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B25" s="35" t="n">
         <v>0</v>
@@ -3228,7 +3288,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E25" s="55" t="n">
         <f aca="false">B25/3</f>
@@ -3237,7 +3297,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B26" s="35" t="n">
         <v>0</v>
@@ -3246,7 +3306,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E26" s="55" t="n">
         <f aca="false">B26/3</f>
@@ -3272,7 +3332,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="A2:A22 D13"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="A39:E41 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3285,24 +3345,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3319,7 +3379,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -3336,7 +3396,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>7</v>
@@ -3353,7 +3413,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -3370,7 +3430,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -3387,7 +3447,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>16</v>
@@ -3404,7 +3464,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>19</v>
@@ -3421,7 +3481,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>22</v>
@@ -3438,7 +3498,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">B2</f>
@@ -3480,7 +3540,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">B9</f>
@@ -3501,7 +3561,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">B2</f>
@@ -3539,7 +3599,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="1" sqref="A2:A22 E11"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A39:E41 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3552,24 +3612,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3586,7 +3646,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -3603,7 +3663,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>7</v>
@@ -3620,7 +3680,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -3637,7 +3697,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -3654,7 +3714,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>16</v>
@@ -3671,7 +3731,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>19</v>
@@ -3688,7 +3748,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">B2</f>
@@ -3730,7 +3790,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B2</f>
@@ -4729,7 +4789,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A39:E41 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4762,17 +4822,17 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B2" s="62" t="n">
         <f aca="false">0.00000016*3</f>
         <v>4.8E-007</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E2" s="44" t="n">
         <f aca="false">B2/3</f>
@@ -4781,16 +4841,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="61" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B3" s="63" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E3" s="44" t="n">
         <f aca="false">RADIANS(B3)/hr2sec/3</f>
@@ -4800,16 +4860,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B4" s="64" t="n">
         <v>0.05</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E4" s="46" t="n">
         <f aca="false">RADIANS(B4)/SQRT(hr2sec)/3</f>
@@ -4818,16 +4878,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B5" s="63" t="n">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E5" s="44" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
@@ -4836,16 +4896,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B6" s="63" t="n">
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E6" s="44" t="n">
         <f aca="false">RADIANS(B6)/3600/3</f>
@@ -4854,16 +4914,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B7" s="63" t="n">
         <v>1.5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E7" s="44" t="n">
         <f aca="false">RADIANS(B7)/3600/3</f>
@@ -4872,16 +4932,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B8" s="63" t="n">
         <v>1.5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E8" s="44" t="n">
         <f aca="false">RADIANS(B8)/3600/3</f>
@@ -4890,16 +4950,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B9" s="63" t="n">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E9" s="44" t="n">
         <f aca="false">RADIANS(B9)/3600/3</f>
@@ -4908,16 +4968,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B10" s="40" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E10" s="42" t="n">
         <f aca="false">B10/3</f>
@@ -4926,16 +4986,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="45" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B11" s="65" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E11" s="46" t="n">
         <f aca="false">B11/3</f>
@@ -4944,7 +5004,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B12" s="56" t="n">
         <v>10</v>
@@ -4953,7 +5013,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/3</f>
@@ -4962,7 +5022,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B13" s="56" t="n">
         <v>100</v>
@@ -4971,7 +5031,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E13" s="10" t="n">
         <f aca="false">B13/3</f>
@@ -4980,7 +5040,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B14" s="56" t="n">
         <v>10</v>
@@ -4989,7 +5049,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E14" s="10" t="n">
         <f aca="false">B14/3</f>
@@ -5015,7 +5075,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A2:A22 B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A39:E41 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5047,7 +5107,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="67" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B2" s="41" t="n">
         <v>4000</v>
@@ -5056,7 +5116,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E2" s="42" t="n">
         <f aca="false">B2/3</f>
@@ -5065,7 +5125,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="61" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B3" s="35" t="n">
         <v>4000</v>
@@ -5074,7 +5134,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E3" s="44" t="n">
         <f aca="false">B3/3</f>
@@ -5083,7 +5143,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="61" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B4" s="35" t="n">
         <v>4000</v>
@@ -5092,7 +5152,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E4" s="44" t="n">
         <f aca="false">B4/3</f>
@@ -5101,16 +5161,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B5" s="35" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E5" s="44" t="n">
         <f aca="false">B5/3</f>
@@ -5119,16 +5179,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="61" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B6" s="35" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E6" s="44" t="n">
         <f aca="false">B6/3</f>
@@ -5137,16 +5197,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="61" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B7" s="35" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E7" s="44" t="n">
         <f aca="false">B7/3</f>
@@ -5155,16 +5215,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="61" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B8" s="35" t="n">
         <v>0.0005</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E8" s="44" t="n">
         <f aca="false">B8/3</f>
@@ -5173,16 +5233,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="61" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B9" s="35" t="n">
         <v>0.0005</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E9" s="44" t="n">
         <f aca="false">B9/3</f>
@@ -5191,16 +5251,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="61" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B10" s="35" t="n">
         <v>0.0005</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E10" s="44" t="n">
         <f aca="false">B10/3</f>
@@ -5209,17 +5269,17 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="61" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B11" s="35" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E11" s="44" t="n">
         <f aca="false">RADIANS(B11)/3600/3</f>
@@ -5228,17 +5288,17 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B12" s="35" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E12" s="44" t="n">
         <f aca="false">RADIANS(B12)/3600/3</f>
@@ -5247,17 +5307,17 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B13" s="35" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E13" s="44" t="n">
         <f aca="false">RADIANS(B13)/3600/3</f>
@@ -5266,17 +5326,17 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B14" s="35" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E14" s="44" t="n">
         <f aca="false">RADIANS(B14)/3600/3</f>
@@ -5285,17 +5345,17 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B15" s="35" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E15" s="44" t="n">
         <f aca="false">RADIANS(B15)/3600/3</f>
@@ -5304,17 +5364,17 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B16" s="35" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E16" s="44" t="n">
         <f aca="false">RADIANS(B16)/3600/3</f>
@@ -5323,17 +5383,17 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="61" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B17" s="35" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E17" s="44" t="n">
         <f aca="false">RADIANS(B17)/hr2sec/3</f>
@@ -5342,17 +5402,17 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="61" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B18" s="35" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E18" s="44" t="n">
         <f aca="false">RADIANS(B18)/hr2sec/3</f>
@@ -5361,17 +5421,17 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B19" s="37" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E19" s="46" t="n">
         <f aca="false">RADIANS(B19)/hr2sec/3</f>
@@ -5397,7 +5457,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A22 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A39:E41 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5737,7 +5797,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A2:A22 B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A39:E41 B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -348,7 +348,7 @@
     <t xml:space="preserve">Thrust to weight ratio of the ship</t>
   </si>
   <si>
-    <t xml:space="preserve">beta</t>
+    <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">Initial launch angle</t>
@@ -981,7 +981,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1094,22 +1094,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1122,15 +1106,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,27 +1122,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1175,10 +1131,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1202,10 +1154,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1226,18 +1174,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1247,10 +1183,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1342,14 +1274,14 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A39:E41 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1463,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A39:E41 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1540,203 +1472,203 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="29" t="n">
         <v>0.1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="34" t="n">
+      <c r="E2" s="30" t="n">
         <f aca="false">B2</f>
         <v>0.1</v>
       </c>
-      <c r="F2" s="35"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="33" t="n">
+      <c r="B3" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="30" t="n">
         <f aca="false">B3</f>
         <v>0.2</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="33" t="n">
+      <c r="B4" s="29" t="n">
         <v>0.3</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="39" t="n">
+      <c r="E4" s="33" t="n">
         <f aca="false">B4</f>
         <v>0.3</v>
       </c>
-      <c r="F4" s="35"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="31" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="30" t="n">
         <f aca="false">B5</f>
         <v>1</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="31" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="34" t="n">
+      <c r="E6" s="30" t="n">
         <f aca="false">B6</f>
         <v>2</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B7" s="36" t="n">
+      <c r="B7" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="34" t="n">
+      <c r="E7" s="30" t="n">
         <f aca="false">B7</f>
         <v>3</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B8" s="40" t="n">
+      <c r="B8" s="34" t="n">
         <v>0.1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="14" t="n">
         <f aca="false">RADIANS(B8)</f>
         <v>0.00174532925199433</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="43" t="n">
+      <c r="B9" s="35" t="n">
         <v>0.2</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)</f>
         <v>0.00349065850398866</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="43" t="n">
+      <c r="B10" s="35" t="n">
         <v>0.3</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="46" t="n">
+      <c r="E10" s="27" t="n">
         <f aca="false">RADIANS(B10)</f>
         <v>0.00523598775598299</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="47" t="n">
+      <c r="B11" s="36" t="n">
         <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1745,17 +1677,17 @@
       <c r="D11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="48" t="n">
+      <c r="E11" s="37" t="n">
         <f aca="false">B11</f>
         <v>0.1</v>
       </c>
-      <c r="F11" s="35"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="49" t="n">
+      <c r="B12" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -1764,195 +1696,195 @@
       <c r="D12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="50" t="n">
+      <c r="E12" s="38" t="n">
         <f aca="false">B12</f>
         <v>0.1</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B13" s="49" t="n">
+      <c r="B13" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="51" t="n">
+      <c r="E13" s="39" t="n">
         <f aca="false">B13</f>
         <v>0.1</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="29" t="n">
         <v>0.1</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="52" t="n">
+      <c r="E14" s="40" t="n">
         <f aca="false">B14</f>
         <v>0.1</v>
       </c>
-      <c r="F14" s="35"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="33" t="n">
+      <c r="B15" s="29" t="n">
         <v>0.2</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="53" t="n">
+      <c r="E15" s="41" t="n">
         <f aca="false">B15</f>
         <v>0.2</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="33" t="n">
+      <c r="B16" s="29" t="n">
         <v>0.3</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="54" t="n">
+      <c r="E16" s="42" t="n">
         <f aca="false">B16</f>
         <v>0.3</v>
       </c>
-      <c r="F16" s="35"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B17" s="33" t="n">
+      <c r="B17" s="29" t="n">
         <v>0.1</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="52" t="n">
+      <c r="E17" s="40" t="n">
         <f aca="false">B17</f>
         <v>0.1</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B18" s="33" t="n">
+      <c r="B18" s="29" t="n">
         <v>0.2</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="53" t="n">
+      <c r="E18" s="41" t="n">
         <f aca="false">B18</f>
         <v>0.2</v>
       </c>
-      <c r="F18" s="35"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="33" t="n">
+      <c r="B19" s="29" t="n">
         <v>0.3</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="54" t="n">
+      <c r="E19" s="42" t="n">
         <f aca="false">B19</f>
         <v>0.3</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="29" t="n">
         <v>0.1</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="52" t="n">
+      <c r="E20" s="40" t="n">
         <f aca="false">B20</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B21" s="33" t="n">
+      <c r="B21" s="29" t="n">
         <v>0.2</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="53" t="n">
+      <c r="E21" s="41" t="n">
         <f aca="false">B21</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="33" t="n">
+      <c r="B22" s="29" t="n">
         <v>0.3</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="54" t="n">
+      <c r="E22" s="42" t="n">
         <f aca="false">B22</f>
         <v>0.3</v>
       </c>
@@ -1976,7 +1908,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A39:E41 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2055,12 +1987,12 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A39" activeCellId="0" sqref="A39:E41"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.57"/>
@@ -2127,8 +2059,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="15" t="n">
-        <f aca="false">B5*0.5</f>
-        <v>3404.71010099543</v>
+        <v>10000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -2138,7 +2069,7 @@
       </c>
       <c r="E4" s="16" t="n">
         <f aca="false">B4</f>
-        <v>3404.71010099543</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2745,7 +2676,7 @@
         <v>103</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>68</v>
@@ -2755,7 +2686,7 @@
       </c>
       <c r="E38" s="0" t="n">
         <f aca="false">RADIANS(B38)</f>
-        <v>8.72664625997165E-005</v>
+        <v>0.000872664625997165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,7 +2712,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>55</v>
@@ -2791,7 +2722,7 @@
       </c>
       <c r="E40" s="16" t="n">
         <f aca="false">B40</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2799,7 +2730,7 @@
         <v>109</v>
       </c>
       <c r="B41" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>55</v>
@@ -2809,7 +2740,7 @@
       </c>
       <c r="E41" s="16" t="n">
         <f aca="false">B41</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2835,7 +2766,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A39:E41 A2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2847,72 +2778,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="33" t="n">
+      <c r="B2" s="29" t="n">
         <v>1737</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E2" s="34" t="n">
+      <c r="E2" s="30" t="n">
         <f aca="false">B2*1000</f>
         <v>1737000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="34" t="n">
+      <c r="E3" s="30" t="n">
         <f aca="false">B3*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="39" t="n">
+      <c r="E4" s="33" t="n">
         <f aca="false">B4*1000</f>
         <v>0</v>
       </c>
@@ -2921,16 +2852,16 @@
       <c r="A5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="31" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="34" t="n">
+      <c r="E5" s="30" t="n">
         <f aca="false">B5*1000</f>
         <v>0</v>
       </c>
@@ -2939,34 +2870,34 @@
       <c r="A6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="31" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="34" t="n">
+      <c r="E6" s="30" t="n">
         <f aca="false">B6*1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="34" t="n">
+      <c r="E7" s="30" t="n">
         <f aca="false">B7*1000</f>
         <v>0</v>
       </c>
@@ -2975,16 +2906,16 @@
       <c r="A8" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B8" s="40" t="n">
+      <c r="B8" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="42" t="n">
+      <c r="E8" s="14" t="n">
         <f aca="false">RADIANS(B8)</f>
         <v>0.0174532925199433</v>
       </c>
@@ -2993,34 +2924,34 @@
       <c r="A9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="43" t="n">
+      <c r="B9" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)</f>
         <v>0.0174532925199433</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="43" t="n">
+      <c r="B10" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E10" s="46" t="n">
+      <c r="E10" s="27" t="n">
         <f aca="false">RADIANS(B10)</f>
         <v>0.0174532925199433</v>
       </c>
@@ -3029,7 +2960,7 @@
       <c r="A11" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="47" t="n">
+      <c r="B11" s="36" t="n">
         <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -3038,7 +2969,7 @@
       <c r="D11" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E11" s="48" t="n">
+      <c r="E11" s="37" t="n">
         <f aca="false">B11</f>
         <v>0.1</v>
       </c>
@@ -3047,7 +2978,7 @@
       <c r="A12" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="49" t="n">
+      <c r="B12" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -3056,7 +2987,7 @@
       <c r="D12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="50" t="n">
+      <c r="E12" s="38" t="n">
         <f aca="false">B12</f>
         <v>0.1</v>
       </c>
@@ -3065,16 +2996,16 @@
       <c r="A13" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B13" s="49" t="n">
+      <c r="B13" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E13" s="51" t="n">
+      <c r="E13" s="39" t="n">
         <f aca="false">B13</f>
         <v>0.1</v>
       </c>
@@ -3083,16 +3014,16 @@
       <c r="A14" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="29" t="n">
         <v>1737</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="52" t="n">
+      <c r="E14" s="40" t="n">
         <f aca="false">B14*1000</f>
         <v>1737000</v>
       </c>
@@ -3101,16 +3032,16 @@
       <c r="A15" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="36" t="n">
+      <c r="B15" s="31" t="n">
         <v>0.001</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="53" t="n">
+      <c r="E15" s="41" t="n">
         <f aca="false">B15*1000</f>
         <v>1</v>
       </c>
@@ -3119,16 +3050,16 @@
       <c r="A16" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B16" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="54" t="n">
+      <c r="E16" s="42" t="n">
         <f aca="false">B16*1000</f>
         <v>0</v>
       </c>
@@ -3137,16 +3068,16 @@
       <c r="A17" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="33" t="n">
+      <c r="B17" s="29" t="n">
         <v>1737</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="52" t="n">
+      <c r="E17" s="40" t="n">
         <f aca="false">B17*1000</f>
         <v>1737000</v>
       </c>
@@ -3155,16 +3086,16 @@
       <c r="A18" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="36" t="n">
+      <c r="B18" s="31" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="53" t="n">
+      <c r="E18" s="41" t="n">
         <f aca="false">B18*1000</f>
         <v>0</v>
       </c>
@@ -3173,16 +3104,16 @@
       <c r="A19" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="38" t="n">
+      <c r="B19" s="32" t="n">
         <v>0.001</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="54" t="n">
+      <c r="E19" s="42" t="n">
         <f aca="false">B19*1000</f>
         <v>1</v>
       </c>
@@ -3191,16 +3122,16 @@
       <c r="A20" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="33" t="n">
+      <c r="B20" s="29" t="n">
         <v>1737</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="52" t="n">
+      <c r="E20" s="40" t="n">
         <f aca="false">B20*1000</f>
         <v>1737000</v>
       </c>
@@ -3209,16 +3140,16 @@
       <c r="A21" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="31" t="n">
         <v>0.001</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D21" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="53" t="n">
+      <c r="E21" s="41" t="n">
         <f aca="false">B21*1000</f>
         <v>1</v>
       </c>
@@ -3227,49 +3158,49 @@
       <c r="A22" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="38" t="n">
+      <c r="B22" s="32" t="n">
         <v>0.001</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="54" t="n">
+      <c r="E22" s="42" t="n">
         <f aca="false">B22*1000</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B23" s="35" t="n">
+      <c r="B23" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E23" s="55" t="n">
+      <c r="E23" s="41" t="n">
         <f aca="false">B23</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="B24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="13" t="s">
         <v>153</v>
       </c>
       <c r="E24" s="8" t="n">
@@ -3278,37 +3209,37 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="B25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="55" t="n">
+      <c r="E25" s="41" t="n">
         <f aca="false">B25/3</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="35" t="s">
+      <c r="B26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="55" t="n">
+      <c r="E26" s="41" t="n">
         <f aca="false">B26/3</f>
         <v>0</v>
       </c>
@@ -3332,7 +3263,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="A39:E41 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3599,7 +3530,7 @@
   <dimension ref="A1:AMJ12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A39:E41 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4789,13 +4720,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A39:E41 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="56" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="14.71"/>
@@ -4804,55 +4735,55 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="62" t="n">
+      <c r="B2" s="17" t="n">
         <f aca="false">0.00000016*3</f>
         <v>4.8E-007</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="7" t="s">
         <v>174</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="44" t="n">
+      <c r="E2" s="16" t="n">
         <f aca="false">B2/3</f>
         <v>1.6E-007</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="63" t="n">
+      <c r="B3" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="44" t="n">
+      <c r="E3" s="16" t="n">
         <f aca="false">RADIANS(B3)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
@@ -4862,25 +4793,25 @@
       <c r="A4" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="64" t="n">
+      <c r="B4" s="48" t="n">
         <v>0.05</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="46" t="n">
+      <c r="E4" s="27" t="n">
         <f aca="false">RADIANS(B4)/SQRT(hr2sec)/3</f>
         <v>4.84813681109536E-006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B5" s="63" t="n">
+      <c r="B5" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4889,16 +4820,16 @@
       <c r="D5" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E5" s="44" t="n">
+      <c r="E5" s="16" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B6" s="63" t="n">
+      <c r="B6" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4907,7 +4838,7 @@
       <c r="D6" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="16" t="n">
         <f aca="false">RADIANS(B6)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
@@ -4916,7 +4847,7 @@
       <c r="A7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="63" t="n">
+      <c r="B7" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -4925,7 +4856,7 @@
       <c r="D7" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="16" t="n">
         <f aca="false">RADIANS(B7)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
@@ -4934,7 +4865,7 @@
       <c r="A8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="63" t="n">
+      <c r="B8" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -4943,7 +4874,7 @@
       <c r="D8" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="16" t="n">
         <f aca="false">RADIANS(B8)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
@@ -4952,7 +4883,7 @@
       <c r="A9" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="63" t="n">
+      <c r="B9" s="18" t="n">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -4961,7 +4892,7 @@
       <c r="D9" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)/3600/3</f>
         <v>1.45444104332861E-005</v>
       </c>
@@ -4970,7 +4901,7 @@
       <c r="A10" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="40" t="n">
+      <c r="B10" s="34" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
@@ -4979,16 +4910,16 @@
       <c r="D10" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="14" t="n">
         <f aca="false">B10/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="65" t="n">
+      <c r="B11" s="49" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="26" t="s">
@@ -4997,7 +4928,7 @@
       <c r="D11" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E11" s="46" t="n">
+      <c r="E11" s="27" t="n">
         <f aca="false">B11/3</f>
         <v>1</v>
       </c>
@@ -5006,7 +4937,7 @@
       <c r="A12" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="56" t="n">
+      <c r="B12" s="43" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -5024,7 +4955,7 @@
       <c r="A13" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="56" t="n">
+      <c r="B13" s="43" t="n">
         <v>100</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -5042,7 +4973,7 @@
       <c r="A14" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="56" t="n">
+      <c r="B14" s="43" t="n">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -5075,213 +5006,213 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A39:E41 B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="17.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="35" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="51.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="17.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B2" s="41" t="n">
+      <c r="B2" s="13" t="n">
         <v>4000</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E2" s="42" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">B2/3</f>
         <v>1333.33333333333</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="35" t="n">
+      <c r="B3" s="7" t="n">
         <v>4000</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E3" s="44" t="n">
+      <c r="E3" s="16" t="n">
         <f aca="false">B3/3</f>
         <v>1333.33333333333</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="35" t="n">
+      <c r="B4" s="7" t="n">
         <v>4000</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="44" t="n">
+      <c r="E4" s="16" t="n">
         <f aca="false">B4/3</f>
         <v>1333.33333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="35" t="n">
+      <c r="B5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E5" s="44" t="n">
+      <c r="E5" s="16" t="n">
         <f aca="false">B5/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B6" s="35" t="n">
+      <c r="B6" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="16" t="n">
         <f aca="false">B6/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="35" t="n">
+      <c r="B7" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="16" t="n">
         <f aca="false">B7/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="35" t="n">
+      <c r="B8" s="7" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="16" t="n">
         <f aca="false">B8/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="35" t="n">
+      <c r="B9" s="7" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">B9/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="35" t="n">
+      <c r="B10" s="7" t="n">
         <v>0.0005</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="44" t="n">
+      <c r="E10" s="16" t="n">
         <f aca="false">B10/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="35" t="n">
+      <c r="B11" s="7" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="44" t="n">
+      <c r="E11" s="16" t="n">
         <f aca="false">RADIANS(B11)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
@@ -5290,17 +5221,17 @@
       <c r="A12" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="35" t="n">
+      <c r="B12" s="7" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="44" t="n">
+      <c r="E12" s="16" t="n">
         <f aca="false">RADIANS(B12)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
@@ -5309,17 +5240,17 @@
       <c r="A13" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="35" t="n">
+      <c r="B13" s="7" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="44" t="n">
+      <c r="E13" s="16" t="n">
         <f aca="false">RADIANS(B13)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
@@ -5328,17 +5259,17 @@
       <c r="A14" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="35" t="n">
+      <c r="B14" s="7" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="44" t="n">
+      <c r="E14" s="16" t="n">
         <f aca="false">RADIANS(B14)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
@@ -5347,17 +5278,17 @@
       <c r="A15" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B15" s="35" t="n">
+      <c r="B15" s="7" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E15" s="44" t="n">
+      <c r="E15" s="16" t="n">
         <f aca="false">RADIANS(B15)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
@@ -5366,55 +5297,55 @@
       <c r="A16" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="35" t="n">
+      <c r="B16" s="7" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="7" t="s">
         <v>188</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E16" s="44" t="n">
+      <c r="E16" s="16" t="n">
         <f aca="false">RADIANS(B16)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="35" t="n">
+      <c r="B17" s="7" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E17" s="44" t="n">
+      <c r="E17" s="16" t="n">
         <f aca="false">RADIANS(B17)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B18" s="35" t="n">
+      <c r="B18" s="7" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="44" t="n">
+      <c r="E18" s="16" t="n">
         <f aca="false">RADIANS(B18)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
@@ -5423,17 +5354,17 @@
       <c r="A19" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B19" s="37" t="n">
+      <c r="B19" s="26" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="E19" s="46" t="n">
+      <c r="E19" s="27" t="n">
         <f aca="false">RADIANS(B19)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
@@ -5457,47 +5388,47 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A39:E41 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="46.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="35" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="46.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="5" t="str">
         <f aca="false">truthStateParams!A2</f>
         <v>Q_grav</v>
       </c>
-      <c r="B2" s="62" t="n">
+      <c r="B2" s="17" t="n">
         <f aca="false">truthStateParams!B2</f>
         <v>4.8E-007</v>
       </c>
-      <c r="C2" s="35" t="str">
+      <c r="C2" s="7" t="str">
         <f aca="false">truthStateParams!C2</f>
         <v>m^2/s^3</v>
       </c>
@@ -5505,64 +5436,64 @@
         <f aca="false">truthStateParams!D2</f>
         <v>3-sigma non-gravitational process noise</v>
       </c>
-      <c r="E2" s="44" t="n">
+      <c r="E2" s="16" t="n">
         <f aca="false">B2/3</f>
         <v>1.6E-007</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="str">
+      <c r="A3" s="5" t="str">
         <f aca="false">truthStateParams!A3</f>
         <v>sig_gyro_ss</v>
       </c>
-      <c r="B3" s="63" t="n">
+      <c r="B3" s="18" t="n">
         <f aca="false">truthStateParams!B3</f>
         <v>5</v>
       </c>
-      <c r="C3" s="62" t="str">
+      <c r="C3" s="17" t="str">
         <f aca="false">truthStateParams!C3</f>
         <v>deg/hr</v>
       </c>
-      <c r="D3" s="35" t="str">
+      <c r="D3" s="7" t="str">
         <f aca="false">truthStateParams!D3</f>
         <v>3-sigma steady-state gyro bias</v>
       </c>
-      <c r="E3" s="44" t="n">
+      <c r="E3" s="16" t="n">
         <f aca="false">RADIANS(B3)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="str">
         <f aca="false">truthStateParams!A4</f>
         <v>arw</v>
       </c>
-      <c r="B4" s="64" t="n">
+      <c r="B4" s="48" t="n">
         <f aca="false">truthStateParams!B4</f>
         <v>0.05</v>
       </c>
-      <c r="C4" s="37" t="str">
+      <c r="C4" s="26" t="str">
         <f aca="false">truthStateParams!C4</f>
         <v>deg/sqrt(hr)</v>
       </c>
-      <c r="D4" s="37" t="str">
+      <c r="D4" s="26" t="str">
         <f aca="false">truthStateParams!D4</f>
         <v>3-sigma angular random walk</v>
       </c>
-      <c r="E4" s="46" t="n">
+      <c r="E4" s="27" t="n">
         <f aca="false">RADIANS(B4)/SQRT(hr2sec)/3</f>
         <v>4.84813681109536E-006</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="str">
+      <c r="A5" s="5" t="str">
         <f aca="false">truthStateParams!A5</f>
         <v>sig_st_ss</v>
       </c>
-      <c r="B5" s="63" t="n">
+      <c r="B5" s="18" t="n">
         <f aca="false">truthStateParams!B5</f>
         <v>20</v>
       </c>
@@ -5574,18 +5505,18 @@
         <f aca="false">truthStateParams!D5</f>
         <v>3-sigma steady-state star camera misalignment</v>
       </c>
-      <c r="E5" s="44" t="n">
+      <c r="E5" s="16" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="str">
+      <c r="A6" s="5" t="str">
         <f aca="false">truthStateParams!A6</f>
         <v>sig_c_ss</v>
       </c>
-      <c r="B6" s="63" t="n">
+      <c r="B6" s="18" t="n">
         <f aca="false">truthStateParams!B6</f>
         <v>20</v>
       </c>
@@ -5597,7 +5528,7 @@
         <f aca="false">truthStateParams!D6</f>
         <v>3-sigma steady-state terrain camera misalignment</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="16" t="n">
         <f aca="false">RADIANS(B6)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
@@ -5607,7 +5538,7 @@
         <f aca="false">truthStateParams!A7</f>
         <v>sig_meas_stx</v>
       </c>
-      <c r="B7" s="63" t="n">
+      <c r="B7" s="18" t="n">
         <f aca="false">truthStateParams!B7</f>
         <v>1.5</v>
       </c>
@@ -5619,7 +5550,7 @@
         <f aca="false">truthStateParams!D7</f>
         <v>3-sigma star camera measurement uncertainty</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="16" t="n">
         <f aca="false">RADIANS(B7)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
@@ -5629,7 +5560,7 @@
         <f aca="false">truthStateParams!A8</f>
         <v>sig_meas_sty</v>
       </c>
-      <c r="B8" s="63" t="n">
+      <c r="B8" s="18" t="n">
         <f aca="false">truthStateParams!B8</f>
         <v>1.5</v>
       </c>
@@ -5641,7 +5572,7 @@
         <f aca="false">truthStateParams!D8</f>
         <v>3-sigma star camera measurement uncertainty</v>
       </c>
-      <c r="E8" s="44" t="n">
+      <c r="E8" s="16" t="n">
         <f aca="false">RADIANS(B8)/3600/3</f>
         <v>2.42406840554768E-006</v>
       </c>
@@ -5651,7 +5582,7 @@
         <f aca="false">truthStateParams!A9</f>
         <v>sig_meas_stz</v>
       </c>
-      <c r="B9" s="63" t="n">
+      <c r="B9" s="18" t="n">
         <f aca="false">truthStateParams!B9</f>
         <v>9</v>
       </c>
@@ -5663,7 +5594,7 @@
         <f aca="false">truthStateParams!D9</f>
         <v>3-sigma star camera measurement uncertainty</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)/3600/3</f>
         <v>1.45444104332861E-005</v>
       </c>
@@ -5673,7 +5604,7 @@
         <f aca="false">truthStateParams!A10</f>
         <v>sig_cu</v>
       </c>
-      <c r="B10" s="40" t="n">
+      <c r="B10" s="34" t="n">
         <f aca="false">truthStateParams!B10</f>
         <v>3</v>
       </c>
@@ -5685,17 +5616,17 @@
         <f aca="false">truthStateParams!D10</f>
         <v>3-sigma u component of pixel noise</v>
       </c>
-      <c r="E10" s="42" t="n">
+      <c r="E10" s="14" t="n">
         <f aca="false">B10/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="45" t="str">
+      <c r="A11" s="24" t="str">
         <f aca="false">truthStateParams!A11</f>
         <v>sig_cv</v>
       </c>
-      <c r="B11" s="65" t="n">
+      <c r="B11" s="49" t="n">
         <f aca="false">truthStateParams!B11</f>
         <v>3</v>
       </c>
@@ -5707,17 +5638,17 @@
         <f aca="false">truthStateParams!D11</f>
         <v>3-sigma v component of pixel noise</v>
       </c>
-      <c r="E11" s="46" t="n">
+      <c r="E11" s="27" t="n">
         <f aca="false">B11/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="45" t="str">
+      <c r="A12" s="24" t="str">
         <f aca="false">truthStateParams!A12</f>
         <v>sig_idpos</v>
       </c>
-      <c r="B12" s="65" t="n">
+      <c r="B12" s="49" t="n">
         <f aca="false">truthStateParams!B12</f>
         <v>10</v>
       </c>
@@ -5729,17 +5660,17 @@
         <f aca="false">truthStateParams!D12</f>
         <v>3-sigma change in inertial position measurement uncertainty</v>
       </c>
-      <c r="E12" s="46" t="n">
+      <c r="E12" s="27" t="n">
         <f aca="false">B12/3</f>
         <v>3.33333333333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="45" t="str">
+      <c r="A13" s="24" t="str">
         <f aca="false">truthStateParams!A13</f>
         <v>sig_loss</v>
       </c>
-      <c r="B13" s="65" t="n">
+      <c r="B13" s="49" t="n">
         <f aca="false">truthStateParams!B13</f>
         <v>100</v>
       </c>
@@ -5751,17 +5682,17 @@
         <f aca="false">truthStateParams!D13</f>
         <v>3-sigma LOSS feature location uncertainty</v>
       </c>
-      <c r="E13" s="46" t="n">
+      <c r="E13" s="27" t="n">
         <f aca="false">B13/3</f>
         <v>33.3333333333333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="45" t="str">
+      <c r="A14" s="24" t="str">
         <f aca="false">truthStateParams!A14</f>
         <v>sig_mdpos</v>
       </c>
-      <c r="B14" s="65" t="n">
+      <c r="B14" s="49" t="n">
         <f aca="false">truthStateParams!B14</f>
         <v>10</v>
       </c>
@@ -5773,7 +5704,7 @@
         <f aca="false">truthStateParams!D14</f>
         <v>3-sigma change in lunar-referenced position measurement uncertainty</v>
       </c>
-      <c r="E14" s="46" t="n">
+      <c r="E14" s="27" t="n">
         <f aca="false">B14/3</f>
         <v>3.33333333333333</v>
       </c>
@@ -5797,410 +5728,410 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="1" sqref="A39:E41 B19"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="9.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="35" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="35" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="14.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="35" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="51.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="14.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69" t="s">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="str">
+      <c r="A2" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A2</f>
         <v>sig_rsx</v>
       </c>
-      <c r="B2" s="35" t="n">
+      <c r="B2" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B2</f>
         <v>4000</v>
       </c>
-      <c r="C2" s="35" t="str">
+      <c r="C2" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C2</f>
         <v>m</v>
       </c>
-      <c r="D2" s="35" t="str">
+      <c r="D2" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D2</f>
         <v>3-sigma initial satellite position uncertainty</v>
       </c>
-      <c r="E2" s="53" t="n">
+      <c r="E2" s="41" t="n">
         <f aca="false">B2/3</f>
         <v>1333.33333333333</v>
       </c>
-      <c r="F2" s="66"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="str">
+      <c r="A3" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A3</f>
         <v>sig_rsy</v>
       </c>
-      <c r="B3" s="35" t="n">
+      <c r="B3" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B3</f>
         <v>4000</v>
       </c>
-      <c r="C3" s="35" t="str">
+      <c r="C3" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C3</f>
         <v>m</v>
       </c>
-      <c r="D3" s="35" t="str">
+      <c r="D3" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D3</f>
         <v>3-sigma initial satellite position uncertainty</v>
       </c>
-      <c r="E3" s="53" t="n">
+      <c r="E3" s="41" t="n">
         <f aca="false">B3/3</f>
         <v>1333.33333333333</v>
       </c>
-      <c r="F3" s="66"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="str">
+      <c r="A4" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A4</f>
         <v>sig_rsz</v>
       </c>
-      <c r="B4" s="35" t="n">
+      <c r="B4" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B4</f>
         <v>4000</v>
       </c>
-      <c r="C4" s="35" t="str">
+      <c r="C4" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C4</f>
         <v>m</v>
       </c>
-      <c r="D4" s="35" t="str">
+      <c r="D4" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D4</f>
         <v>3-sigma initial satellite position uncertainty</v>
       </c>
-      <c r="E4" s="53" t="n">
+      <c r="E4" s="41" t="n">
         <f aca="false">B4/3</f>
         <v>1333.33333333333</v>
       </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="str">
+      <c r="A5" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A5</f>
         <v>sig_vsx</v>
       </c>
-      <c r="B5" s="35" t="n">
+      <c r="B5" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B5</f>
         <v>3</v>
       </c>
-      <c r="C5" s="35" t="str">
+      <c r="C5" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C5</f>
         <v>m/sec</v>
       </c>
-      <c r="D5" s="35" t="str">
+      <c r="D5" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D5</f>
         <v>3-sigma initial satellite velocity uncertainty</v>
       </c>
-      <c r="E5" s="53" t="n">
+      <c r="E5" s="41" t="n">
         <f aca="false">B5/3</f>
         <v>1</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="str">
+      <c r="A6" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A6</f>
         <v>sig_vsy</v>
       </c>
-      <c r="B6" s="35" t="n">
+      <c r="B6" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B6</f>
         <v>3</v>
       </c>
-      <c r="C6" s="35" t="str">
+      <c r="C6" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C6</f>
         <v>m/sec</v>
       </c>
-      <c r="D6" s="35" t="str">
+      <c r="D6" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D6</f>
         <v>3-sigma initial satellite velocity uncertainty</v>
       </c>
-      <c r="E6" s="53" t="n">
+      <c r="E6" s="41" t="n">
         <f aca="false">B6/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="str">
+      <c r="A7" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A7</f>
         <v>sig_vsz</v>
       </c>
-      <c r="B7" s="35" t="n">
+      <c r="B7" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B7</f>
         <v>3</v>
       </c>
-      <c r="C7" s="35" t="str">
+      <c r="C7" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C7</f>
         <v>m/sec</v>
       </c>
-      <c r="D7" s="35" t="str">
+      <c r="D7" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D7</f>
         <v>3-sigma initial satellite velocity uncertainty</v>
       </c>
-      <c r="E7" s="53" t="n">
+      <c r="E7" s="41" t="n">
         <f aca="false">B7/3</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="str">
+      <c r="A8" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A8</f>
         <v>sig_ax</v>
       </c>
-      <c r="B8" s="35" t="n">
+      <c r="B8" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B8</f>
         <v>0.0005</v>
       </c>
-      <c r="C8" s="35" t="str">
+      <c r="C8" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C8</f>
         <v>rad</v>
       </c>
-      <c r="D8" s="35" t="str">
+      <c r="D8" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D8</f>
         <v>3-sigma initial satellite orientation uncertainty</v>
       </c>
-      <c r="E8" s="53" t="n">
+      <c r="E8" s="41" t="n">
         <f aca="false">B8/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="str">
+      <c r="A9" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A9</f>
         <v>sig_ay</v>
       </c>
-      <c r="B9" s="35" t="n">
+      <c r="B9" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B9</f>
         <v>0.0005</v>
       </c>
-      <c r="C9" s="35" t="str">
+      <c r="C9" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C9</f>
         <v>rad</v>
       </c>
-      <c r="D9" s="35" t="str">
+      <c r="D9" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D9</f>
         <v>3-sigma initial satellite orientation uncertainty</v>
       </c>
-      <c r="E9" s="53" t="n">
+      <c r="E9" s="41" t="n">
         <f aca="false">B9/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="str">
+      <c r="A10" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A10</f>
         <v>sig_az</v>
       </c>
-      <c r="B10" s="35" t="n">
+      <c r="B10" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B10</f>
         <v>0.0005</v>
       </c>
-      <c r="C10" s="35" t="str">
+      <c r="C10" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C10</f>
         <v>rad</v>
       </c>
-      <c r="D10" s="35" t="str">
+      <c r="D10" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D10</f>
         <v>3-sigma initial satellite orientation uncertainty</v>
       </c>
-      <c r="E10" s="53" t="n">
+      <c r="E10" s="41" t="n">
         <f aca="false">B10/3</f>
         <v>0.000166666666666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="str">
+      <c r="A11" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A11</f>
         <v>sig_thstx</v>
       </c>
-      <c r="B11" s="35" t="n">
+      <c r="B11" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B11</f>
         <v>20</v>
       </c>
-      <c r="C11" s="35" t="str">
+      <c r="C11" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C11</f>
         <v>arcsec</v>
       </c>
-      <c r="D11" s="35" t="str">
+      <c r="D11" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D11</f>
         <v>3-sigma initial star camera misalignment uncertainty</v>
       </c>
-      <c r="E11" s="53" t="n">
+      <c r="E11" s="41" t="n">
         <f aca="false">RADIANS(B11)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="61" t="str">
+      <c r="A12" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A12</f>
         <v>sig_thsty</v>
       </c>
-      <c r="B12" s="35" t="n">
+      <c r="B12" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B12</f>
         <v>20</v>
       </c>
-      <c r="C12" s="35" t="str">
+      <c r="C12" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C12</f>
         <v>arcsec</v>
       </c>
-      <c r="D12" s="35" t="str">
+      <c r="D12" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D12</f>
         <v>3-sigma initial star camera misalignment uncertainty</v>
       </c>
-      <c r="E12" s="53" t="n">
+      <c r="E12" s="41" t="n">
         <f aca="false">RADIANS(B12)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="str">
+      <c r="A13" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A13</f>
         <v>sig_thstz</v>
       </c>
-      <c r="B13" s="35" t="n">
+      <c r="B13" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B13</f>
         <v>20</v>
       </c>
-      <c r="C13" s="35" t="str">
+      <c r="C13" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C13</f>
         <v>arcsec</v>
       </c>
-      <c r="D13" s="35" t="str">
+      <c r="D13" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D13</f>
         <v>3-sigma initial star camera misalignment uncertainty</v>
       </c>
-      <c r="E13" s="53" t="n">
+      <c r="E13" s="41" t="n">
         <f aca="false">RADIANS(B13)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="61" t="str">
+      <c r="A14" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A14</f>
         <v>sig_thcx</v>
       </c>
-      <c r="B14" s="35" t="n">
+      <c r="B14" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B14</f>
         <v>20</v>
       </c>
-      <c r="C14" s="35" t="str">
+      <c r="C14" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C14</f>
         <v>arcsec</v>
       </c>
-      <c r="D14" s="35" t="str">
+      <c r="D14" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D14</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
-      <c r="E14" s="53" t="n">
+      <c r="E14" s="41" t="n">
         <f aca="false">RADIANS(B14)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="61" t="str">
+      <c r="A15" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A15</f>
         <v>sig_thcy</v>
       </c>
-      <c r="B15" s="35" t="n">
+      <c r="B15" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B15</f>
         <v>20</v>
       </c>
-      <c r="C15" s="35" t="str">
+      <c r="C15" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C15</f>
         <v>arcsec</v>
       </c>
-      <c r="D15" s="35" t="str">
+      <c r="D15" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D15</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
-      <c r="E15" s="53" t="n">
+      <c r="E15" s="41" t="n">
         <f aca="false">RADIANS(B15)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="61" t="str">
+      <c r="A16" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A16</f>
         <v>sig_thcz</v>
       </c>
-      <c r="B16" s="35" t="n">
+      <c r="B16" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B16</f>
         <v>20</v>
       </c>
-      <c r="C16" s="35" t="str">
+      <c r="C16" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C16</f>
         <v>arcsec</v>
       </c>
-      <c r="D16" s="35" t="str">
+      <c r="D16" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D16</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
-      <c r="E16" s="53" t="n">
+      <c r="E16" s="41" t="n">
         <f aca="false">RADIANS(B16)/3600/3</f>
         <v>3.23209120739691E-005</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="61" t="str">
+      <c r="A17" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A17</f>
         <v>sig_gyrox</v>
       </c>
-      <c r="B17" s="35" t="n">
+      <c r="B17" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B17</f>
         <v>5</v>
       </c>
-      <c r="C17" s="35" t="str">
+      <c r="C17" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C17</f>
         <v>deg/hr</v>
       </c>
-      <c r="D17" s="35" t="str">
+      <c r="D17" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D17</f>
         <v>3-sigma initial gyro bias uncertainty</v>
       </c>
-      <c r="E17" s="53" t="n">
+      <c r="E17" s="41" t="n">
         <f aca="false">RADIANS(B17)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="61" t="str">
+      <c r="A18" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A18</f>
         <v>sig_gyroy</v>
       </c>
-      <c r="B18" s="35" t="n">
+      <c r="B18" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B18</f>
         <v>5</v>
       </c>
-      <c r="C18" s="35" t="str">
+      <c r="C18" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C18</f>
         <v>deg/hr</v>
       </c>
-      <c r="D18" s="35" t="str">
+      <c r="D18" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D18</f>
         <v>3-sigma initial gyro bias uncertainty</v>
       </c>
-      <c r="E18" s="53" t="n">
+      <c r="E18" s="41" t="n">
         <f aca="false">RADIANS(B18)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>
@@ -6210,19 +6141,19 @@
         <f aca="false">truthStateInitialUncertainty!A19</f>
         <v>sig_gyroz</v>
       </c>
-      <c r="B19" s="37" t="n">
+      <c r="B19" s="26" t="n">
         <f aca="false">truthStateInitialUncertainty!B19</f>
         <v>5</v>
       </c>
-      <c r="C19" s="37" t="str">
+      <c r="C19" s="26" t="str">
         <f aca="false">truthStateInitialUncertainty!C19</f>
         <v>deg/hr</v>
       </c>
-      <c r="D19" s="37" t="str">
+      <c r="D19" s="26" t="str">
         <f aca="false">truthStateInitialUncertainty!D19</f>
         <v>3-sigma initial gyro bias uncertainty</v>
       </c>
-      <c r="E19" s="54" t="n">
+      <c r="E19" s="42" t="n">
         <f aca="false">RADIANS(B19)/hr2sec/3</f>
         <v>8.08022801849227E-006</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1274,7 +1274,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1396,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">B7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2059,7 +2059,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E4" s="16" t="n">
         <f aca="false">B4</f>
-        <v>10000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="263">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -370,6 +370,24 @@
   </si>
   <si>
     <t xml:space="preserve">Z component of lunar lander rotation axis (inertial frame)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcbx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X component of camera offset of body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y component of camera offset of body</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rcbz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z component of camera offset of body</t>
   </si>
   <si>
     <t xml:space="preserve">ri_x</t>
@@ -1277,7 +1295,7 @@
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.49"/>
@@ -1396,7 +1414,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -1406,7 +1424,7 @@
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">B7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,7 +1513,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>0.1</v>
@@ -1504,7 +1522,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E2" s="30" t="n">
         <f aca="false">B2</f>
@@ -1514,7 +1532,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B3" s="29" t="n">
         <v>0.2</v>
@@ -1523,7 +1541,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E3" s="30" t="n">
         <f aca="false">B3</f>
@@ -1533,7 +1551,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B4" s="29" t="n">
         <v>0.3</v>
@@ -1542,7 +1560,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E4" s="33" t="n">
         <f aca="false">B4</f>
@@ -1552,16 +1570,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B5" s="31" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E5" s="30" t="n">
         <f aca="false">B5</f>
@@ -1571,16 +1589,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B6" s="31" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" s="30" t="n">
         <f aca="false">B6</f>
@@ -1590,16 +1608,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B7" s="31" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E7" s="30" t="n">
         <f aca="false">B7</f>
@@ -1609,7 +1627,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B8" s="34" t="n">
         <v>0.1</v>
@@ -1618,7 +1636,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E8" s="14" t="n">
         <f aca="false">RADIANS(B8)</f>
@@ -1628,7 +1646,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B9" s="35" t="n">
         <v>0.2</v>
@@ -1637,7 +1655,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)</f>
@@ -1647,7 +1665,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B10" s="35" t="n">
         <v>0.3</v>
@@ -1656,7 +1674,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E10" s="27" t="n">
         <f aca="false">RADIANS(B10)</f>
@@ -1666,16 +1684,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B11" s="36" t="n">
         <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E11" s="37" t="n">
         <f aca="false">B11</f>
@@ -1685,16 +1703,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B12" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E12" s="38" t="n">
         <f aca="false">B12</f>
@@ -1704,16 +1722,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B13" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E13" s="39" t="n">
         <f aca="false">B13</f>
@@ -1723,7 +1741,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B14" s="29" t="n">
         <v>0.1</v>
@@ -1732,7 +1750,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E14" s="40" t="n">
         <f aca="false">B14</f>
@@ -1742,7 +1760,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B15" s="29" t="n">
         <v>0.2</v>
@@ -1751,7 +1769,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E15" s="41" t="n">
         <f aca="false">B15</f>
@@ -1761,7 +1779,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B16" s="29" t="n">
         <v>0.3</v>
@@ -1770,7 +1788,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E16" s="42" t="n">
         <f aca="false">B16</f>
@@ -1780,7 +1798,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B17" s="29" t="n">
         <v>0.1</v>
@@ -1789,7 +1807,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E17" s="40" t="n">
         <f aca="false">B17</f>
@@ -1799,7 +1817,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B18" s="29" t="n">
         <v>0.2</v>
@@ -1808,7 +1826,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E18" s="41" t="n">
         <f aca="false">B18</f>
@@ -1818,7 +1836,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B19" s="29" t="n">
         <v>0.3</v>
@@ -1827,7 +1845,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E19" s="42" t="n">
         <f aca="false">B19</f>
@@ -1837,7 +1855,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B20" s="29" t="n">
         <v>0.1</v>
@@ -1846,7 +1864,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E20" s="40" t="n">
         <f aca="false">B20</f>
@@ -1855,7 +1873,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B21" s="29" t="n">
         <v>0.2</v>
@@ -1864,7 +1882,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E21" s="41" t="n">
         <f aca="false">B21</f>
@@ -1873,7 +1891,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B22" s="29" t="n">
         <v>0.3</v>
@@ -1882,7 +1900,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E22" s="42" t="n">
         <f aca="false">B22</f>
@@ -1920,7 +1938,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>60</v>
@@ -1928,7 +1946,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>60</v>
@@ -1936,7 +1954,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">hr2min*min2sec</f>
@@ -1945,7 +1963,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.81</v>
@@ -1953,7 +1971,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>24</v>
@@ -1961,7 +1979,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">180/3.14159</f>
@@ -1984,10 +2002,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2744,8 +2762,58 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0"/>
-      <c r="E42" s="0"/>
+      <c r="A42" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <f aca="false">B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <f aca="false">B43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <f aca="false">B44</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2796,7 +2864,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>1737</v>
@@ -2805,7 +2873,7 @@
         <v>43</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E2" s="30" t="n">
         <f aca="false">B2*1000</f>
@@ -2814,7 +2882,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B3" s="31" t="n">
         <v>0</v>
@@ -2823,7 +2891,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E3" s="30" t="n">
         <f aca="false">B3*1000</f>
@@ -2832,7 +2900,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B4" s="32" t="n">
         <v>0</v>
@@ -2841,7 +2909,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E4" s="33" t="n">
         <f aca="false">B4*1000</f>
@@ -2850,16 +2918,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B5" s="31" t="n">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>112</v>
       </c>
       <c r="E5" s="30" t="n">
         <f aca="false">B5*1000</f>
@@ -2868,16 +2936,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B6" s="31" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E6" s="30" t="n">
         <f aca="false">B6*1000</f>
@@ -2886,16 +2954,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B7" s="31" t="n">
         <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E7" s="30" t="n">
         <f aca="false">B7*1000</f>
@@ -2904,7 +2972,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B8" s="34" t="n">
         <v>1</v>
@@ -2913,7 +2981,7 @@
         <v>68</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E8" s="14" t="n">
         <f aca="false">RADIANS(B8)</f>
@@ -2922,7 +2990,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B9" s="35" t="n">
         <v>1</v>
@@ -2931,7 +2999,7 @@
         <v>68</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)</f>
@@ -2940,7 +3008,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B10" s="35" t="n">
         <v>1</v>
@@ -2949,7 +3017,7 @@
         <v>68</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E10" s="27" t="n">
         <f aca="false">RADIANS(B10)</f>
@@ -2958,16 +3026,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B11" s="36" t="n">
         <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E11" s="37" t="n">
         <f aca="false">B11</f>
@@ -2976,16 +3044,16 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B12" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E12" s="38" t="n">
         <f aca="false">B12</f>
@@ -2994,16 +3062,16 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="26" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B13" s="31" t="n">
         <v>0.1</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E13" s="39" t="n">
         <f aca="false">B13</f>
@@ -3012,7 +3080,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B14" s="29" t="n">
         <v>1737</v>
@@ -3021,7 +3089,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E14" s="40" t="n">
         <f aca="false">B14*1000</f>
@@ -3030,7 +3098,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B15" s="31" t="n">
         <v>0.001</v>
@@ -3039,7 +3107,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E15" s="41" t="n">
         <f aca="false">B15*1000</f>
@@ -3048,7 +3116,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B16" s="32" t="n">
         <v>0</v>
@@ -3057,7 +3125,7 @@
         <v>43</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E16" s="42" t="n">
         <f aca="false">B16*1000</f>
@@ -3066,7 +3134,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B17" s="29" t="n">
         <v>1737</v>
@@ -3075,7 +3143,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E17" s="40" t="n">
         <f aca="false">B17*1000</f>
@@ -3084,7 +3152,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B18" s="31" t="n">
         <v>0</v>
@@ -3093,7 +3161,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E18" s="41" t="n">
         <f aca="false">B18*1000</f>
@@ -3102,7 +3170,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B19" s="32" t="n">
         <v>0.001</v>
@@ -3111,7 +3179,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="E19" s="42" t="n">
         <f aca="false">B19*1000</f>
@@ -3120,7 +3188,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B20" s="29" t="n">
         <v>1737</v>
@@ -3129,7 +3197,7 @@
         <v>43</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E20" s="40" t="n">
         <f aca="false">B20*1000</f>
@@ -3138,7 +3206,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B21" s="31" t="n">
         <v>0.001</v>
@@ -3147,7 +3215,7 @@
         <v>43</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E21" s="41" t="n">
         <f aca="false">B21*1000</f>
@@ -3156,7 +3224,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B22" s="32" t="n">
         <v>0.001</v>
@@ -3165,7 +3233,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E22" s="42" t="n">
         <f aca="false">B22*1000</f>
@@ -3174,7 +3242,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>1</v>
@@ -3183,7 +3251,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E23" s="41" t="n">
         <f aca="false">B23</f>
@@ -3192,7 +3260,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B24" s="7" t="n">
         <v>0</v>
@@ -3201,7 +3269,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E24" s="8" t="n">
         <f aca="false">B24/3</f>
@@ -3210,7 +3278,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B25" s="7" t="n">
         <v>0</v>
@@ -3219,7 +3287,7 @@
         <v>6</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E25" s="41" t="n">
         <f aca="false">B25/3</f>
@@ -3228,7 +3296,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B26" s="7" t="n">
         <v>0</v>
@@ -3237,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E26" s="41" t="n">
         <f aca="false">B26/3</f>
@@ -3276,24 +3344,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3310,7 +3378,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -3327,7 +3395,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>7</v>
@@ -3344,7 +3412,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -3361,7 +3429,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -3378,7 +3446,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>16</v>
@@ -3395,7 +3463,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>19</v>
@@ -3412,7 +3480,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>22</v>
@@ -3429,7 +3497,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B10" s="0" t="n">
         <f aca="false">B2</f>
@@ -3471,7 +3539,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B12" s="0" t="n">
         <f aca="false">B9</f>
@@ -3492,7 +3560,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">B2</f>
@@ -3543,24 +3611,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
@@ -3577,7 +3645,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>4</v>
@@ -3594,7 +3662,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>7</v>
@@ -3611,7 +3679,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>10</v>
@@ -3628,7 +3696,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>13</v>
@@ -3645,7 +3713,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>16</v>
@@ -3662,7 +3730,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>19</v>
@@ -3679,7 +3747,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B9" s="0" t="n">
         <f aca="false">B2</f>
@@ -3721,7 +3789,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B11" s="0" t="n">
         <f aca="false">B2</f>
@@ -4753,17 +4821,17 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B2" s="17" t="n">
         <f aca="false">0.00000016*3</f>
         <v>4.8E-007</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E2" s="16" t="n">
         <f aca="false">B2/3</f>
@@ -4772,16 +4840,16 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B3" s="18" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E3" s="16" t="n">
         <f aca="false">RADIANS(B3)/hr2sec/3</f>
@@ -4791,16 +4859,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B4" s="48" t="n">
         <v>0.05</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E4" s="27" t="n">
         <f aca="false">RADIANS(B4)/SQRT(hr2sec)/3</f>
@@ -4809,16 +4877,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B5" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E5" s="16" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
@@ -4827,16 +4895,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B6" s="18" t="n">
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E6" s="16" t="n">
         <f aca="false">RADIANS(B6)/3600/3</f>
@@ -4845,16 +4913,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E7" s="16" t="n">
         <f aca="false">RADIANS(B7)/3600/3</f>
@@ -4863,16 +4931,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E8" s="16" t="n">
         <f aca="false">RADIANS(B8)/3600/3</f>
@@ -4881,16 +4949,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)/3600/3</f>
@@ -4899,16 +4967,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B10" s="34" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E10" s="14" t="n">
         <f aca="false">B10/3</f>
@@ -4917,16 +4985,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B11" s="49" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E11" s="27" t="n">
         <f aca="false">B11/3</f>
@@ -4935,7 +5003,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B12" s="43" t="n">
         <v>10</v>
@@ -4944,7 +5012,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/3</f>
@@ -4953,7 +5021,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B13" s="43" t="n">
         <v>100</v>
@@ -4962,7 +5030,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E13" s="10" t="n">
         <f aca="false">B13/3</f>
@@ -4971,7 +5039,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B14" s="43" t="n">
         <v>10</v>
@@ -4980,7 +5048,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E14" s="10" t="n">
         <f aca="false">B14/3</f>
@@ -5038,7 +5106,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B2" s="13" t="n">
         <v>4000</v>
@@ -5047,7 +5115,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">B2/3</f>
@@ -5056,7 +5124,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>4000</v>
@@ -5065,7 +5133,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E3" s="16" t="n">
         <f aca="false">B3/3</f>
@@ -5074,7 +5142,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B4" s="7" t="n">
         <v>4000</v>
@@ -5083,7 +5151,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E4" s="16" t="n">
         <f aca="false">B4/3</f>
@@ -5092,16 +5160,16 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B5" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E5" s="16" t="n">
         <f aca="false">B5/3</f>
@@ -5110,16 +5178,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E6" s="16" t="n">
         <f aca="false">B6/3</f>
@@ -5128,16 +5196,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B7" s="7" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E7" s="16" t="n">
         <f aca="false">B7/3</f>
@@ -5146,16 +5214,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E8" s="16" t="n">
         <f aca="false">B8/3</f>
@@ -5164,16 +5232,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E9" s="16" t="n">
         <f aca="false">B9/3</f>
@@ -5182,16 +5250,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>0.0005</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">B10/3</f>
@@ -5200,17 +5268,17 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B11" s="7" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E11" s="16" t="n">
         <f aca="false">RADIANS(B11)/3600/3</f>
@@ -5219,17 +5287,17 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B12" s="7" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E12" s="16" t="n">
         <f aca="false">RADIANS(B12)/3600/3</f>
@@ -5238,17 +5306,17 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B13" s="7" t="n">
         <f aca="false">truthStateParams!$B$5</f>
         <v>20</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E13" s="16" t="n">
         <f aca="false">RADIANS(B13)/3600/3</f>
@@ -5257,17 +5325,17 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B14" s="7" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E14" s="16" t="n">
         <f aca="false">RADIANS(B14)/3600/3</f>
@@ -5276,17 +5344,17 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B15" s="7" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E15" s="16" t="n">
         <f aca="false">RADIANS(B15)/3600/3</f>
@@ -5295,17 +5363,17 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B16" s="7" t="n">
         <f aca="false">truthStateParams!$B$6</f>
         <v>20</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E16" s="16" t="n">
         <f aca="false">RADIANS(B16)/3600/3</f>
@@ -5314,17 +5382,17 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B17" s="7" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E17" s="16" t="n">
         <f aca="false">RADIANS(B17)/hr2sec/3</f>
@@ -5333,17 +5401,17 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B18" s="7" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E18" s="16" t="n">
         <f aca="false">RADIANS(B18)/hr2sec/3</f>
@@ -5352,17 +5420,17 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B19" s="26" t="n">
         <f aca="false">truthStateParams!$B$3</f>
         <v>5</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E19" s="27" t="n">
         <f aca="false">RADIANS(B19)/hr2sec/3</f>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1396,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>6</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E6" s="8" t="n">
         <f aca="false">B6</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2054,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>27</v>
       </c>

--- a/config.xlsx
+++ b/config.xlsx
@@ -2005,7 +2005,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="B5" s="15" t="n">
         <f aca="false">2*PI()/SQRT(B9)*((B11+B12+2*B13)/2)^(3/2)</f>
-        <v>6809.42020199087</v>
+        <v>24696.6283738446</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>23</v>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="E5" s="16" t="n">
         <f aca="false">B5</f>
-        <v>6809.42020199087</v>
+        <v>24696.6283738446</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2200,12 +2200,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>100</v>
+        <v>1737.4</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>43</v>
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E11" s="16" t="n">
         <f aca="false">B11*1000</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1737400</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="15" t="n">
-        <v>10</v>
+        <v>3250</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>43</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="E12" s="16" t="n">
         <f aca="false">B12*1000</f>
-        <v>10000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B19" s="18" t="n">
         <f aca="false">$B$5/2</f>
-        <v>3404.71010099543</v>
+        <v>12348.3141869223</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>23</v>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E19" s="16" t="n">
         <f aca="false">B19</f>
-        <v>3404.71010099543</v>
+        <v>12348.3141869223</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="B20" s="18" t="n">
         <f aca="false">$B$5/2</f>
-        <v>3404.71010099543</v>
+        <v>12348.3141869223</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>23</v>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="E20" s="16" t="n">
         <f aca="false">B20</f>
-        <v>3404.71010099543</v>
+        <v>12348.3141869223</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B21" s="18" t="n">
         <f aca="false">$B$5/2</f>
-        <v>3404.71010099543</v>
+        <v>12348.3141869223</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>23</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="E21" s="16" t="n">
         <f aca="false">B21</f>
-        <v>3404.71010099543</v>
+        <v>12348.3141869223</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2730,7 +2730,7 @@
         <v>107</v>
       </c>
       <c r="B40" s="15" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>55</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="E40" s="16" t="n">
         <f aca="false">B40</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2748,7 +2748,7 @@
         <v>109</v>
       </c>
       <c r="B41" s="15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>55</v>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="E41" s="16" t="n">
         <f aca="false">B41</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2834,14 +2834,14 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="65" style="8" width="8.53"/>
   </cols>
   <sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -999,7 +999,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1212,6 +1212,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,11 +1295,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.49"/>
@@ -1414,7 +1418,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -1424,7 +1428,7 @@
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">B7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,7 +1485,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1515,8 +1519,8 @@
       <c r="A2" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="29" t="n">
-        <v>0.1</v>
+      <c r="B2" s="53" t="n">
+        <v>0.01</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>55</v>
@@ -1526,7 +1530,7 @@
       </c>
       <c r="E2" s="30" t="n">
         <f aca="false">B2</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="7"/>
     </row>
@@ -1534,8 +1538,8 @@
       <c r="A3" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="29" t="n">
-        <v>0.2</v>
+      <c r="B3" s="7" t="n">
+        <v>0.02</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>55</v>
@@ -1545,7 +1549,7 @@
       </c>
       <c r="E3" s="30" t="n">
         <f aca="false">B3</f>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F3" s="7"/>
     </row>
@@ -1553,8 +1557,8 @@
       <c r="A4" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="29" t="n">
-        <v>0.3</v>
+      <c r="B4" s="26" t="n">
+        <v>0.03</v>
       </c>
       <c r="C4" s="26" t="s">
         <v>55</v>
@@ -1564,7 +1568,7 @@
       </c>
       <c r="E4" s="33" t="n">
         <f aca="false">B4</f>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="F4" s="7"/>
     </row>
@@ -1572,7 +1576,7 @@
       <c r="A5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="31" t="n">
+      <c r="B5" s="53" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1591,7 +1595,7 @@
       <c r="A6" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="31" t="n">
+      <c r="B6" s="7" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -1610,7 +1614,7 @@
       <c r="A7" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="31" t="n">
+      <c r="B7" s="26" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1629,8 +1633,8 @@
       <c r="A8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="34" t="n">
-        <v>0.1</v>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>68</v>
@@ -1639,7 +1643,7 @@
         <v>128</v>
       </c>
       <c r="E8" s="14" t="n">
-        <f aca="false">RADIANS(B8)</f>
+        <f aca="false">RADIANS(B11)</f>
         <v>0.00174532925199433</v>
       </c>
       <c r="F8" s="7"/>
@@ -1648,8 +1652,8 @@
       <c r="A9" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="35" t="n">
-        <v>0.2</v>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>68</v>
@@ -1658,7 +1662,7 @@
         <v>130</v>
       </c>
       <c r="E9" s="16" t="n">
-        <f aca="false">RADIANS(B9)</f>
+        <f aca="false">RADIANS(B12)</f>
         <v>0.00349065850398866</v>
       </c>
       <c r="F9" s="7"/>
@@ -1667,8 +1671,8 @@
       <c r="A10" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="35" t="n">
-        <v>0.3</v>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>68</v>
@@ -1677,7 +1681,7 @@
         <v>132</v>
       </c>
       <c r="E10" s="27" t="n">
-        <f aca="false">RADIANS(B10)</f>
+        <f aca="false">RADIANS(B13)</f>
         <v>0.00523598775598299</v>
       </c>
       <c r="F10" s="7"/>
@@ -1686,7 +1690,7 @@
       <c r="A11" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B11" s="36" t="n">
+      <c r="B11" s="13" t="n">
         <v>0.1</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1705,8 +1709,8 @@
       <c r="A12" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B12" s="31" t="n">
-        <v>0.1</v>
+      <c r="B12" s="7" t="n">
+        <v>0.2</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>134</v>
@@ -1716,7 +1720,7 @@
       </c>
       <c r="E12" s="38" t="n">
         <f aca="false">B12</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F12" s="7"/>
     </row>
@@ -1724,8 +1728,8 @@
       <c r="A13" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B13" s="31" t="n">
-        <v>0.1</v>
+      <c r="B13" s="26" t="n">
+        <v>0.3</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>134</v>
@@ -1735,7 +1739,7 @@
       </c>
       <c r="E13" s="39" t="n">
         <f aca="false">B13</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F13" s="7"/>
     </row>
@@ -1743,8 +1747,8 @@
       <c r="A14" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="29" t="n">
-        <v>0.1</v>
+      <c r="B14" s="53" t="n">
+        <v>0.01</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>55</v>
@@ -1754,7 +1758,7 @@
       </c>
       <c r="E14" s="40" t="n">
         <f aca="false">B14</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F14" s="7"/>
     </row>
@@ -1762,8 +1766,8 @@
       <c r="A15" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="29" t="n">
-        <v>0.2</v>
+      <c r="B15" s="7" t="n">
+        <v>0.02</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>55</v>
@@ -1773,7 +1777,7 @@
       </c>
       <c r="E15" s="41" t="n">
         <f aca="false">B15</f>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F15" s="7"/>
     </row>
@@ -1781,8 +1785,8 @@
       <c r="A16" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="29" t="n">
-        <v>0.3</v>
+      <c r="B16" s="26" t="n">
+        <v>0.03</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>55</v>
@@ -1792,7 +1796,7 @@
       </c>
       <c r="E16" s="42" t="n">
         <f aca="false">B16</f>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="F16" s="7"/>
     </row>
@@ -1800,8 +1804,8 @@
       <c r="A17" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B17" s="29" t="n">
-        <v>0.1</v>
+      <c r="B17" s="53" t="n">
+        <v>0.01</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>55</v>
@@ -1811,7 +1815,7 @@
       </c>
       <c r="E17" s="40" t="n">
         <f aca="false">B17</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="F17" s="7"/>
     </row>
@@ -1819,8 +1823,8 @@
       <c r="A18" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B18" s="29" t="n">
-        <v>0.2</v>
+      <c r="B18" s="7" t="n">
+        <v>0.02</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>55</v>
@@ -1830,7 +1834,7 @@
       </c>
       <c r="E18" s="41" t="n">
         <f aca="false">B18</f>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -1838,8 +1842,8 @@
       <c r="A19" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B19" s="29" t="n">
-        <v>0.3</v>
+      <c r="B19" s="26" t="n">
+        <v>0.03</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>55</v>
@@ -1849,7 +1853,7 @@
       </c>
       <c r="E19" s="42" t="n">
         <f aca="false">B19</f>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="F19" s="26"/>
     </row>
@@ -1857,8 +1861,8 @@
       <c r="A20" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B20" s="29" t="n">
-        <v>0.1</v>
+      <c r="B20" s="53" t="n">
+        <v>0.01</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>55</v>
@@ -1868,15 +1872,15 @@
       </c>
       <c r="E20" s="40" t="n">
         <f aca="false">B20</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B21" s="29" t="n">
-        <v>0.2</v>
+      <c r="B21" s="7" t="n">
+        <v>0.02</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>55</v>
@@ -1886,15 +1890,15 @@
       </c>
       <c r="E21" s="41" t="n">
         <f aca="false">B21</f>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B22" s="29" t="n">
-        <v>0.3</v>
+      <c r="B22" s="26" t="n">
+        <v>0.03</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>55</v>
@@ -1904,7 +1908,7 @@
       </c>
       <c r="E22" s="42" t="n">
         <f aca="false">B22</f>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
@@ -2004,8 +2008,8 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B41" activeCellId="0" sqref="B41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2368,8 +2372,8 @@
         <v>63</v>
       </c>
       <c r="B20" s="18" t="n">
-        <f aca="false">$B$5/2</f>
-        <v>12348.3141869223</v>
+        <f aca="false">$B$5/10</f>
+        <v>2469.66283738446</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>23</v>
@@ -2379,16 +2383,16 @@
       </c>
       <c r="E20" s="16" t="n">
         <f aca="false">B20</f>
-        <v>12348.3141869223</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2469.66283738446</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="18" t="n">
-        <f aca="false">$B$5/2</f>
-        <v>12348.3141869223</v>
+        <f aca="false">$B$5/10</f>
+        <v>2469.66283738446</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>23</v>
@@ -2398,7 +2402,7 @@
       </c>
       <c r="E21" s="16" t="n">
         <f aca="false">B21</f>
-        <v>12348.3141869223</v>
+        <v>2469.66283738446</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1295,7 +1295,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1484,8 +1484,8 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1577,7 +1577,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="53" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>239</v>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="E5" s="30" t="n">
         <f aca="false">B5</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1596,7 +1596,7 @@
         <v>240</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>239</v>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E6" s="30" t="n">
         <f aca="false">B6</f>
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1615,7 +1615,7 @@
         <v>241</v>
       </c>
       <c r="B7" s="26" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>239</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="E7" s="30" t="n">
         <f aca="false">B7</f>
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F7" s="7"/>
     </row>
@@ -2009,7 +2009,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,6 +20,9 @@
     <sheet name="errorInjection" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Constants" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+  </externalReferences>
   <definedNames>
     <definedName function="false" hidden="false" name="days2hrs" vbProcedure="false">Constants!$B$5</definedName>
     <definedName function="false" hidden="false" name="g2mps2" vbProcedure="false">Constants!$B$4</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="273">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -696,7 +699,7 @@
     <t xml:space="preserve">sig_ax</t>
   </si>
   <si>
-    <t xml:space="preserve">rad</t>
+    <t xml:space="preserve">G</t>
   </si>
   <si>
     <t xml:space="preserve">3-sigma initial satellite orientation uncertainty</t>
@@ -708,18 +711,6 @@
     <t xml:space="preserve">sig_az</t>
   </si>
   <si>
-    <t xml:space="preserve">sig_thstx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-sigma initial star camera misalignment uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig_thsty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig_thstz</t>
-  </si>
-  <si>
     <t xml:space="preserve">sig_thcx</t>
   </si>
   <si>
@@ -732,16 +723,58 @@
     <t xml:space="preserve">sig_thcz</t>
   </si>
   <si>
-    <t xml:space="preserve">sig_gyrox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-sigma initial gyro bias uncertainty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig_gyroy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig_gyroz</t>
+    <t xml:space="preserve">sig_f1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 1 x position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f1y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 1 y position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f1z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 1 z position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f2x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 2 x position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f2y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 2 y position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f2z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 2 z position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f3x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 3 x position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f3y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 3 y position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_f3z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma initial uncertainty in lunar feature 3 z position</t>
   </si>
   <si>
     <t xml:space="preserve">del_rsx</t>
@@ -999,7 +1032,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1204,15 +1237,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1288,6 +1329,43 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="general"/>
+      <sheetName val="initialConditions"/>
+      <sheetName val="truthStateIdx"/>
+      <sheetName val="navStateIdx"/>
+      <sheetName val="truthStateParams"/>
+      <sheetName val="truthStateInitialUncertainty"/>
+      <sheetName val="navStateParams"/>
+      <sheetName val="navStateInitialUncertainty"/>
+      <sheetName val="errorInjection"/>
+      <sheetName val="Constants"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="15">
+          <cell r="B15">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1484,7 +1562,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1502,7 +1580,7 @@
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
@@ -1517,9 +1595,9 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="53" t="n">
+        <v>245</v>
+      </c>
+      <c r="B2" s="51" t="n">
         <v>0.01</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1536,7 +1614,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.02</v>
@@ -1555,7 +1633,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B4" s="26" t="n">
         <v>0.03</v>
@@ -1574,13 +1652,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="53" t="n">
+        <v>248</v>
+      </c>
+      <c r="B5" s="51" t="n">
         <v>0.1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>118</v>
@@ -1593,13 +1671,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>120</v>
@@ -1612,13 +1690,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B7" s="26" t="n">
         <v>0.3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>122</v>
@@ -1631,7 +1709,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1650,7 +1728,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1669,7 +1747,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1688,7 +1766,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>0.1</v>
@@ -1707,7 +1785,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>0.2</v>
@@ -1726,7 +1804,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B13" s="26" t="n">
         <v>0.3</v>
@@ -1745,9 +1823,9 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="53" t="n">
+        <v>258</v>
+      </c>
+      <c r="B14" s="51" t="n">
         <v>0.01</v>
       </c>
       <c r="C14" s="13" t="s">
@@ -1764,7 +1842,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>0.02</v>
@@ -1783,7 +1861,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B16" s="26" t="n">
         <v>0.03</v>
@@ -1802,9 +1880,9 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B17" s="53" t="n">
+        <v>261</v>
+      </c>
+      <c r="B17" s="51" t="n">
         <v>0.01</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1821,7 +1899,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0.02</v>
@@ -1840,7 +1918,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B19" s="26" t="n">
         <v>0.03</v>
@@ -1859,9 +1937,9 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="B20" s="53" t="n">
+        <v>264</v>
+      </c>
+      <c r="B20" s="51" t="n">
         <v>0.01</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1877,7 +1955,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>0.02</v>
@@ -1895,7 +1973,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B22" s="26" t="n">
         <v>0.03</v>
@@ -1942,7 +2020,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>60</v>
@@ -1950,7 +2028,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>60</v>
@@ -1958,7 +2036,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">hr2min*min2sec</f>
@@ -1967,7 +2045,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.81</v>
@@ -1975,7 +2053,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>24</v>
@@ -1983,7 +2061,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">180/3.14159</f>
@@ -5075,10 +5153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5112,8 +5190,8 @@
       <c r="A2" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="13" t="n">
-        <v>4000</v>
+      <c r="B2" s="51" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>55</v>
@@ -5123,15 +5201,15 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">B2/3</f>
-        <v>1333.33333333333</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="7" t="n">
-        <v>4000</v>
+      <c r="B3" s="52" t="n">
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>55</v>
@@ -5141,15 +5219,15 @@
       </c>
       <c r="E3" s="16" t="n">
         <f aca="false">B3/3</f>
-        <v>1333.33333333333</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>4000</v>
+      <c r="B4" s="52" t="n">
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>55</v>
@@ -5159,15 +5237,15 @@
       </c>
       <c r="E4" s="16" t="n">
         <f aca="false">B4/3</f>
-        <v>1333.33333333333</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>3</v>
+      <c r="B5" s="52" t="n">
+        <v>0.0001</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>214</v>
@@ -5177,15 +5255,15 @@
       </c>
       <c r="E5" s="16" t="n">
         <f aca="false">B5/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.33333333333333E-005</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <v>3</v>
+      <c r="B6" s="52" t="n">
+        <v>0.0001</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>214</v>
@@ -5195,15 +5273,15 @@
       </c>
       <c r="E6" s="16" t="n">
         <f aca="false">B6/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.33333333333333E-005</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B7" s="7" t="n">
-        <v>3</v>
+      <c r="B7" s="52" t="n">
+        <v>0.0001</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>214</v>
@@ -5213,15 +5291,15 @@
       </c>
       <c r="E7" s="16" t="n">
         <f aca="false">B7/3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3.33333333333333E-005</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B8" s="7" t="n">
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>219</v>
@@ -5230,16 +5308,16 @@
         <v>220</v>
       </c>
       <c r="E8" s="16" t="n">
-        <f aca="false">B8/3</f>
-        <v>0.000166666666666667</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">B8*g2mps2/3</f>
+        <v>0.00327</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B9" s="7" t="n">
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>219</v>
@@ -5248,16 +5326,16 @@
         <v>220</v>
       </c>
       <c r="E9" s="16" t="n">
-        <f aca="false">B9/3</f>
-        <v>0.000166666666666667</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">B9*g2mps2/3</f>
+        <v>0.00327</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>219</v>
@@ -5266,179 +5344,236 @@
         <v>220</v>
       </c>
       <c r="E10" s="16" t="n">
-        <f aca="false">B10/3</f>
-        <v>0.000166666666666667</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">B10*g2mps2/3</f>
+        <v>0.00327</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <f aca="false">truthStateParams!$B$5</f>
-        <v>20</v>
+      <c r="B11" s="52" t="n">
+        <f aca="false">1/20</f>
+        <v>0.05</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E11" s="16" t="n">
-        <f aca="false">RADIANS(B11)/3600/3</f>
-        <v>3.23209120739691E-005</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">RADIANS(B11)/3</f>
+        <v>0.000290888208665722</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <f aca="false">truthStateParams!$B$5</f>
-        <v>20</v>
+      <c r="B12" s="52" t="n">
+        <f aca="false">1/20</f>
+        <v>0.05</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E12" s="16" t="n">
-        <f aca="false">RADIANS(B12)/3600/3</f>
-        <v>3.23209120739691E-005</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+        <f aca="false">RADIANS(B12)/3</f>
+        <v>0.000290888208665722</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="7" t="n">
-        <f aca="false">truthStateParams!$B$5</f>
-        <v>20</v>
+      <c r="B13" s="52" t="n">
+        <f aca="false">1/20</f>
+        <v>0.05</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>224</v>
       </c>
       <c r="E13" s="16" t="n">
-        <f aca="false">RADIANS(B13)/3600/3</f>
-        <v>3.23209120739691E-005</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+        <f aca="false">RADIANS(B13)/3</f>
+        <v>0.000290888208665722</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="B14" s="7" t="n">
-        <f aca="false">truthStateParams!$B$6</f>
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="E14" s="16" t="n">
-        <f aca="false">RADIANS(B14)/3600/3</f>
-        <v>3.23209120739691E-005</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="50" t="n">
+        <f aca="false">B14/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="53" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <f aca="false">truthStateParams!$B$6</f>
-        <v>20</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E15" s="16" t="n">
-        <f aca="false">RADIANS(B15)/3600/3</f>
-        <v>3.23209120739691E-005</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
+      <c r="B15" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="7" t="n">
-        <f aca="false">truthStateParams!$B$6</f>
-        <v>20</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="16" t="n">
-        <f aca="false">RADIANS(B16)/3600/3</f>
-        <v>3.23209120739691E-005</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="E15" s="50" t="n">
+        <f aca="false">B15/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="7" t="n">
-        <f aca="false">truthStateParams!$B$3</f>
-        <v>5</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B16" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="16" t="n">
-        <f aca="false">RADIANS(B17)/hr2sec/3</f>
-        <v>8.08022801849227E-006</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="E16" s="50" t="n">
+        <f aca="false">B16/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="7" t="n">
-        <f aca="false">truthStateParams!$B$3</f>
-        <v>5</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="16" t="n">
-        <f aca="false">RADIANS(B18)/hr2sec/3</f>
-        <v>8.08022801849227E-006</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
+      <c r="B17" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="B19" s="26" t="n">
-        <f aca="false">truthStateParams!$B$3</f>
-        <v>5</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="27" t="n">
-        <f aca="false">RADIANS(B19)/hr2sec/3</f>
-        <v>8.08022801849227E-006</v>
+      <c r="E17" s="50" t="n">
+        <f aca="false">B17/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="50" t="n">
+        <f aca="false">B18/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="50" t="n">
+        <f aca="false">B19/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="E20" s="50" t="n">
+        <f aca="false">B20/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="50" t="n">
+        <f aca="false">B21/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="50" t="n">
+        <f aca="false">B22/3</f>
+        <v>0.333333333333333</v>
       </c>
     </row>
   </sheetData>
@@ -5797,10 +5932,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5808,7 +5943,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="16.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="14.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="9.14"/>
   </cols>
@@ -5817,7 +5952,7 @@
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
@@ -5837,7 +5972,7 @@
       </c>
       <c r="B2" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B2</f>
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C2</f>
@@ -5849,7 +5984,7 @@
       </c>
       <c r="E2" s="41" t="n">
         <f aca="false">B2/3</f>
-        <v>1333.33333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F2" s="50"/>
     </row>
@@ -5860,7 +5995,7 @@
       </c>
       <c r="B3" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B3</f>
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C3</f>
@@ -5872,7 +6007,7 @@
       </c>
       <c r="E3" s="41" t="n">
         <f aca="false">B3/3</f>
-        <v>1333.33333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F3" s="50"/>
     </row>
@@ -5883,7 +6018,7 @@
       </c>
       <c r="B4" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B4</f>
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C4</f>
@@ -5895,7 +6030,7 @@
       </c>
       <c r="E4" s="41" t="n">
         <f aca="false">B4/3</f>
-        <v>1333.33333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F4" s="50"/>
     </row>
@@ -5906,7 +6041,7 @@
       </c>
       <c r="B5" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B5</f>
-        <v>3</v>
+        <v>0.0001</v>
       </c>
       <c r="C5" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C5</f>
@@ -5918,7 +6053,7 @@
       </c>
       <c r="E5" s="41" t="n">
         <f aca="false">B5/3</f>
-        <v>1</v>
+        <v>3.33333333333333E-005</v>
       </c>
       <c r="F5" s="50"/>
     </row>
@@ -5929,7 +6064,7 @@
       </c>
       <c r="B6" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B6</f>
-        <v>3</v>
+        <v>0.0001</v>
       </c>
       <c r="C6" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C6</f>
@@ -5941,7 +6076,7 @@
       </c>
       <c r="E6" s="41" t="n">
         <f aca="false">B6/3</f>
-        <v>1</v>
+        <v>3.33333333333333E-005</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,7 +6086,7 @@
       </c>
       <c r="B7" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B7</f>
-        <v>3</v>
+        <v>0.0001</v>
       </c>
       <c r="C7" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C7</f>
@@ -5963,7 +6098,7 @@
       </c>
       <c r="E7" s="41" t="n">
         <f aca="false">B7/3</f>
-        <v>1</v>
+        <v>3.33333333333333E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,11 +6108,11 @@
       </c>
       <c r="B8" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B8</f>
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="C8" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C8</f>
-        <v>rad</v>
+        <v>G</v>
       </c>
       <c r="D8" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D8</f>
@@ -5985,7 +6120,7 @@
       </c>
       <c r="E8" s="41" t="n">
         <f aca="false">B8/3</f>
-        <v>0.000166666666666667</v>
+        <v>0.000333333333333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,11 +6130,11 @@
       </c>
       <c r="B9" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B9</f>
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="C9" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C9</f>
-        <v>rad</v>
+        <v>G</v>
       </c>
       <c r="D9" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D9</f>
@@ -6007,7 +6142,7 @@
       </c>
       <c r="E9" s="41" t="n">
         <f aca="false">B9/3</f>
-        <v>0.000166666666666667</v>
+        <v>0.000333333333333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6017,11 +6152,11 @@
       </c>
       <c r="B10" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B10</f>
-        <v>0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="C10" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C10</f>
-        <v>rad</v>
+        <v>G</v>
       </c>
       <c r="D10" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D10</f>
@@ -6029,205 +6164,300 @@
       </c>
       <c r="E10" s="41" t="n">
         <f aca="false">B10/3</f>
-        <v>0.000166666666666667</v>
+        <v>0.000333333333333333</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A11</f>
-        <v>sig_thstx</v>
+        <v>sig_thcx</v>
       </c>
       <c r="B11" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B11</f>
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="C11" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C11</f>
-        <v>arcsec</v>
+        <v>deg</v>
       </c>
       <c r="D11" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D11</f>
-        <v>3-sigma initial star camera misalignment uncertainty</v>
+        <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
       <c r="E11" s="41" t="n">
         <f aca="false">RADIANS(B11)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>8.08022801849227E-008</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A12</f>
-        <v>sig_thsty</v>
+        <v>sig_thcy</v>
       </c>
       <c r="B12" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B12</f>
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="C12" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C12</f>
-        <v>arcsec</v>
+        <v>deg</v>
       </c>
       <c r="D12" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D12</f>
-        <v>3-sigma initial star camera misalignment uncertainty</v>
+        <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
       <c r="E12" s="41" t="n">
         <f aca="false">RADIANS(B12)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>8.08022801849227E-008</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="str">
         <f aca="false">truthStateInitialUncertainty!A13</f>
-        <v>sig_thstz</v>
+        <v>sig_thcz</v>
       </c>
       <c r="B13" s="7" t="n">
         <f aca="false">truthStateInitialUncertainty!B13</f>
-        <v>20</v>
+        <v>0.05</v>
       </c>
       <c r="C13" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!C13</f>
-        <v>arcsec</v>
+        <v>deg</v>
       </c>
       <c r="D13" s="7" t="str">
         <f aca="false">truthStateInitialUncertainty!D13</f>
-        <v>3-sigma initial star camera misalignment uncertainty</v>
+        <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
       <c r="E13" s="41" t="n">
         <f aca="false">RADIANS(B13)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>8.08022801849227E-008</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="str">
-        <f aca="false">truthStateInitialUncertainty!A14</f>
+        <f aca="false">truthStateInitialUncertainty!A11</f>
         <v>sig_thcx</v>
       </c>
       <c r="B14" s="7" t="n">
-        <f aca="false">truthStateInitialUncertainty!B14</f>
-        <v>20</v>
+        <f aca="false">truthStateInitialUncertainty!B11</f>
+        <v>0.05</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!C14</f>
-        <v>arcsec</v>
+        <f aca="false">truthStateInitialUncertainty!C11</f>
+        <v>deg</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!D14</f>
+        <f aca="false">truthStateInitialUncertainty!D11</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
       <c r="E14" s="41" t="n">
         <f aca="false">RADIANS(B14)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>8.08022801849227E-008</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="str">
-        <f aca="false">truthStateInitialUncertainty!A15</f>
+        <f aca="false">truthStateInitialUncertainty!A12</f>
         <v>sig_thcy</v>
       </c>
       <c r="B15" s="7" t="n">
-        <f aca="false">truthStateInitialUncertainty!B15</f>
-        <v>20</v>
+        <f aca="false">truthStateInitialUncertainty!B12</f>
+        <v>0.05</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!C15</f>
-        <v>arcsec</v>
+        <f aca="false">truthStateInitialUncertainty!C12</f>
+        <v>deg</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!D15</f>
+        <f aca="false">truthStateInitialUncertainty!D12</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
       <c r="E15" s="41" t="n">
         <f aca="false">RADIANS(B15)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>8.08022801849227E-008</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="str">
-        <f aca="false">truthStateInitialUncertainty!A16</f>
+        <f aca="false">truthStateInitialUncertainty!A13</f>
         <v>sig_thcz</v>
       </c>
       <c r="B16" s="7" t="n">
-        <f aca="false">truthStateInitialUncertainty!B16</f>
-        <v>20</v>
+        <f aca="false">truthStateInitialUncertainty!B13</f>
+        <v>0.05</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!C16</f>
-        <v>arcsec</v>
+        <f aca="false">truthStateInitialUncertainty!C13</f>
+        <v>deg</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!D16</f>
+        <f aca="false">truthStateInitialUncertainty!D13</f>
         <v>3-sigma initial terrain camera misalignment uncertainty</v>
       </c>
       <c r="E16" s="41" t="n">
         <f aca="false">RADIANS(B16)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>8.08022801849227E-008</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="str">
-        <f aca="false">truthStateInitialUncertainty!A17</f>
-        <v>sig_gyrox</v>
+        <f aca="false">truthStateInitialUncertainty!A14</f>
+        <v>sig_f1x</v>
       </c>
       <c r="B17" s="7" t="n">
-        <f aca="false">truthStateInitialUncertainty!B17</f>
-        <v>5</v>
+        <f aca="false">truthStateInitialUncertainty!B14</f>
+        <v>1</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!C17</f>
-        <v>deg/hr</v>
+        <f aca="false">truthStateInitialUncertainty!C14</f>
+        <v>m</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!D17</f>
-        <v>3-sigma initial gyro bias uncertainty</v>
+        <f aca="false">truthStateInitialUncertainty!D14</f>
+        <v>3-sigma initial uncertainty in lunar feature 1 x position</v>
       </c>
       <c r="E17" s="41" t="n">
         <f aca="false">RADIANS(B17)/hr2sec/3</f>
-        <v>8.08022801849227E-006</v>
+        <v>1.61604560369845E-006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="str">
-        <f aca="false">truthStateInitialUncertainty!A18</f>
-        <v>sig_gyroy</v>
+        <f aca="false">truthStateInitialUncertainty!A15</f>
+        <v>sig_f1y</v>
       </c>
       <c r="B18" s="7" t="n">
-        <f aca="false">truthStateInitialUncertainty!B18</f>
-        <v>5</v>
+        <f aca="false">truthStateInitialUncertainty!B15</f>
+        <v>1</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!C18</f>
-        <v>deg/hr</v>
+        <f aca="false">truthStateInitialUncertainty!C15</f>
+        <v>m</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!D18</f>
-        <v>3-sigma initial gyro bias uncertainty</v>
+        <f aca="false">truthStateInitialUncertainty!D15</f>
+        <v>3-sigma initial uncertainty in lunar feature 1 y position</v>
       </c>
       <c r="E18" s="41" t="n">
         <f aca="false">RADIANS(B18)/hr2sec/3</f>
-        <v>8.08022801849227E-006</v>
+        <v>1.61604560369845E-006</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="str">
-        <f aca="false">truthStateInitialUncertainty!A19</f>
-        <v>sig_gyroz</v>
+        <f aca="false">truthStateInitialUncertainty!A16</f>
+        <v>sig_f1z</v>
       </c>
       <c r="B19" s="26" t="n">
-        <f aca="false">truthStateInitialUncertainty!B19</f>
-        <v>5</v>
+        <f aca="false">truthStateInitialUncertainty!B16</f>
+        <v>1</v>
       </c>
       <c r="C19" s="26" t="str">
-        <f aca="false">truthStateInitialUncertainty!C19</f>
-        <v>deg/hr</v>
+        <f aca="false">truthStateInitialUncertainty!C16</f>
+        <v>m</v>
       </c>
       <c r="D19" s="26" t="str">
-        <f aca="false">truthStateInitialUncertainty!D19</f>
-        <v>3-sigma initial gyro bias uncertainty</v>
+        <f aca="false">truthStateInitialUncertainty!D16</f>
+        <v>3-sigma initial uncertainty in lunar feature 1 z position</v>
       </c>
       <c r="E19" s="42" t="n">
         <f aca="false">RADIANS(B19)/hr2sec/3</f>
-        <v>8.08022801849227E-006</v>
+        <v>1.61604560369845E-006</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="50" t="n">
+        <f aca="false">B20/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E21" s="50" t="n">
+        <f aca="false">B21/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="E22" s="50" t="n">
+        <f aca="false">B22/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E23" s="50" t="n">
+        <f aca="false">B23/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B24" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="50" t="n">
+        <f aca="false">B24/3</f>
+        <v>0.333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="279">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -606,18 +606,21 @@
     <t xml:space="preserve">3-sigma angular random walk</t>
   </si>
   <si>
-    <t xml:space="preserve">sig_st_ss</t>
+    <t xml:space="preserve">sig_acc_ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-sigma steady-state star camera misalignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_c_ss</t>
   </si>
   <si>
     <t xml:space="preserve">arcsec/axis</t>
   </si>
   <si>
-    <t xml:space="preserve">3-sigma steady-state star camera misalignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sig_c_ss</t>
-  </si>
-  <si>
     <t xml:space="preserve">3-sigma steady-state terrain camera misalignment</t>
   </si>
   <si>
@@ -667,6 +670,21 @@
   </si>
   <si>
     <t xml:space="preserve">3-sigma change in lunar-referenced position measurement uncertainty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vrw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/s/sqrt(hr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 sigma velocity random walk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sig_accel_ss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 sigma steady state accel bias </t>
   </si>
   <si>
     <t xml:space="preserve">sig_rsx</t>
@@ -1373,8 +1391,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1406,7 +1424,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>6</v>
@@ -1416,7 +1434,7 @@
       </c>
       <c r="E2" s="0" t="n">
         <f aca="false">B2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,7 +1460,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
@@ -1452,7 +1470,7 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">B4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1496,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
@@ -1506,7 +1524,7 @@
       </c>
       <c r="E7" s="8" t="n">
         <f aca="false">B7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1595,7 +1613,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B2" s="51" t="n">
         <v>0.01</v>
@@ -1614,7 +1632,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B3" s="7" t="n">
         <v>0.02</v>
@@ -1633,7 +1651,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B4" s="26" t="n">
         <v>0.03</v>
@@ -1652,13 +1670,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B5" s="51" t="n">
         <v>0.1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>118</v>
@@ -1671,13 +1689,13 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B6" s="7" t="n">
         <v>0.2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>120</v>
@@ -1690,13 +1708,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B7" s="26" t="n">
         <v>0.3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>122</v>
@@ -1709,7 +1727,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1728,7 +1746,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1747,7 +1765,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -1766,7 +1784,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B11" s="13" t="n">
         <v>0.1</v>
@@ -1785,7 +1803,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B12" s="7" t="n">
         <v>0.2</v>
@@ -1804,7 +1822,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B13" s="26" t="n">
         <v>0.3</v>
@@ -1823,7 +1841,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B14" s="51" t="n">
         <v>0.01</v>
@@ -1842,7 +1860,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B15" s="7" t="n">
         <v>0.02</v>
@@ -1861,7 +1879,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B16" s="26" t="n">
         <v>0.03</v>
@@ -1880,7 +1898,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B17" s="51" t="n">
         <v>0.01</v>
@@ -1899,7 +1917,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>0.02</v>
@@ -1918,7 +1936,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B19" s="26" t="n">
         <v>0.03</v>
@@ -1937,7 +1955,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B20" s="51" t="n">
         <v>0.01</v>
@@ -1955,7 +1973,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B21" s="7" t="n">
         <v>0.02</v>
@@ -1973,7 +1991,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B22" s="26" t="n">
         <v>0.03</v>
@@ -2020,7 +2038,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>60</v>
@@ -2028,7 +2046,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>60</v>
@@ -2036,7 +2054,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">hr2min*min2sec</f>
@@ -2045,7 +2063,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>9.81</v>
@@ -2053,7 +2071,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>24</v>
@@ -2061,7 +2079,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B6" s="0" t="n">
         <f aca="false">180/3.14159</f>
@@ -2087,7 +2105,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2232,8 +2250,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="6" t="n">
-        <f aca="false">12*6</f>
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -2243,7 +2260,7 @@
       </c>
       <c r="E8" s="16" t="n">
         <f aca="false">B8</f>
-        <v>72</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,10 +4884,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4953,18 +4970,18 @@
         <v>187</v>
       </c>
       <c r="E4" s="27" t="n">
-        <f aca="false">RADIANS(B4)/SQRT(hr2sec)/3</f>
-        <v>4.84813681109536E-006</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">B5/SQRT(hr2sec)/3</f>
+        <v>5.55555555555556E-006</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="18" t="n">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>189</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -4972,7 +4989,7 @@
       </c>
       <c r="E5" s="16" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>1.61604560369845E-009</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,10 +5000,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E6" s="16" t="n">
         <f aca="false">RADIANS(B6)/3600/3</f>
@@ -4995,16 +5012,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E7" s="16" t="n">
         <f aca="false">RADIANS(B7)/3600/3</f>
@@ -5013,16 +5030,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B8" s="18" t="n">
         <v>1.5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E8" s="16" t="n">
         <f aca="false">RADIANS(B8)/3600/3</f>
@@ -5031,16 +5048,16 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B9" s="18" t="n">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E9" s="16" t="n">
         <f aca="false">RADIANS(B9)/3600/3</f>
@@ -5049,16 +5066,16 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B10" s="34" t="n">
         <v>3</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E10" s="14" t="n">
         <f aca="false">B10/3</f>
@@ -5067,16 +5084,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B11" s="49" t="n">
         <v>3</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E11" s="27" t="n">
         <f aca="false">B11/3</f>
@@ -5085,7 +5102,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B12" s="43" t="n">
         <v>10</v>
@@ -5094,7 +5111,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E12" s="10" t="n">
         <f aca="false">B12/3</f>
@@ -5103,7 +5120,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B13" s="43" t="n">
         <v>100</v>
@@ -5112,7 +5129,7 @@
         <v>55</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E13" s="10" t="n">
         <f aca="false">B13/3</f>
@@ -5121,7 +5138,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B14" s="43" t="n">
         <v>10</v>
@@ -5130,11 +5147,47 @@
         <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E14" s="10" t="n">
         <f aca="false">B14/3</f>
         <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <f aca="false">B15/SQRT(hr2sec)/3</f>
+        <v>0.000333333333333333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <f aca="false">B16*g2mps2/3</f>
+        <v>0.00327</v>
       </c>
     </row>
   </sheetData>
@@ -5156,7 +5209,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5188,7 +5241,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B2" s="51" t="n">
         <v>1</v>
@@ -5197,7 +5250,7 @@
         <v>55</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">B2/3</f>
@@ -5206,7 +5259,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B3" s="52" t="n">
         <v>1</v>
@@ -5215,7 +5268,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E3" s="16" t="n">
         <f aca="false">B3/3</f>
@@ -5224,7 +5277,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B4" s="52" t="n">
         <v>1</v>
@@ -5233,7 +5286,7 @@
         <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="E4" s="16" t="n">
         <f aca="false">B4/3</f>
@@ -5242,16 +5295,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B5" s="52" t="n">
         <v>0.0001</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E5" s="16" t="n">
         <f aca="false">B5/3</f>
@@ -5260,16 +5313,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B6" s="52" t="n">
         <v>0.0001</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E6" s="16" t="n">
         <f aca="false">B6/3</f>
@@ -5278,16 +5331,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B7" s="52" t="n">
         <v>0.0001</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E7" s="16" t="n">
         <f aca="false">B7/3</f>
@@ -5296,16 +5349,16 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B8" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E8" s="16" t="n">
         <f aca="false">B8*g2mps2/3</f>
@@ -5314,16 +5367,16 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B9" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E9" s="16" t="n">
         <f aca="false">B9*g2mps2/3</f>
@@ -5332,16 +5385,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B10" s="7" t="n">
         <v>0.001</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E10" s="16" t="n">
         <f aca="false">B10*g2mps2/3</f>
@@ -5350,7 +5403,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B11" s="52" t="n">
         <f aca="false">1/20</f>
@@ -5360,7 +5413,7 @@
         <v>68</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E11" s="16" t="n">
         <f aca="false">RADIANS(B11)/3</f>
@@ -5369,7 +5422,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B12" s="52" t="n">
         <f aca="false">1/20</f>
@@ -5379,7 +5432,7 @@
         <v>68</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E12" s="16" t="n">
         <f aca="false">RADIANS(B12)/3</f>
@@ -5388,7 +5441,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B13" s="52" t="n">
         <f aca="false">1/20</f>
@@ -5398,7 +5451,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E13" s="16" t="n">
         <f aca="false">RADIANS(B13)/3</f>
@@ -5407,7 +5460,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="53" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B14" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5417,7 +5470,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E14" s="50" t="n">
         <f aca="false">B14/3</f>
@@ -5426,7 +5479,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="53" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B15" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5436,7 +5489,7 @@
         <v>55</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E15" s="50" t="n">
         <f aca="false">B15/3</f>
@@ -5445,7 +5498,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="53" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B16" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5455,7 +5508,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E16" s="50" t="n">
         <f aca="false">B16/3</f>
@@ -5464,7 +5517,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="53" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B17" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5474,7 +5527,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="53" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E17" s="50" t="n">
         <f aca="false">B17/3</f>
@@ -5483,7 +5536,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="53" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B18" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5493,7 +5546,7 @@
         <v>55</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E18" s="50" t="n">
         <f aca="false">B18/3</f>
@@ -5502,7 +5555,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="53" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B19" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5512,7 +5565,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="53" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E19" s="50" t="n">
         <f aca="false">B19/3</f>
@@ -5521,7 +5574,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="53" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B20" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5531,7 +5584,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E20" s="50" t="n">
         <f aca="false">B20/3</f>
@@ -5540,7 +5593,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="53" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B21" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5550,7 +5603,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E21" s="50" t="n">
         <f aca="false">B21/3</f>
@@ -5559,7 +5612,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="53" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B22" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -5569,7 +5622,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E22" s="50" t="n">
         <f aca="false">B22/3</f>
@@ -5592,10 +5645,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5698,15 +5751,15 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="str">
         <f aca="false">truthStateParams!A5</f>
-        <v>sig_st_ss</v>
+        <v>sig_acc_ss</v>
       </c>
       <c r="B5" s="18" t="n">
         <f aca="false">truthStateParams!B5</f>
-        <v>20</v>
+        <v>0.001</v>
       </c>
       <c r="C5" s="7" t="str">
         <f aca="false">truthStateParams!C5</f>
-        <v>arcsec/axis</v>
+        <v>g</v>
       </c>
       <c r="D5" s="7" t="str">
         <f aca="false">truthStateParams!D5</f>
@@ -5714,7 +5767,7 @@
       </c>
       <c r="E5" s="16" t="n">
         <f aca="false">RADIANS(B5)/3600/3</f>
-        <v>3.23209120739691E-005</v>
+        <v>1.61604560369845E-009</v>
       </c>
       <c r="F5" s="50"/>
     </row>
@@ -5914,6 +5967,42 @@
       <c r="E14" s="27" t="n">
         <f aca="false">B14/3</f>
         <v>3.33333333333333</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B15" s="43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="10" t="n">
+        <f aca="false">B15/SQRT(hr2sec)/3</f>
+        <v>0.000333333333333333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="43" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="10" t="n">
+        <f aca="false">B16*g2mps2/3</f>
+        <v>0.00327</v>
       </c>
     </row>
   </sheetData>
@@ -5932,10 +6021,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5943,7 +6032,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="9.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="7" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="51.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="16.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="50" width="19.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="14.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="7" width="9.14"/>
   </cols>
@@ -6299,75 +6388,66 @@
         <v>8.08022801849227E-008</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="str">
-        <f aca="false">truthStateInitialUncertainty!A14</f>
-        <v>sig_f1x</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <f aca="false">truthStateInitialUncertainty!B14</f>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!C14</f>
-        <v>m</v>
-      </c>
-      <c r="D17" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!D14</f>
-        <v>3-sigma initial uncertainty in lunar feature 1 x position</v>
-      </c>
-      <c r="E17" s="41" t="n">
-        <f aca="false">RADIANS(B17)/hr2sec/3</f>
-        <v>1.61604560369845E-006</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="str">
-        <f aca="false">truthStateInitialUncertainty!A15</f>
-        <v>sig_f1y</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <f aca="false">truthStateInitialUncertainty!B15</f>
+      <c r="C17" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="50" t="n">
+        <f aca="false">B17/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C18" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!C15</f>
-        <v>m</v>
-      </c>
-      <c r="D18" s="7" t="str">
-        <f aca="false">truthStateInitialUncertainty!D15</f>
-        <v>3-sigma initial uncertainty in lunar feature 1 y position</v>
-      </c>
-      <c r="E18" s="41" t="n">
-        <f aca="false">RADIANS(B18)/hr2sec/3</f>
-        <v>1.61604560369845E-006</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="str">
-        <f aca="false">truthStateInitialUncertainty!A16</f>
-        <v>sig_f1z</v>
-      </c>
-      <c r="B19" s="26" t="n">
-        <f aca="false">truthStateInitialUncertainty!B16</f>
+      <c r="C18" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="50" t="n">
+        <f aca="false">B18/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C19" s="26" t="str">
-        <f aca="false">truthStateInitialUncertainty!C16</f>
-        <v>m</v>
-      </c>
-      <c r="D19" s="26" t="str">
-        <f aca="false">truthStateInitialUncertainty!D16</f>
-        <v>3-sigma initial uncertainty in lunar feature 1 z position</v>
-      </c>
-      <c r="E19" s="42" t="n">
-        <f aca="false">RADIANS(B19)/hr2sec/3</f>
-        <v>1.61604560369845E-006</v>
+      <c r="C19" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" s="50" t="n">
+        <f aca="false">B19/3</f>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="53" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B20" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -6377,7 +6457,7 @@
         <v>55</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E20" s="50" t="n">
         <f aca="false">B20/3</f>
@@ -6386,7 +6466,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="53" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B21" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -6396,7 +6476,7 @@
         <v>55</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="E21" s="50" t="n">
         <f aca="false">B21/3</f>
@@ -6405,7 +6485,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="53" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B22" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -6415,7 +6495,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="53" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E22" s="50" t="n">
         <f aca="false">B22/3</f>
@@ -6424,7 +6504,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="53" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B23" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -6434,7 +6514,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E23" s="50" t="n">
         <f aca="false">B23/3</f>
@@ -6443,7 +6523,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="53" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B24" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
@@ -6453,10 +6533,29 @@
         <v>55</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E24" s="50" t="n">
         <f aca="false">B24/3</f>
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="52" t="n">
+        <f aca="false">[1]truthStateParams!$B$15</f>
+        <v>1</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="E25" s="50" t="n">
+        <f aca="false">B25/3</f>
         <v>0.333333333333333</v>
       </c>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1050,7 +1050,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1263,10 +1263,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1392,10 +1388,10 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.49"/>
@@ -1442,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -1452,7 +1448,7 @@
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">B3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1460,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
@@ -1470,7 +1466,7 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">B4</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,7 +1546,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>6</v>
@@ -1598,7 +1594,7 @@
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
@@ -5459,17 +5455,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B14" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="7" t="s">
         <v>234</v>
       </c>
       <c r="E14" s="50" t="n">
@@ -5478,17 +5474,17 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B15" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="53" t="s">
+      <c r="D15" s="7" t="s">
         <v>236</v>
       </c>
       <c r="E15" s="50" t="n">
@@ -5497,17 +5493,17 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B16" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="7" t="s">
         <v>238</v>
       </c>
       <c r="E16" s="50" t="n">
@@ -5516,17 +5512,17 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B17" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="7" t="s">
         <v>240</v>
       </c>
       <c r="E17" s="50" t="n">
@@ -5535,17 +5531,17 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B18" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="7" t="s">
         <v>242</v>
       </c>
       <c r="E18" s="50" t="n">
@@ -5554,17 +5550,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B19" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E19" s="50" t="n">
@@ -5573,17 +5569,17 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B20" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="7" t="s">
         <v>246</v>
       </c>
       <c r="E20" s="50" t="n">
@@ -5592,17 +5588,17 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B21" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="7" t="s">
         <v>248</v>
       </c>
       <c r="E21" s="50" t="n">
@@ -5611,17 +5607,17 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B22" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="7" t="s">
         <v>250</v>
       </c>
       <c r="E22" s="50" t="n">
@@ -6041,7 +6037,7 @@
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="46" t="s">
@@ -6389,17 +6385,17 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="7" t="s">
         <v>233</v>
       </c>
       <c r="B17" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="7" t="s">
         <v>234</v>
       </c>
       <c r="E17" s="50" t="n">
@@ -6408,17 +6404,17 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="7" t="s">
         <v>235</v>
       </c>
       <c r="B18" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="7" t="s">
         <v>236</v>
       </c>
       <c r="E18" s="50" t="n">
@@ -6427,17 +6423,17 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="7" t="s">
         <v>237</v>
       </c>
       <c r="B19" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C19" s="54" t="s">
+      <c r="C19" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="7" t="s">
         <v>238</v>
       </c>
       <c r="E19" s="50" t="n">
@@ -6446,17 +6442,17 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="7" t="s">
         <v>239</v>
       </c>
       <c r="B20" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C20" s="54" t="s">
+      <c r="C20" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="7" t="s">
         <v>240</v>
       </c>
       <c r="E20" s="50" t="n">
@@ -6465,17 +6461,17 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="7" t="s">
         <v>241</v>
       </c>
       <c r="B21" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="7" t="s">
         <v>242</v>
       </c>
       <c r="E21" s="50" t="n">
@@ -6484,17 +6480,17 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="7" t="s">
         <v>243</v>
       </c>
       <c r="B22" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="7" t="s">
         <v>244</v>
       </c>
       <c r="E22" s="50" t="n">
@@ -6503,17 +6499,17 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="7" t="s">
         <v>245</v>
       </c>
       <c r="B23" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="7" t="s">
         <v>246</v>
       </c>
       <c r="E23" s="50" t="n">
@@ -6522,17 +6518,17 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="7" t="s">
         <v>247</v>
       </c>
       <c r="B24" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="7" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="50" t="n">
@@ -6541,17 +6537,17 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B25" s="52" t="n">
         <f aca="false">[1]truthStateParams!$B$15</f>
         <v>1</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="7" t="s">
         <v>250</v>
       </c>
       <c r="E25" s="50" t="n">

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1387,8 +1387,8 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1438,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>6</v>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="E3" s="0" t="n">
         <f aca="false">B3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>6</v>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="E4" s="0" t="n">
         <f aca="false">B4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1576,7 +1576,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1669,7 +1669,7 @@
         <v>254</v>
       </c>
       <c r="B5" s="51" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>255</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="E5" s="30" t="n">
         <f aca="false">B5</f>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7"/>
     </row>
@@ -1688,7 +1688,7 @@
         <v>256</v>
       </c>
       <c r="B6" s="7" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>255</v>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E6" s="30" t="n">
         <f aca="false">B6</f>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -1707,7 +1707,7 @@
         <v>257</v>
       </c>
       <c r="B7" s="26" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>255</v>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E7" s="30" t="n">
         <f aca="false">B7</f>
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="F7" s="7"/>
     </row>

--- a/config.xlsx
+++ b/config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1576,7 +1576,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2100,7 +2100,7 @@
   </sheetPr>
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2137,7 +2137,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>23</v>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="E2" s="14" t="n">
         <f aca="false">B2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,7 +2173,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>23</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="E4" s="16" t="n">
         <f aca="false">B4</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,7 +2246,7 @@
         <v>35</v>
       </c>
       <c r="B8" s="6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E8" s="16" t="n">
         <f aca="false">B8</f>
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2463,8 +2463,8 @@
         <v>63</v>
       </c>
       <c r="B20" s="18" t="n">
-        <f aca="false">$B$5/10</f>
-        <v>2469.66283738446</v>
+        <f aca="false">$B$5/2</f>
+        <v>12348.3141869223</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>23</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E20" s="16" t="n">
         <f aca="false">B20</f>
-        <v>2469.66283738446</v>
+        <v>12348.3141869223</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2482,8 +2482,8 @@
         <v>65</v>
       </c>
       <c r="B21" s="18" t="n">
-        <f aca="false">$B$5/10</f>
-        <v>2469.66283738446</v>
+        <f aca="false">$B$5/2</f>
+        <v>12348.3141869223</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>23</v>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="E21" s="16" t="n">
         <f aca="false">B21</f>
-        <v>2469.66283738446</v>
+        <v>12348.3141869223</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +2929,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3196,7 +3196,7 @@
         <v>142</v>
       </c>
       <c r="B15" s="31" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>43</v>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="E15" s="41" t="n">
         <f aca="false">B15*1000</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3268,7 @@
         <v>150</v>
       </c>
       <c r="B19" s="32" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>43</v>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="E19" s="42" t="n">
         <f aca="false">B19*1000</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3304,7 +3304,7 @@
         <v>154</v>
       </c>
       <c r="B21" s="31" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>43</v>
@@ -3314,7 +3314,7 @@
       </c>
       <c r="E21" s="41" t="n">
         <f aca="false">B21*1000</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,7 +3322,7 @@
         <v>156</v>
       </c>
       <c r="B22" s="32" t="n">
-        <v>0.001</v>
+        <v>1</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>43</v>
@@ -3332,7 +3332,7 @@
       </c>
       <c r="E22" s="42" t="n">
         <f aca="false">B22*1000</f>
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
